--- a/midas_manifest_v2.xlsx
+++ b/midas_manifest_v2.xlsx
@@ -180,6 +180,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -317,7 +320,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -331,6 +334,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1015,7 +1020,7 @@
   <dimension ref="A1:Y1133"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1028,7 +1033,7 @@
     <col min="6" max="6" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1068,7 +1073,7 @@
       <c r="H1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="13" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -1118,7 +1123,6 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1143,7 +1147,6 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1167,7 +1170,6 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1191,7 +1193,6 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1215,7 +1216,6 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1239,7 +1239,6 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1263,7 +1262,6 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1287,7 +1285,6 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1311,7 +1308,6 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1335,7 +1331,6 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1359,7 +1354,6 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1383,7 +1377,6 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1409,7 +1402,6 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1435,7 +1427,6 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1461,7 +1452,6 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1487,7 +1477,6 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1513,7 +1502,6 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1539,7 +1527,6 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1565,7 +1552,6 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1591,7 +1577,6 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1617,7 +1602,6 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1643,7 +1627,6 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1669,7 +1652,6 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1695,7 +1677,6 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1721,7 +1702,6 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -1747,7 +1727,6 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1773,7 +1752,6 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -1799,7 +1777,6 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -1825,7 +1802,6 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -1851,7 +1827,6 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -1877,7 +1852,6 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -1903,7 +1877,6 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -1929,7 +1902,6 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -1955,7 +1927,6 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -1981,7 +1952,6 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2007,7 +1977,6 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -2033,7 +2002,6 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2059,7 +2027,6 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -2085,7 +2052,6 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -2111,7 +2077,6 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2137,7 +2102,6 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -2163,7 +2127,6 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2189,7 +2152,6 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2215,7 +2177,6 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -2241,7 +2202,6 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2267,7 +2227,6 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -2293,7 +2252,6 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2319,7 +2277,6 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2345,7 +2302,6 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2371,7 +2327,6 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2397,7 +2352,6 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2423,7 +2377,6 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2449,7 +2402,6 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -2475,7 +2427,6 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -2501,7 +2452,6 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2527,7 +2477,6 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -2553,7 +2502,6 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -2579,7 +2527,6 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -2605,7 +2552,6 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -2631,7 +2577,6 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -2657,7 +2602,6 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -2683,7 +2627,6 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -2709,7 +2652,6 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -2735,7 +2677,6 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -2761,7 +2702,6 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -2787,7 +2727,6 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -2813,7 +2752,6 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -2839,7 +2777,6 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -2865,7 +2802,6 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -2891,7 +2827,6 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -2917,7 +2852,6 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -2943,7 +2877,6 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -2969,7 +2902,6 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -2995,7 +2927,6 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -3021,7 +2952,6 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -3047,7 +2977,6 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -3073,7 +3002,6 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -3099,7 +3027,6 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -3125,7 +3052,6 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -3151,7 +3077,6 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -3177,7 +3102,6 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -3203,7 +3127,6 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -3229,7 +3152,6 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -3255,7 +3177,6 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -3281,7 +3202,6 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -3307,7 +3227,6 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -3333,7 +3252,6 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -3359,7 +3277,6 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
@@ -3385,7 +3302,6 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -3411,7 +3327,6 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -3437,7 +3352,6 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -3463,7 +3377,6 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -3489,7 +3402,6 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -3515,7 +3427,6 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -3541,7 +3452,6 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -3567,7 +3477,6 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -3593,7 +3502,6 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -3619,7 +3527,6 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -3645,7 +3552,6 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -3671,7 +3577,6 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -3697,7 +3602,6 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -3723,7 +3627,6 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -3749,7 +3652,6 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -3775,7 +3677,6 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -3801,7 +3702,6 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -3827,7 +3727,6 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -3853,7 +3752,6 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -3879,7 +3777,6 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -3905,7 +3802,6 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -3931,7 +3827,6 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -3957,7 +3852,6 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -3983,7 +3877,6 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -4009,7 +3902,6 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -4035,7 +3927,6 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -4061,7 +3952,6 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -4087,7 +3977,6 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -4113,7 +4002,6 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
@@ -4139,7 +4027,6 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
@@ -4165,7 +4052,6 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -4191,7 +4077,6 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
@@ -4217,7 +4102,6 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -4243,7 +4127,6 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -4269,7 +4152,6 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -4295,7 +4177,6 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -4321,7 +4202,6 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -4347,7 +4227,6 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -4373,7 +4252,6 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -4399,7 +4277,6 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -4425,7 +4302,6 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -4451,7 +4327,6 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -4477,7 +4352,6 @@
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -4503,7 +4377,6 @@
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -4529,7 +4402,6 @@
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -4555,7 +4427,6 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
@@ -4581,7 +4452,6 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -4607,7 +4477,6 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -4633,7 +4502,6 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -4659,7 +4527,6 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -4685,7 +4552,6 @@
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
@@ -4711,7 +4577,6 @@
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -4737,7 +4602,6 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -4763,7 +4627,6 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -4789,7 +4652,6 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
@@ -4815,7 +4677,6 @@
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
@@ -4841,7 +4702,6 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
@@ -4867,7 +4727,6 @@
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
@@ -4893,7 +4752,6 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
@@ -4919,7 +4777,6 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
@@ -4945,7 +4802,6 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
@@ -4971,7 +4827,6 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
@@ -4997,7 +4852,6 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
@@ -5023,7 +4877,6 @@
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
@@ -5049,7 +4902,6 @@
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
@@ -5075,7 +4927,6 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
@@ -5101,7 +4952,6 @@
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
@@ -5127,7 +4977,6 @@
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
@@ -5153,7 +5002,6 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -5179,7 +5027,6 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
@@ -5205,7 +5052,6 @@
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
@@ -5231,7 +5077,6 @@
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
@@ -5257,7 +5102,6 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
@@ -5283,7 +5127,6 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
@@ -5309,7 +5152,6 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
@@ -5335,7 +5177,6 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
@@ -5361,7 +5202,6 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
@@ -5387,7 +5227,6 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -5413,7 +5252,6 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
@@ -5439,7 +5277,6 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
@@ -5465,7 +5302,6 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
@@ -5491,7 +5327,6 @@
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
@@ -5517,7 +5352,6 @@
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
@@ -5543,7 +5377,6 @@
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
@@ -5569,7 +5402,6 @@
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
@@ -5595,7 +5427,6 @@
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
@@ -5621,7 +5452,6 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
@@ -5647,7 +5477,6 @@
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
@@ -5673,7 +5502,6 @@
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
@@ -5699,7 +5527,6 @@
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
@@ -5725,7 +5552,6 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
@@ -5751,7 +5577,6 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
@@ -5777,7 +5602,6 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
@@ -5803,7 +5627,6 @@
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
@@ -5829,7 +5652,6 @@
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
-      <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
@@ -5855,7 +5677,6 @@
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
-      <c r="I185" s="4"/>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
@@ -5881,7 +5702,6 @@
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
-      <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
@@ -5907,7 +5727,6 @@
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
-      <c r="I187" s="4"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
@@ -5933,7 +5752,6 @@
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
-      <c r="I188" s="4"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
@@ -5959,7 +5777,6 @@
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
-      <c r="I189" s="4"/>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
@@ -5985,7 +5802,6 @@
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
-      <c r="I190" s="4"/>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
@@ -6011,7 +5827,6 @@
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
@@ -6037,7 +5852,6 @@
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
-      <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
@@ -6063,7 +5877,6 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
-      <c r="I193" s="4"/>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
@@ -6089,7 +5902,6 @@
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
-      <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
@@ -6115,7 +5927,6 @@
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
-      <c r="I195" s="4"/>
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
@@ -6141,7 +5952,6 @@
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
-      <c r="I196" s="4"/>
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
@@ -6167,7 +5977,6 @@
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
-      <c r="I197" s="4"/>
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
@@ -6193,7 +6002,6 @@
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
-      <c r="I198" s="4"/>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
@@ -6219,7 +6027,6 @@
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
-      <c r="I199" s="4"/>
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
@@ -6245,7 +6052,6 @@
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
-      <c r="I200" s="4"/>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
@@ -6271,7 +6077,6 @@
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
-      <c r="I201" s="4"/>
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
@@ -6297,7 +6102,6 @@
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
-      <c r="I202" s="4"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
@@ -6323,7 +6127,6 @@
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
-      <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
       <c r="L203" s="4"/>
@@ -6349,7 +6152,6 @@
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
-      <c r="I204" s="4"/>
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
@@ -6375,7 +6177,6 @@
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
-      <c r="I205" s="4"/>
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
@@ -6401,7 +6202,6 @@
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
-      <c r="I206" s="4"/>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
@@ -6427,7 +6227,6 @@
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
-      <c r="I207" s="4"/>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
@@ -6453,7 +6252,6 @@
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
-      <c r="I208" s="4"/>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
@@ -6479,7 +6277,6 @@
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
-      <c r="I209" s="4"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
@@ -6505,7 +6302,6 @@
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
-      <c r="I210" s="4"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
@@ -6531,7 +6327,6 @@
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
-      <c r="I211" s="4"/>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
@@ -6557,7 +6352,6 @@
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
-      <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
       <c r="L212" s="4"/>
@@ -6583,7 +6377,6 @@
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
-      <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
       <c r="L213" s="4"/>
@@ -6609,7 +6402,6 @@
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
-      <c r="I214" s="4"/>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
@@ -6635,7 +6427,6 @@
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
-      <c r="I215" s="4"/>
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
       <c r="L215" s="4"/>
@@ -6661,7 +6452,6 @@
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
-      <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
@@ -6687,7 +6477,6 @@
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
-      <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
@@ -6713,7 +6502,6 @@
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
-      <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
@@ -6739,7 +6527,6 @@
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
-      <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
       <c r="L219" s="4"/>
@@ -6765,7 +6552,6 @@
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
-      <c r="I220" s="4"/>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
@@ -6791,7 +6577,6 @@
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
-      <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
       <c r="L221" s="4"/>
@@ -6817,7 +6602,6 @@
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
-      <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
@@ -6843,7 +6627,6 @@
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
-      <c r="I223" s="4"/>
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
@@ -6869,7 +6652,6 @@
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
-      <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
       <c r="L224" s="4"/>
@@ -6895,7 +6677,6 @@
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
-      <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
       <c r="L225" s="4"/>
@@ -6921,7 +6702,6 @@
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
-      <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
@@ -6947,7 +6727,6 @@
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
-      <c r="I227" s="4"/>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
       <c r="L227" s="4"/>
@@ -6973,7 +6752,6 @@
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
-      <c r="I228" s="4"/>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
@@ -6999,7 +6777,6 @@
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
-      <c r="I229" s="4"/>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
       <c r="L229" s="4"/>
@@ -7025,7 +6802,6 @@
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
-      <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
       <c r="L230" s="4"/>
@@ -7051,7 +6827,6 @@
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
-      <c r="I231" s="4"/>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
       <c r="L231" s="4"/>
@@ -7077,7 +6852,6 @@
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
-      <c r="I232" s="4"/>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
       <c r="L232" s="4"/>
@@ -7103,7 +6877,6 @@
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
-      <c r="I233" s="4"/>
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
       <c r="L233" s="4"/>
@@ -7129,7 +6902,6 @@
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
-      <c r="I234" s="4"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
       <c r="L234" s="4"/>
@@ -7155,7 +6927,6 @@
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
-      <c r="I235" s="4"/>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
       <c r="L235" s="4"/>
@@ -7181,7 +6952,6 @@
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
-      <c r="I236" s="4"/>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
       <c r="L236" s="4"/>
@@ -7207,7 +6977,6 @@
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
-      <c r="I237" s="4"/>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
       <c r="L237" s="4"/>
@@ -7233,7 +7002,6 @@
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
-      <c r="I238" s="4"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
       <c r="L238" s="4"/>
@@ -7259,7 +7027,6 @@
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
-      <c r="I239" s="4"/>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
       <c r="L239" s="4"/>
@@ -7285,7 +7052,6 @@
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
-      <c r="I240" s="4"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
       <c r="L240" s="4"/>
@@ -7311,7 +7077,6 @@
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
-      <c r="I241" s="4"/>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
       <c r="L241" s="4"/>
@@ -7337,7 +7102,6 @@
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
-      <c r="I242" s="4"/>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
       <c r="L242" s="4"/>
@@ -7363,7 +7127,6 @@
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
-      <c r="I243" s="4"/>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
       <c r="L243" s="4"/>
@@ -7389,7 +7152,6 @@
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
-      <c r="I244" s="4"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
       <c r="L244" s="4"/>
@@ -7415,7 +7177,6 @@
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
-      <c r="I245" s="4"/>
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
       <c r="L245" s="4"/>
@@ -7441,7 +7202,6 @@
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
-      <c r="I246" s="4"/>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
       <c r="L246" s="4"/>
@@ -7467,7 +7227,6 @@
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
-      <c r="I247" s="4"/>
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
       <c r="L247" s="4"/>
@@ -7493,7 +7252,6 @@
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
-      <c r="I248" s="4"/>
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
       <c r="L248" s="4"/>
@@ -7519,7 +7277,6 @@
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
-      <c r="I249" s="4"/>
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
       <c r="L249" s="4"/>
@@ -7545,7 +7302,6 @@
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
-      <c r="I250" s="4"/>
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
       <c r="L250" s="4"/>
@@ -7571,7 +7327,6 @@
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
-      <c r="I251" s="4"/>
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
       <c r="L251" s="4"/>
@@ -7597,7 +7352,6 @@
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
-      <c r="I252" s="4"/>
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
       <c r="L252" s="4"/>
@@ -7623,7 +7377,6 @@
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
-      <c r="I253" s="4"/>
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
       <c r="L253" s="4"/>
@@ -7649,7 +7402,6 @@
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
-      <c r="I254" s="4"/>
       <c r="J254" s="4"/>
       <c r="K254" s="4"/>
       <c r="L254" s="4"/>
@@ -7675,7 +7427,6 @@
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
-      <c r="I255" s="4"/>
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
       <c r="L255" s="4"/>
@@ -7701,7 +7452,6 @@
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
-      <c r="I256" s="4"/>
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
       <c r="L256" s="4"/>
@@ -7727,7 +7477,6 @@
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
-      <c r="I257" s="4"/>
       <c r="J257" s="4"/>
       <c r="K257" s="4"/>
       <c r="L257" s="4"/>
@@ -7753,7 +7502,6 @@
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
-      <c r="I258" s="4"/>
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
       <c r="L258" s="4"/>
@@ -7779,7 +7527,6 @@
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
-      <c r="I259" s="4"/>
       <c r="J259" s="4"/>
       <c r="K259" s="4"/>
       <c r="L259" s="4"/>
@@ -7805,7 +7552,6 @@
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
-      <c r="I260" s="4"/>
       <c r="J260" s="4"/>
       <c r="K260" s="4"/>
       <c r="L260" s="4"/>
@@ -7831,7 +7577,6 @@
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
-      <c r="I261" s="4"/>
       <c r="J261" s="4"/>
       <c r="K261" s="4"/>
       <c r="L261" s="4"/>
@@ -7857,7 +7602,6 @@
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
-      <c r="I262" s="4"/>
       <c r="J262" s="4"/>
       <c r="K262" s="4"/>
       <c r="L262" s="4"/>
@@ -7883,7 +7627,6 @@
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
-      <c r="I263" s="4"/>
       <c r="J263" s="4"/>
       <c r="K263" s="4"/>
       <c r="L263" s="4"/>
@@ -7909,7 +7652,6 @@
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
-      <c r="I264" s="4"/>
       <c r="J264" s="4"/>
       <c r="K264" s="4"/>
       <c r="L264" s="4"/>
@@ -7935,7 +7677,6 @@
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
-      <c r="I265" s="4"/>
       <c r="J265" s="4"/>
       <c r="K265" s="4"/>
       <c r="L265" s="4"/>
@@ -7961,7 +7702,6 @@
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
-      <c r="I266" s="4"/>
       <c r="J266" s="4"/>
       <c r="K266" s="4"/>
       <c r="L266" s="4"/>
@@ -7987,7 +7727,6 @@
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
-      <c r="I267" s="4"/>
       <c r="J267" s="4"/>
       <c r="K267" s="4"/>
       <c r="L267" s="4"/>
@@ -8013,7 +7752,6 @@
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
-      <c r="I268" s="4"/>
       <c r="J268" s="4"/>
       <c r="K268" s="4"/>
       <c r="L268" s="4"/>
@@ -8039,7 +7777,6 @@
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
-      <c r="I269" s="4"/>
       <c r="J269" s="4"/>
       <c r="K269" s="4"/>
       <c r="L269" s="4"/>
@@ -8065,7 +7802,6 @@
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
-      <c r="I270" s="4"/>
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
       <c r="L270" s="4"/>
@@ -8091,7 +7827,6 @@
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
-      <c r="I271" s="4"/>
       <c r="J271" s="4"/>
       <c r="K271" s="4"/>
       <c r="L271" s="4"/>
@@ -8117,7 +7852,6 @@
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
-      <c r="I272" s="4"/>
       <c r="J272" s="4"/>
       <c r="K272" s="4"/>
       <c r="L272" s="4"/>
@@ -8143,7 +7877,6 @@
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
-      <c r="I273" s="4"/>
       <c r="J273" s="4"/>
       <c r="K273" s="4"/>
       <c r="L273" s="4"/>
@@ -8169,7 +7902,6 @@
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
-      <c r="I274" s="4"/>
       <c r="J274" s="4"/>
       <c r="K274" s="4"/>
       <c r="L274" s="4"/>
@@ -8195,7 +7927,6 @@
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
-      <c r="I275" s="4"/>
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
       <c r="L275" s="4"/>
@@ -8221,7 +7952,6 @@
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
-      <c r="I276" s="4"/>
       <c r="J276" s="4"/>
       <c r="K276" s="4"/>
       <c r="L276" s="4"/>
@@ -8247,7 +7977,6 @@
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
-      <c r="I277" s="4"/>
       <c r="J277" s="4"/>
       <c r="K277" s="4"/>
       <c r="L277" s="4"/>
@@ -8273,7 +8002,6 @@
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
-      <c r="I278" s="4"/>
       <c r="J278" s="4"/>
       <c r="K278" s="4"/>
       <c r="L278" s="4"/>
@@ -8299,7 +8027,6 @@
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
-      <c r="I279" s="4"/>
       <c r="J279" s="4"/>
       <c r="K279" s="4"/>
       <c r="L279" s="4"/>
@@ -8325,7 +8052,6 @@
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
-      <c r="I280" s="4"/>
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
       <c r="L280" s="4"/>
@@ -8351,7 +8077,6 @@
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
-      <c r="I281" s="4"/>
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
       <c r="L281" s="4"/>
@@ -8377,7 +8102,6 @@
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
-      <c r="I282" s="4"/>
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
       <c r="L282" s="4"/>
@@ -8403,7 +8127,6 @@
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
-      <c r="I283" s="4"/>
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
       <c r="L283" s="4"/>
@@ -8429,7 +8152,6 @@
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
-      <c r="I284" s="4"/>
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
       <c r="L284" s="4"/>
@@ -8455,7 +8177,6 @@
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
-      <c r="I285" s="4"/>
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
       <c r="L285" s="4"/>
@@ -8481,7 +8202,6 @@
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
-      <c r="I286" s="4"/>
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
       <c r="L286" s="4"/>
@@ -8507,7 +8227,6 @@
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
-      <c r="I287" s="4"/>
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
       <c r="L287" s="4"/>
@@ -8533,7 +8252,6 @@
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
-      <c r="I288" s="4"/>
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
       <c r="L288" s="4"/>
@@ -8559,7 +8277,6 @@
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
-      <c r="I289" s="4"/>
       <c r="J289" s="4"/>
       <c r="K289" s="4"/>
       <c r="L289" s="4"/>
@@ -8585,7 +8302,6 @@
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
-      <c r="I290" s="4"/>
       <c r="J290" s="4"/>
       <c r="K290" s="4"/>
       <c r="L290" s="4"/>
@@ -8611,7 +8327,6 @@
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
-      <c r="I291" s="4"/>
       <c r="J291" s="4"/>
       <c r="K291" s="4"/>
       <c r="L291" s="4"/>
@@ -8637,7 +8352,6 @@
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
-      <c r="I292" s="4"/>
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
       <c r="L292" s="4"/>
@@ -8663,7 +8377,6 @@
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
-      <c r="I293" s="4"/>
       <c r="J293" s="4"/>
       <c r="K293" s="4"/>
       <c r="L293" s="4"/>
@@ -8689,7 +8402,6 @@
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
-      <c r="I294" s="4"/>
       <c r="J294" s="4"/>
       <c r="K294" s="4"/>
       <c r="L294" s="4"/>
@@ -8715,7 +8427,6 @@
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
-      <c r="I295" s="4"/>
       <c r="J295" s="4"/>
       <c r="K295" s="4"/>
       <c r="L295" s="4"/>
@@ -8741,7 +8452,6 @@
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
-      <c r="I296" s="4"/>
       <c r="J296" s="4"/>
       <c r="K296" s="4"/>
       <c r="L296" s="4"/>
@@ -8767,7 +8477,6 @@
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
-      <c r="I297" s="4"/>
       <c r="J297" s="4"/>
       <c r="K297" s="4"/>
       <c r="L297" s="4"/>
@@ -8793,7 +8502,6 @@
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
-      <c r="I298" s="4"/>
       <c r="J298" s="4"/>
       <c r="K298" s="4"/>
       <c r="L298" s="4"/>
@@ -8819,7 +8527,6 @@
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
-      <c r="I299" s="4"/>
       <c r="J299" s="4"/>
       <c r="K299" s="4"/>
       <c r="L299" s="4"/>
@@ -8845,7 +8552,6 @@
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
-      <c r="I300" s="4"/>
       <c r="J300" s="4"/>
       <c r="K300" s="4"/>
       <c r="L300" s="4"/>
@@ -8871,7 +8577,6 @@
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
-      <c r="I301" s="4"/>
       <c r="J301" s="4"/>
       <c r="K301" s="4"/>
       <c r="L301" s="4"/>
@@ -8897,7 +8602,6 @@
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
-      <c r="I302" s="4"/>
       <c r="J302" s="4"/>
       <c r="K302" s="4"/>
       <c r="L302" s="4"/>
@@ -8923,7 +8627,6 @@
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
-      <c r="I303" s="4"/>
       <c r="J303" s="4"/>
       <c r="K303" s="4"/>
       <c r="L303" s="4"/>
@@ -8949,7 +8652,6 @@
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
-      <c r="I304" s="4"/>
       <c r="J304" s="4"/>
       <c r="K304" s="4"/>
       <c r="L304" s="4"/>
@@ -8975,7 +8677,6 @@
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
-      <c r="I305" s="4"/>
       <c r="J305" s="4"/>
       <c r="K305" s="4"/>
       <c r="L305" s="4"/>
@@ -9001,7 +8702,6 @@
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
-      <c r="I306" s="4"/>
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
       <c r="L306" s="4"/>
@@ -9027,7 +8727,6 @@
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
-      <c r="I307" s="4"/>
       <c r="J307" s="4"/>
       <c r="K307" s="4"/>
       <c r="L307" s="4"/>
@@ -9053,7 +8752,6 @@
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
-      <c r="I308" s="4"/>
       <c r="J308" s="4"/>
       <c r="K308" s="4"/>
       <c r="L308" s="4"/>
@@ -9079,7 +8777,6 @@
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
-      <c r="I309" s="4"/>
       <c r="J309" s="4"/>
       <c r="K309" s="4"/>
       <c r="L309" s="4"/>
@@ -9105,7 +8802,6 @@
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
-      <c r="I310" s="4"/>
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
       <c r="L310" s="4"/>
@@ -9131,7 +8827,6 @@
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
-      <c r="I311" s="4"/>
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
       <c r="L311" s="4"/>
@@ -9157,7 +8852,6 @@
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
-      <c r="I312" s="4"/>
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
       <c r="L312" s="4"/>
@@ -9183,7 +8877,6 @@
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
-      <c r="I313" s="4"/>
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
       <c r="L313" s="4"/>
@@ -9209,7 +8902,6 @@
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
-      <c r="I314" s="4"/>
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
       <c r="L314" s="4"/>
@@ -9235,7 +8927,6 @@
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
-      <c r="I315" s="4"/>
       <c r="J315" s="4"/>
       <c r="K315" s="4"/>
       <c r="L315" s="4"/>
@@ -9261,7 +8952,6 @@
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
-      <c r="I316" s="4"/>
       <c r="J316" s="4"/>
       <c r="K316" s="4"/>
       <c r="L316" s="4"/>
@@ -9287,7 +8977,6 @@
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
-      <c r="I317" s="4"/>
       <c r="J317" s="4"/>
       <c r="K317" s="4"/>
       <c r="L317" s="4"/>
@@ -9313,7 +9002,6 @@
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
-      <c r="I318" s="4"/>
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
       <c r="L318" s="4"/>
@@ -9339,7 +9027,6 @@
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
-      <c r="I319" s="4"/>
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
       <c r="L319" s="4"/>
@@ -9365,7 +9052,6 @@
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
-      <c r="I320" s="4"/>
       <c r="J320" s="4"/>
       <c r="K320" s="4"/>
       <c r="L320" s="4"/>
@@ -9391,7 +9077,6 @@
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
-      <c r="I321" s="4"/>
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
       <c r="L321" s="4"/>
@@ -9417,7 +9102,6 @@
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
-      <c r="I322" s="4"/>
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
       <c r="L322" s="4"/>
@@ -9443,7 +9127,6 @@
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
-      <c r="I323" s="4"/>
       <c r="J323" s="4"/>
       <c r="K323" s="4"/>
       <c r="L323" s="4"/>
@@ -9469,7 +9152,6 @@
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
-      <c r="I324" s="4"/>
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
       <c r="L324" s="4"/>
@@ -9495,7 +9177,6 @@
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
-      <c r="I325" s="4"/>
       <c r="J325" s="4"/>
       <c r="K325" s="4"/>
       <c r="L325" s="4"/>
@@ -9521,7 +9202,6 @@
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
-      <c r="I326" s="4"/>
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
       <c r="L326" s="4"/>
@@ -9547,7 +9227,6 @@
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
-      <c r="I327" s="4"/>
       <c r="J327" s="4"/>
       <c r="K327" s="4"/>
       <c r="L327" s="4"/>
@@ -9573,7 +9252,6 @@
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
-      <c r="I328" s="4"/>
       <c r="J328" s="4"/>
       <c r="K328" s="4"/>
       <c r="L328" s="4"/>
@@ -9599,7 +9277,6 @@
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
-      <c r="I329" s="4"/>
       <c r="J329" s="4"/>
       <c r="K329" s="4"/>
       <c r="L329" s="4"/>
@@ -9625,7 +9302,6 @@
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
-      <c r="I330" s="4"/>
       <c r="J330" s="4"/>
       <c r="K330" s="4"/>
       <c r="L330" s="4"/>
@@ -9651,7 +9327,6 @@
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
-      <c r="I331" s="4"/>
       <c r="J331" s="4"/>
       <c r="K331" s="4"/>
       <c r="L331" s="4"/>
@@ -9677,7 +9352,6 @@
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
-      <c r="I332" s="4"/>
       <c r="J332" s="4"/>
       <c r="K332" s="4"/>
       <c r="L332" s="4"/>
@@ -9703,7 +9377,6 @@
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
-      <c r="I333" s="4"/>
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
       <c r="L333" s="4"/>
@@ -9729,7 +9402,6 @@
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
-      <c r="I334" s="4"/>
       <c r="J334" s="4"/>
       <c r="K334" s="4"/>
       <c r="L334" s="4"/>
@@ -9755,7 +9427,6 @@
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
-      <c r="I335" s="4"/>
       <c r="J335" s="4"/>
       <c r="K335" s="4"/>
       <c r="L335" s="4"/>
@@ -9781,7 +9452,6 @@
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
-      <c r="I336" s="4"/>
       <c r="J336" s="4"/>
       <c r="K336" s="4"/>
       <c r="L336" s="4"/>
@@ -9807,7 +9477,6 @@
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
-      <c r="I337" s="4"/>
       <c r="J337" s="4"/>
       <c r="K337" s="4"/>
       <c r="L337" s="4"/>
@@ -9833,7 +9502,6 @@
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
-      <c r="I338" s="4"/>
       <c r="J338" s="4"/>
       <c r="K338" s="4"/>
       <c r="L338" s="4"/>
@@ -9859,7 +9527,6 @@
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
-      <c r="I339" s="4"/>
       <c r="J339" s="4"/>
       <c r="K339" s="4"/>
       <c r="L339" s="4"/>
@@ -9885,7 +9552,6 @@
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
-      <c r="I340" s="4"/>
       <c r="J340" s="4"/>
       <c r="K340" s="4"/>
       <c r="L340" s="4"/>
@@ -9911,7 +9577,6 @@
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
-      <c r="I341" s="4"/>
       <c r="J341" s="4"/>
       <c r="K341" s="4"/>
       <c r="L341" s="4"/>
@@ -9937,7 +9602,6 @@
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
-      <c r="I342" s="4"/>
       <c r="J342" s="4"/>
       <c r="K342" s="4"/>
       <c r="L342" s="4"/>
@@ -9963,7 +9627,6 @@
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
-      <c r="I343" s="4"/>
       <c r="J343" s="4"/>
       <c r="K343" s="4"/>
       <c r="L343" s="4"/>
@@ -9989,7 +9652,6 @@
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
-      <c r="I344" s="4"/>
       <c r="J344" s="4"/>
       <c r="K344" s="4"/>
       <c r="L344" s="4"/>
@@ -10015,7 +9677,6 @@
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
-      <c r="I345" s="4"/>
       <c r="J345" s="4"/>
       <c r="K345" s="4"/>
       <c r="L345" s="4"/>
@@ -10041,7 +9702,6 @@
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
-      <c r="I346" s="4"/>
       <c r="J346" s="4"/>
       <c r="K346" s="4"/>
       <c r="L346" s="4"/>
@@ -10067,7 +9727,6 @@
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
-      <c r="I347" s="4"/>
       <c r="J347" s="4"/>
       <c r="K347" s="4"/>
       <c r="L347" s="4"/>
@@ -10093,7 +9752,6 @@
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
-      <c r="I348" s="4"/>
       <c r="J348" s="4"/>
       <c r="K348" s="4"/>
       <c r="L348" s="4"/>
@@ -10119,7 +9777,6 @@
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
-      <c r="I349" s="4"/>
       <c r="J349" s="4"/>
       <c r="K349" s="4"/>
       <c r="L349" s="4"/>
@@ -10145,7 +9802,6 @@
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
-      <c r="I350" s="4"/>
       <c r="J350" s="4"/>
       <c r="K350" s="4"/>
       <c r="L350" s="4"/>
@@ -10171,7 +9827,6 @@
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
-      <c r="I351" s="4"/>
       <c r="J351" s="4"/>
       <c r="K351" s="4"/>
       <c r="L351" s="4"/>
@@ -10197,7 +9852,6 @@
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
-      <c r="I352" s="4"/>
       <c r="J352" s="4"/>
       <c r="K352" s="4"/>
       <c r="L352" s="4"/>
@@ -10223,7 +9877,6 @@
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
-      <c r="I353" s="4"/>
       <c r="J353" s="4"/>
       <c r="K353" s="4"/>
       <c r="L353" s="4"/>
@@ -10249,7 +9902,6 @@
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
-      <c r="I354" s="4"/>
       <c r="J354" s="4"/>
       <c r="K354" s="4"/>
       <c r="L354" s="4"/>
@@ -10275,7 +9927,6 @@
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
-      <c r="I355" s="4"/>
       <c r="J355" s="4"/>
       <c r="K355" s="4"/>
       <c r="L355" s="4"/>
@@ -10301,7 +9952,6 @@
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
-      <c r="I356" s="4"/>
       <c r="J356" s="4"/>
       <c r="K356" s="4"/>
       <c r="L356" s="4"/>
@@ -10327,7 +9977,6 @@
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
-      <c r="I357" s="4"/>
       <c r="J357" s="4"/>
       <c r="K357" s="4"/>
       <c r="L357" s="4"/>
@@ -10353,7 +10002,6 @@
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
-      <c r="I358" s="4"/>
       <c r="J358" s="4"/>
       <c r="K358" s="4"/>
       <c r="L358" s="4"/>
@@ -10379,7 +10027,6 @@
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
-      <c r="I359" s="4"/>
       <c r="J359" s="4"/>
       <c r="K359" s="4"/>
       <c r="L359" s="4"/>
@@ -10405,7 +10052,6 @@
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
-      <c r="I360" s="4"/>
       <c r="J360" s="4"/>
       <c r="K360" s="4"/>
       <c r="L360" s="4"/>
@@ -10431,7 +10077,6 @@
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
-      <c r="I361" s="4"/>
       <c r="J361" s="4"/>
       <c r="K361" s="4"/>
       <c r="L361" s="4"/>
@@ -10457,7 +10102,6 @@
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
-      <c r="I362" s="4"/>
       <c r="J362" s="4"/>
       <c r="K362" s="4"/>
       <c r="L362" s="4"/>
@@ -10483,7 +10127,6 @@
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
-      <c r="I363" s="4"/>
       <c r="J363" s="4"/>
       <c r="K363" s="4"/>
       <c r="L363" s="4"/>
@@ -10509,7 +10152,6 @@
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
-      <c r="I364" s="4"/>
       <c r="J364" s="4"/>
       <c r="K364" s="4"/>
       <c r="L364" s="4"/>
@@ -10535,7 +10177,6 @@
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
-      <c r="I365" s="4"/>
       <c r="J365" s="4"/>
       <c r="K365" s="4"/>
       <c r="L365" s="4"/>
@@ -10561,7 +10202,6 @@
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
-      <c r="I366" s="4"/>
       <c r="J366" s="4"/>
       <c r="K366" s="4"/>
       <c r="L366" s="4"/>
@@ -10587,7 +10227,6 @@
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
-      <c r="I367" s="4"/>
       <c r="J367" s="4"/>
       <c r="K367" s="4"/>
       <c r="L367" s="4"/>
@@ -10613,7 +10252,6 @@
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
-      <c r="I368" s="4"/>
       <c r="J368" s="4"/>
       <c r="K368" s="4"/>
       <c r="L368" s="4"/>
@@ -10639,7 +10277,6 @@
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
-      <c r="I369" s="4"/>
       <c r="J369" s="4"/>
       <c r="K369" s="4"/>
       <c r="L369" s="4"/>
@@ -10665,7 +10302,6 @@
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
-      <c r="I370" s="4"/>
       <c r="J370" s="4"/>
       <c r="K370" s="4"/>
       <c r="L370" s="4"/>
@@ -10691,7 +10327,6 @@
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
-      <c r="I371" s="4"/>
       <c r="J371" s="4"/>
       <c r="K371" s="4"/>
       <c r="L371" s="4"/>
@@ -10717,7 +10352,6 @@
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
-      <c r="I372" s="4"/>
       <c r="J372" s="4"/>
       <c r="K372" s="4"/>
       <c r="L372" s="4"/>
@@ -10743,7 +10377,6 @@
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
-      <c r="I373" s="4"/>
       <c r="J373" s="4"/>
       <c r="K373" s="4"/>
       <c r="L373" s="4"/>
@@ -10769,7 +10402,6 @@
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
-      <c r="I374" s="4"/>
       <c r="J374" s="4"/>
       <c r="K374" s="4"/>
       <c r="L374" s="4"/>
@@ -10795,7 +10427,6 @@
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
-      <c r="I375" s="4"/>
       <c r="J375" s="4"/>
       <c r="K375" s="4"/>
       <c r="L375" s="4"/>
@@ -10821,7 +10452,6 @@
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
-      <c r="I376" s="4"/>
       <c r="J376" s="4"/>
       <c r="K376" s="4"/>
       <c r="L376" s="4"/>
@@ -10847,7 +10477,6 @@
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
-      <c r="I377" s="4"/>
       <c r="J377" s="4"/>
       <c r="K377" s="4"/>
       <c r="L377" s="4"/>
@@ -10873,7 +10502,6 @@
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
-      <c r="I378" s="4"/>
       <c r="J378" s="4"/>
       <c r="K378" s="4"/>
       <c r="L378" s="4"/>
@@ -10899,7 +10527,6 @@
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
-      <c r="I379" s="4"/>
       <c r="J379" s="4"/>
       <c r="K379" s="4"/>
       <c r="L379" s="4"/>
@@ -10925,7 +10552,6 @@
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
-      <c r="I380" s="4"/>
       <c r="J380" s="4"/>
       <c r="K380" s="4"/>
       <c r="L380" s="4"/>
@@ -10951,7 +10577,6 @@
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
-      <c r="I381" s="4"/>
       <c r="J381" s="4"/>
       <c r="K381" s="4"/>
       <c r="L381" s="4"/>
@@ -10977,7 +10602,6 @@
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
-      <c r="I382" s="4"/>
       <c r="J382" s="4"/>
       <c r="K382" s="4"/>
       <c r="L382" s="4"/>
@@ -11003,7 +10627,6 @@
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
-      <c r="I383" s="4"/>
       <c r="J383" s="4"/>
       <c r="K383" s="4"/>
       <c r="L383" s="4"/>
@@ -11029,7 +10652,6 @@
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
-      <c r="I384" s="4"/>
       <c r="J384" s="4"/>
       <c r="K384" s="4"/>
       <c r="L384" s="4"/>
@@ -11055,7 +10677,6 @@
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
-      <c r="I385" s="4"/>
       <c r="J385" s="4"/>
       <c r="K385" s="4"/>
       <c r="L385" s="4"/>
@@ -11081,7 +10702,6 @@
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
-      <c r="I386" s="4"/>
       <c r="J386" s="4"/>
       <c r="K386" s="4"/>
       <c r="L386" s="4"/>
@@ -11107,7 +10727,6 @@
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
-      <c r="I387" s="4"/>
       <c r="J387" s="4"/>
       <c r="K387" s="4"/>
       <c r="L387" s="4"/>
@@ -11133,7 +10752,6 @@
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
-      <c r="I388" s="4"/>
       <c r="J388" s="4"/>
       <c r="K388" s="4"/>
       <c r="L388" s="4"/>
@@ -11159,7 +10777,6 @@
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
-      <c r="I389" s="4"/>
       <c r="J389" s="4"/>
       <c r="K389" s="4"/>
       <c r="L389" s="4"/>
@@ -11185,7 +10802,6 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
-      <c r="I390" s="4"/>
       <c r="J390" s="4"/>
       <c r="K390" s="4"/>
       <c r="L390" s="4"/>
@@ -11211,7 +10827,6 @@
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
-      <c r="I391" s="4"/>
       <c r="J391" s="4"/>
       <c r="K391" s="4"/>
       <c r="L391" s="4"/>
@@ -11237,7 +10852,6 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
-      <c r="I392" s="4"/>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
       <c r="L392" s="4"/>
@@ -11263,7 +10877,6 @@
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
-      <c r="I393" s="4"/>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
       <c r="L393" s="4"/>
@@ -11289,7 +10902,6 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
-      <c r="I394" s="4"/>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
       <c r="L394" s="4"/>
@@ -11315,7 +10927,6 @@
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
-      <c r="I395" s="4"/>
       <c r="J395" s="4"/>
       <c r="K395" s="4"/>
       <c r="L395" s="4"/>
@@ -11341,7 +10952,6 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
-      <c r="I396" s="4"/>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
       <c r="L396" s="4"/>
@@ -11367,7 +10977,6 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
-      <c r="I397" s="4"/>
       <c r="J397" s="4"/>
       <c r="K397" s="4"/>
       <c r="L397" s="4"/>
@@ -11393,7 +11002,6 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
-      <c r="I398" s="4"/>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
       <c r="L398" s="4"/>
@@ -11419,7 +11027,6 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
-      <c r="I399" s="4"/>
       <c r="J399" s="4"/>
       <c r="K399" s="4"/>
       <c r="L399" s="4"/>
@@ -11445,7 +11052,6 @@
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
-      <c r="I400" s="4"/>
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
       <c r="L400" s="4"/>
@@ -11471,7 +11077,6 @@
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
-      <c r="I401" s="4"/>
       <c r="J401" s="4"/>
       <c r="K401" s="4"/>
       <c r="L401" s="4"/>
@@ -11497,7 +11102,6 @@
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
-      <c r="I402" s="4"/>
       <c r="J402" s="4"/>
       <c r="K402" s="4"/>
       <c r="L402" s="4"/>
@@ -11523,7 +11127,6 @@
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
-      <c r="I403" s="4"/>
       <c r="J403" s="4"/>
       <c r="K403" s="4"/>
       <c r="L403" s="4"/>
@@ -11549,7 +11152,6 @@
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
-      <c r="I404" s="4"/>
       <c r="J404" s="4"/>
       <c r="K404" s="4"/>
       <c r="L404" s="4"/>
@@ -11575,7 +11177,6 @@
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
-      <c r="I405" s="4"/>
       <c r="J405" s="4"/>
       <c r="K405" s="4"/>
       <c r="L405" s="4"/>
@@ -11601,7 +11202,6 @@
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
-      <c r="I406" s="4"/>
       <c r="J406" s="4"/>
       <c r="K406" s="4"/>
       <c r="L406" s="4"/>
@@ -11627,7 +11227,6 @@
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
-      <c r="I407" s="4"/>
       <c r="J407" s="4"/>
       <c r="K407" s="4"/>
       <c r="L407" s="4"/>
@@ -11653,7 +11252,6 @@
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
-      <c r="I408" s="4"/>
       <c r="J408" s="4"/>
       <c r="K408" s="4"/>
       <c r="L408" s="4"/>
@@ -11679,7 +11277,6 @@
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
       <c r="H409" s="4"/>
-      <c r="I409" s="4"/>
       <c r="J409" s="4"/>
       <c r="K409" s="4"/>
       <c r="L409" s="4"/>
@@ -11705,7 +11302,6 @@
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
-      <c r="I410" s="4"/>
       <c r="J410" s="4"/>
       <c r="K410" s="4"/>
       <c r="L410" s="4"/>
@@ -11731,7 +11327,6 @@
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
-      <c r="I411" s="4"/>
       <c r="J411" s="4"/>
       <c r="K411" s="4"/>
       <c r="L411" s="4"/>
@@ -11757,7 +11352,6 @@
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
-      <c r="I412" s="4"/>
       <c r="J412" s="4"/>
       <c r="K412" s="4"/>
       <c r="L412" s="4"/>
@@ -11783,7 +11377,6 @@
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
-      <c r="I413" s="4"/>
       <c r="J413" s="4"/>
       <c r="K413" s="4"/>
       <c r="L413" s="4"/>
@@ -11809,7 +11402,6 @@
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
-      <c r="I414" s="4"/>
       <c r="J414" s="4"/>
       <c r="K414" s="4"/>
       <c r="L414" s="4"/>
@@ -11835,7 +11427,6 @@
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
-      <c r="I415" s="4"/>
       <c r="J415" s="4"/>
       <c r="K415" s="4"/>
       <c r="L415" s="4"/>
@@ -11861,7 +11452,6 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
-      <c r="I416" s="4"/>
       <c r="J416" s="4"/>
       <c r="K416" s="4"/>
       <c r="L416" s="4"/>
@@ -11887,7 +11477,6 @@
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
-      <c r="I417" s="4"/>
       <c r="J417" s="4"/>
       <c r="K417" s="4"/>
       <c r="L417" s="4"/>
@@ -11913,7 +11502,6 @@
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
-      <c r="I418" s="4"/>
       <c r="J418" s="4"/>
       <c r="K418" s="4"/>
       <c r="L418" s="4"/>
@@ -11939,7 +11527,6 @@
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
-      <c r="I419" s="4"/>
       <c r="J419" s="4"/>
       <c r="K419" s="4"/>
       <c r="L419" s="4"/>
@@ -11965,7 +11552,6 @@
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
-      <c r="I420" s="4"/>
       <c r="J420" s="4"/>
       <c r="K420" s="4"/>
       <c r="L420" s="4"/>
@@ -11991,7 +11577,6 @@
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
-      <c r="I421" s="4"/>
       <c r="J421" s="4"/>
       <c r="K421" s="4"/>
       <c r="L421" s="4"/>
@@ -12017,7 +11602,6 @@
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
-      <c r="I422" s="4"/>
       <c r="J422" s="4"/>
       <c r="K422" s="4"/>
       <c r="L422" s="4"/>
@@ -12043,7 +11627,6 @@
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
-      <c r="I423" s="4"/>
       <c r="J423" s="4"/>
       <c r="K423" s="4"/>
       <c r="L423" s="4"/>
@@ -12069,7 +11652,6 @@
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
-      <c r="I424" s="4"/>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
       <c r="L424" s="4"/>
@@ -12095,7 +11677,6 @@
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
-      <c r="I425" s="4"/>
       <c r="J425" s="4"/>
       <c r="K425" s="4"/>
       <c r="L425" s="4"/>
@@ -12121,7 +11702,6 @@
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
-      <c r="I426" s="4"/>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
       <c r="L426" s="4"/>
@@ -12147,7 +11727,6 @@
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
-      <c r="I427" s="4"/>
       <c r="J427" s="4"/>
       <c r="K427" s="4"/>
       <c r="L427" s="4"/>
@@ -12173,7 +11752,6 @@
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
-      <c r="I428" s="4"/>
       <c r="J428" s="4"/>
       <c r="K428" s="4"/>
       <c r="L428" s="4"/>
@@ -12199,7 +11777,6 @@
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
-      <c r="I429" s="4"/>
       <c r="J429" s="4"/>
       <c r="K429" s="4"/>
       <c r="L429" s="4"/>
@@ -12225,7 +11802,6 @@
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
-      <c r="I430" s="4"/>
       <c r="J430" s="4"/>
       <c r="K430" s="4"/>
       <c r="L430" s="4"/>
@@ -12251,7 +11827,6 @@
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
-      <c r="I431" s="4"/>
       <c r="J431" s="4"/>
       <c r="K431" s="4"/>
       <c r="L431" s="4"/>
@@ -12277,7 +11852,6 @@
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
-      <c r="I432" s="4"/>
       <c r="J432" s="4"/>
       <c r="K432" s="4"/>
       <c r="L432" s="4"/>
@@ -12303,7 +11877,6 @@
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
       <c r="H433" s="4"/>
-      <c r="I433" s="4"/>
       <c r="J433" s="4"/>
       <c r="K433" s="4"/>
       <c r="L433" s="4"/>
@@ -12329,7 +11902,6 @@
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
-      <c r="I434" s="4"/>
       <c r="J434" s="4"/>
       <c r="K434" s="4"/>
       <c r="L434" s="4"/>
@@ -12355,7 +11927,6 @@
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
-      <c r="I435" s="4"/>
       <c r="J435" s="4"/>
       <c r="K435" s="4"/>
       <c r="L435" s="4"/>
@@ -12381,7 +11952,6 @@
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
-      <c r="I436" s="4"/>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
       <c r="L436" s="4"/>
@@ -12407,7 +11977,6 @@
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
-      <c r="I437" s="4"/>
       <c r="J437" s="4"/>
       <c r="K437" s="4"/>
       <c r="L437" s="4"/>
@@ -12433,7 +12002,6 @@
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
-      <c r="I438" s="4"/>
       <c r="J438" s="4"/>
       <c r="K438" s="4"/>
       <c r="L438" s="4"/>
@@ -12459,7 +12027,6 @@
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
-      <c r="I439" s="4"/>
       <c r="J439" s="4"/>
       <c r="K439" s="4"/>
       <c r="L439" s="4"/>
@@ -12485,7 +12052,6 @@
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
-      <c r="I440" s="4"/>
       <c r="J440" s="4"/>
       <c r="K440" s="4"/>
       <c r="L440" s="4"/>
@@ -12511,7 +12077,6 @@
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
-      <c r="I441" s="4"/>
       <c r="J441" s="4"/>
       <c r="K441" s="4"/>
       <c r="L441" s="4"/>
@@ -12537,7 +12102,6 @@
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
-      <c r="I442" s="4"/>
       <c r="J442" s="4"/>
       <c r="K442" s="4"/>
       <c r="L442" s="4"/>
@@ -12563,7 +12127,6 @@
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
-      <c r="I443" s="4"/>
       <c r="J443" s="4"/>
       <c r="K443" s="4"/>
       <c r="L443" s="4"/>
@@ -12589,7 +12152,6 @@
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
-      <c r="I444" s="4"/>
       <c r="J444" s="4"/>
       <c r="K444" s="4"/>
       <c r="L444" s="4"/>
@@ -12615,7 +12177,6 @@
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
       <c r="H445" s="4"/>
-      <c r="I445" s="4"/>
       <c r="J445" s="4"/>
       <c r="K445" s="4"/>
       <c r="L445" s="4"/>
@@ -12641,7 +12202,6 @@
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
-      <c r="I446" s="4"/>
       <c r="J446" s="4"/>
       <c r="K446" s="4"/>
       <c r="L446" s="4"/>
@@ -12667,7 +12227,6 @@
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
-      <c r="I447" s="4"/>
       <c r="J447" s="4"/>
       <c r="K447" s="4"/>
       <c r="L447" s="4"/>
@@ -12693,7 +12252,6 @@
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
-      <c r="I448" s="4"/>
       <c r="J448" s="4"/>
       <c r="K448" s="4"/>
       <c r="L448" s="4"/>
@@ -12719,7 +12277,6 @@
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
-      <c r="I449" s="4"/>
       <c r="J449" s="4"/>
       <c r="K449" s="4"/>
       <c r="L449" s="4"/>
@@ -12745,7 +12302,6 @@
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
-      <c r="I450" s="4"/>
       <c r="J450" s="4"/>
       <c r="K450" s="4"/>
       <c r="L450" s="4"/>
@@ -12771,7 +12327,6 @@
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
-      <c r="I451" s="4"/>
       <c r="J451" s="4"/>
       <c r="K451" s="4"/>
       <c r="L451" s="4"/>
@@ -12797,7 +12352,6 @@
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
-      <c r="I452" s="4"/>
       <c r="J452" s="4"/>
       <c r="K452" s="4"/>
       <c r="L452" s="4"/>
@@ -12823,7 +12377,6 @@
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
-      <c r="I453" s="4"/>
       <c r="J453" s="4"/>
       <c r="K453" s="4"/>
       <c r="L453" s="4"/>
@@ -12849,7 +12402,6 @@
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
-      <c r="I454" s="4"/>
       <c r="J454" s="4"/>
       <c r="K454" s="4"/>
       <c r="L454" s="4"/>
@@ -12875,7 +12427,6 @@
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
-      <c r="I455" s="4"/>
       <c r="J455" s="4"/>
       <c r="K455" s="4"/>
       <c r="L455" s="4"/>
@@ -12901,7 +12452,6 @@
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
-      <c r="I456" s="4"/>
       <c r="J456" s="4"/>
       <c r="K456" s="4"/>
       <c r="L456" s="4"/>
@@ -12927,7 +12477,6 @@
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
       <c r="H457" s="4"/>
-      <c r="I457" s="4"/>
       <c r="J457" s="4"/>
       <c r="K457" s="4"/>
       <c r="L457" s="4"/>
@@ -12953,7 +12502,6 @@
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
-      <c r="I458" s="4"/>
       <c r="J458" s="4"/>
       <c r="K458" s="4"/>
       <c r="L458" s="4"/>
@@ -12979,7 +12527,6 @@
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
-      <c r="I459" s="4"/>
       <c r="J459" s="4"/>
       <c r="K459" s="4"/>
       <c r="L459" s="4"/>
@@ -13005,7 +12552,6 @@
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
-      <c r="I460" s="4"/>
       <c r="J460" s="4"/>
       <c r="K460" s="4"/>
       <c r="L460" s="4"/>
@@ -13031,7 +12577,6 @@
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
-      <c r="I461" s="4"/>
       <c r="J461" s="4"/>
       <c r="K461" s="4"/>
       <c r="L461" s="4"/>
@@ -13057,7 +12602,6 @@
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
-      <c r="I462" s="4"/>
       <c r="J462" s="4"/>
       <c r="K462" s="4"/>
       <c r="L462" s="4"/>
@@ -13083,7 +12627,6 @@
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
-      <c r="I463" s="4"/>
       <c r="J463" s="4"/>
       <c r="K463" s="4"/>
       <c r="L463" s="4"/>
@@ -13109,7 +12652,6 @@
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
-      <c r="I464" s="4"/>
       <c r="J464" s="4"/>
       <c r="K464" s="4"/>
       <c r="L464" s="4"/>
@@ -13135,7 +12677,6 @@
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
-      <c r="I465" s="4"/>
       <c r="J465" s="4"/>
       <c r="K465" s="4"/>
       <c r="L465" s="4"/>
@@ -13161,7 +12702,6 @@
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
       <c r="H466" s="4"/>
-      <c r="I466" s="4"/>
       <c r="J466" s="4"/>
       <c r="K466" s="4"/>
       <c r="L466" s="4"/>
@@ -13187,7 +12727,6 @@
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
-      <c r="I467" s="4"/>
       <c r="J467" s="4"/>
       <c r="K467" s="4"/>
       <c r="L467" s="4"/>
@@ -13213,7 +12752,6 @@
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
-      <c r="I468" s="4"/>
       <c r="J468" s="4"/>
       <c r="K468" s="4"/>
       <c r="L468" s="4"/>
@@ -13239,7 +12777,6 @@
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
       <c r="H469" s="4"/>
-      <c r="I469" s="4"/>
       <c r="J469" s="4"/>
       <c r="K469" s="4"/>
       <c r="L469" s="4"/>
@@ -13265,7 +12802,6 @@
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
-      <c r="I470" s="4"/>
       <c r="J470" s="4"/>
       <c r="K470" s="4"/>
       <c r="L470" s="4"/>
@@ -13291,7 +12827,6 @@
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
-      <c r="I471" s="4"/>
       <c r="J471" s="4"/>
       <c r="K471" s="4"/>
       <c r="L471" s="4"/>
@@ -13317,7 +12852,6 @@
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
-      <c r="I472" s="4"/>
       <c r="J472" s="4"/>
       <c r="K472" s="4"/>
       <c r="L472" s="4"/>
@@ -13343,7 +12877,6 @@
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
-      <c r="I473" s="4"/>
       <c r="J473" s="4"/>
       <c r="K473" s="4"/>
       <c r="L473" s="4"/>
@@ -13369,7 +12902,6 @@
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
-      <c r="I474" s="4"/>
       <c r="J474" s="4"/>
       <c r="K474" s="4"/>
       <c r="L474" s="4"/>
@@ -13395,7 +12927,6 @@
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
-      <c r="I475" s="4"/>
       <c r="J475" s="4"/>
       <c r="K475" s="4"/>
       <c r="L475" s="4"/>
@@ -13421,7 +12952,6 @@
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
-      <c r="I476" s="4"/>
       <c r="J476" s="4"/>
       <c r="K476" s="4"/>
       <c r="L476" s="4"/>
@@ -13447,7 +12977,6 @@
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
-      <c r="I477" s="4"/>
       <c r="J477" s="4"/>
       <c r="K477" s="4"/>
       <c r="L477" s="4"/>
@@ -13473,7 +13002,6 @@
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
-      <c r="I478" s="4"/>
       <c r="J478" s="4"/>
       <c r="K478" s="4"/>
       <c r="L478" s="4"/>
@@ -13499,7 +13027,6 @@
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
-      <c r="I479" s="4"/>
       <c r="J479" s="4"/>
       <c r="K479" s="4"/>
       <c r="L479" s="4"/>
@@ -13525,7 +13052,6 @@
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
-      <c r="I480" s="4"/>
       <c r="J480" s="4"/>
       <c r="K480" s="4"/>
       <c r="L480" s="4"/>
@@ -13551,7 +13077,6 @@
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
       <c r="H481" s="4"/>
-      <c r="I481" s="4"/>
       <c r="J481" s="4"/>
       <c r="K481" s="4"/>
       <c r="L481" s="4"/>
@@ -13577,7 +13102,6 @@
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
       <c r="H482" s="4"/>
-      <c r="I482" s="4"/>
       <c r="J482" s="4"/>
       <c r="K482" s="4"/>
       <c r="L482" s="4"/>
@@ -13603,7 +13127,6 @@
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
       <c r="H483" s="4"/>
-      <c r="I483" s="4"/>
       <c r="J483" s="4"/>
       <c r="K483" s="4"/>
       <c r="L483" s="4"/>
@@ -13629,7 +13152,6 @@
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
       <c r="H484" s="4"/>
-      <c r="I484" s="4"/>
       <c r="J484" s="4"/>
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
@@ -13655,7 +13177,6 @@
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
       <c r="H485" s="4"/>
-      <c r="I485" s="4"/>
       <c r="J485" s="4"/>
       <c r="K485" s="4"/>
       <c r="L485" s="4"/>
@@ -13681,7 +13202,6 @@
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
       <c r="H486" s="4"/>
-      <c r="I486" s="4"/>
       <c r="J486" s="4"/>
       <c r="K486" s="4"/>
       <c r="L486" s="4"/>
@@ -13707,7 +13227,6 @@
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
       <c r="H487" s="4"/>
-      <c r="I487" s="4"/>
       <c r="J487" s="4"/>
       <c r="K487" s="4"/>
       <c r="L487" s="4"/>
@@ -13733,7 +13252,6 @@
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
       <c r="H488" s="4"/>
-      <c r="I488" s="4"/>
       <c r="J488" s="4"/>
       <c r="K488" s="4"/>
       <c r="L488" s="4"/>
@@ -13759,7 +13277,6 @@
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
       <c r="H489" s="4"/>
-      <c r="I489" s="4"/>
       <c r="J489" s="4"/>
       <c r="K489" s="4"/>
       <c r="L489" s="4"/>
@@ -13785,7 +13302,6 @@
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
-      <c r="I490" s="4"/>
       <c r="J490" s="4"/>
       <c r="K490" s="4"/>
       <c r="L490" s="4"/>
@@ -13811,7 +13327,6 @@
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
       <c r="H491" s="4"/>
-      <c r="I491" s="4"/>
       <c r="J491" s="4"/>
       <c r="K491" s="4"/>
       <c r="L491" s="4"/>
@@ -13837,7 +13352,6 @@
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
       <c r="H492" s="4"/>
-      <c r="I492" s="4"/>
       <c r="J492" s="4"/>
       <c r="K492" s="4"/>
       <c r="L492" s="4"/>
@@ -13863,7 +13377,6 @@
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
       <c r="H493" s="4"/>
-      <c r="I493" s="4"/>
       <c r="J493" s="4"/>
       <c r="K493" s="4"/>
       <c r="L493" s="4"/>
@@ -13889,7 +13402,6 @@
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
-      <c r="I494" s="4"/>
       <c r="J494" s="4"/>
       <c r="K494" s="4"/>
       <c r="L494" s="4"/>
@@ -13915,7 +13427,6 @@
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
       <c r="H495" s="4"/>
-      <c r="I495" s="4"/>
       <c r="J495" s="4"/>
       <c r="K495" s="4"/>
       <c r="L495" s="4"/>
@@ -13941,7 +13452,6 @@
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
-      <c r="I496" s="4"/>
       <c r="J496" s="4"/>
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
@@ -13967,7 +13477,6 @@
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
-      <c r="I497" s="4"/>
       <c r="J497" s="4"/>
       <c r="K497" s="4"/>
       <c r="L497" s="4"/>
@@ -13993,7 +13502,6 @@
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
       <c r="H498" s="4"/>
-      <c r="I498" s="4"/>
       <c r="J498" s="4"/>
       <c r="K498" s="4"/>
       <c r="L498" s="4"/>
@@ -14019,7 +13527,6 @@
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
       <c r="H499" s="4"/>
-      <c r="I499" s="4"/>
       <c r="J499" s="4"/>
       <c r="K499" s="4"/>
       <c r="L499" s="4"/>
@@ -14045,7 +13552,6 @@
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
-      <c r="I500" s="4"/>
       <c r="J500" s="4"/>
       <c r="K500" s="4"/>
       <c r="L500" s="4"/>
@@ -14071,7 +13577,6 @@
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
-      <c r="I501" s="4"/>
       <c r="J501" s="4"/>
       <c r="K501" s="4"/>
       <c r="L501" s="4"/>
@@ -14097,7 +13602,6 @@
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
-      <c r="I502" s="4"/>
       <c r="J502" s="4"/>
       <c r="K502" s="4"/>
       <c r="L502" s="4"/>
@@ -14123,7 +13627,6 @@
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
-      <c r="I503" s="4"/>
       <c r="J503" s="4"/>
       <c r="K503" s="4"/>
       <c r="L503" s="4"/>
@@ -14149,7 +13652,6 @@
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
-      <c r="I504" s="4"/>
       <c r="J504" s="4"/>
       <c r="K504" s="4"/>
       <c r="L504" s="4"/>
@@ -14175,7 +13677,6 @@
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
-      <c r="I505" s="4"/>
       <c r="J505" s="4"/>
       <c r="K505" s="4"/>
       <c r="L505" s="4"/>
@@ -14201,7 +13702,6 @@
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
-      <c r="I506" s="4"/>
       <c r="J506" s="4"/>
       <c r="K506" s="4"/>
       <c r="L506" s="4"/>
@@ -14227,7 +13727,6 @@
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
       <c r="H507" s="4"/>
-      <c r="I507" s="4"/>
       <c r="J507" s="4"/>
       <c r="K507" s="4"/>
       <c r="L507" s="4"/>
@@ -14253,7 +13752,6 @@
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
-      <c r="I508" s="4"/>
       <c r="J508" s="4"/>
       <c r="K508" s="4"/>
       <c r="L508" s="4"/>
@@ -14279,7 +13777,6 @@
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
-      <c r="I509" s="4"/>
       <c r="J509" s="4"/>
       <c r="K509" s="4"/>
       <c r="L509" s="4"/>
@@ -14305,7 +13802,6 @@
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
-      <c r="I510" s="4"/>
       <c r="J510" s="4"/>
       <c r="K510" s="4"/>
       <c r="L510" s="4"/>
@@ -14331,7 +13827,6 @@
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
-      <c r="I511" s="4"/>
       <c r="J511" s="4"/>
       <c r="K511" s="4"/>
       <c r="L511" s="4"/>
@@ -14357,7 +13852,6 @@
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
-      <c r="I512" s="4"/>
       <c r="J512" s="4"/>
       <c r="K512" s="4"/>
       <c r="L512" s="4"/>
@@ -14383,7 +13877,6 @@
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
       <c r="H513" s="4"/>
-      <c r="I513" s="4"/>
       <c r="J513" s="4"/>
       <c r="K513" s="4"/>
       <c r="L513" s="4"/>
@@ -14409,7 +13902,6 @@
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
       <c r="H514" s="4"/>
-      <c r="I514" s="4"/>
       <c r="J514" s="4"/>
       <c r="K514" s="4"/>
       <c r="L514" s="4"/>
@@ -14435,7 +13927,6 @@
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
-      <c r="I515" s="4"/>
       <c r="J515" s="4"/>
       <c r="K515" s="4"/>
       <c r="L515" s="4"/>
@@ -14461,7 +13952,6 @@
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
-      <c r="I516" s="4"/>
       <c r="J516" s="4"/>
       <c r="K516" s="4"/>
       <c r="L516" s="4"/>
@@ -14487,7 +13977,6 @@
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
-      <c r="I517" s="4"/>
       <c r="J517" s="4"/>
       <c r="K517" s="4"/>
       <c r="L517" s="4"/>
@@ -14513,7 +14002,6 @@
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
-      <c r="I518" s="4"/>
       <c r="J518" s="4"/>
       <c r="K518" s="4"/>
       <c r="L518" s="4"/>
@@ -14539,7 +14027,6 @@
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
-      <c r="I519" s="4"/>
       <c r="J519" s="4"/>
       <c r="K519" s="4"/>
       <c r="L519" s="4"/>
@@ -14565,7 +14052,6 @@
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
-      <c r="I520" s="4"/>
       <c r="J520" s="4"/>
       <c r="K520" s="4"/>
       <c r="L520" s="4"/>
@@ -14591,7 +14077,6 @@
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
       <c r="H521" s="4"/>
-      <c r="I521" s="4"/>
       <c r="J521" s="4"/>
       <c r="K521" s="4"/>
       <c r="L521" s="4"/>
@@ -14617,7 +14102,6 @@
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
       <c r="H522" s="4"/>
-      <c r="I522" s="4"/>
       <c r="J522" s="4"/>
       <c r="K522" s="4"/>
       <c r="L522" s="4"/>
@@ -14643,7 +14127,6 @@
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
-      <c r="I523" s="4"/>
       <c r="J523" s="4"/>
       <c r="K523" s="4"/>
       <c r="L523" s="4"/>
@@ -14669,7 +14152,6 @@
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
       <c r="H524" s="4"/>
-      <c r="I524" s="4"/>
       <c r="J524" s="4"/>
       <c r="K524" s="4"/>
       <c r="L524" s="4"/>
@@ -14695,7 +14177,6 @@
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
-      <c r="I525" s="4"/>
       <c r="J525" s="4"/>
       <c r="K525" s="4"/>
       <c r="L525" s="4"/>
@@ -14721,7 +14202,6 @@
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
-      <c r="I526" s="4"/>
       <c r="J526" s="4"/>
       <c r="K526" s="4"/>
       <c r="L526" s="4"/>
@@ -14747,7 +14227,6 @@
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
       <c r="H527" s="4"/>
-      <c r="I527" s="4"/>
       <c r="J527" s="4"/>
       <c r="K527" s="4"/>
       <c r="L527" s="4"/>
@@ -14773,7 +14252,6 @@
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
       <c r="H528" s="4"/>
-      <c r="I528" s="4"/>
       <c r="J528" s="4"/>
       <c r="K528" s="4"/>
       <c r="L528" s="4"/>
@@ -14799,7 +14277,6 @@
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
       <c r="H529" s="4"/>
-      <c r="I529" s="4"/>
       <c r="J529" s="4"/>
       <c r="K529" s="4"/>
       <c r="L529" s="4"/>
@@ -14825,7 +14302,6 @@
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
-      <c r="I530" s="4"/>
       <c r="J530" s="4"/>
       <c r="K530" s="4"/>
       <c r="L530" s="4"/>
@@ -14851,7 +14327,6 @@
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
       <c r="H531" s="4"/>
-      <c r="I531" s="4"/>
       <c r="J531" s="4"/>
       <c r="K531" s="4"/>
       <c r="L531" s="4"/>
@@ -14877,7 +14352,6 @@
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
       <c r="H532" s="4"/>
-      <c r="I532" s="4"/>
       <c r="J532" s="4"/>
       <c r="K532" s="4"/>
       <c r="L532" s="4"/>
@@ -14903,7 +14377,6 @@
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
       <c r="H533" s="4"/>
-      <c r="I533" s="4"/>
       <c r="J533" s="4"/>
       <c r="K533" s="4"/>
       <c r="L533" s="4"/>
@@ -14929,7 +14402,6 @@
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
       <c r="H534" s="4"/>
-      <c r="I534" s="4"/>
       <c r="J534" s="4"/>
       <c r="K534" s="4"/>
       <c r="L534" s="4"/>
@@ -14955,7 +14427,6 @@
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
       <c r="H535" s="4"/>
-      <c r="I535" s="4"/>
       <c r="J535" s="4"/>
       <c r="K535" s="4"/>
       <c r="L535" s="4"/>
@@ -14981,7 +14452,6 @@
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
       <c r="H536" s="4"/>
-      <c r="I536" s="4"/>
       <c r="J536" s="4"/>
       <c r="K536" s="4"/>
       <c r="L536" s="4"/>
@@ -15007,7 +14477,6 @@
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
       <c r="H537" s="4"/>
-      <c r="I537" s="4"/>
       <c r="J537" s="4"/>
       <c r="K537" s="4"/>
       <c r="L537" s="4"/>
@@ -15033,7 +14502,6 @@
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
       <c r="H538" s="4"/>
-      <c r="I538" s="4"/>
       <c r="J538" s="4"/>
       <c r="K538" s="4"/>
       <c r="L538" s="4"/>
@@ -15059,7 +14527,6 @@
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
       <c r="H539" s="4"/>
-      <c r="I539" s="4"/>
       <c r="J539" s="4"/>
       <c r="K539" s="4"/>
       <c r="L539" s="4"/>
@@ -15085,7 +14552,6 @@
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
       <c r="H540" s="4"/>
-      <c r="I540" s="4"/>
       <c r="J540" s="4"/>
       <c r="K540" s="4"/>
       <c r="L540" s="4"/>
@@ -15111,7 +14577,6 @@
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
       <c r="H541" s="4"/>
-      <c r="I541" s="4"/>
       <c r="J541" s="4"/>
       <c r="K541" s="4"/>
       <c r="L541" s="4"/>
@@ -15137,7 +14602,6 @@
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
       <c r="H542" s="4"/>
-      <c r="I542" s="4"/>
       <c r="J542" s="4"/>
       <c r="K542" s="4"/>
       <c r="L542" s="4"/>
@@ -15163,7 +14627,6 @@
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
       <c r="H543" s="4"/>
-      <c r="I543" s="4"/>
       <c r="J543" s="4"/>
       <c r="K543" s="4"/>
       <c r="L543" s="4"/>
@@ -15189,7 +14652,6 @@
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
       <c r="H544" s="4"/>
-      <c r="I544" s="4"/>
       <c r="J544" s="4"/>
       <c r="K544" s="4"/>
       <c r="L544" s="4"/>
@@ -15215,7 +14677,6 @@
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
       <c r="H545" s="4"/>
-      <c r="I545" s="4"/>
       <c r="J545" s="4"/>
       <c r="K545" s="4"/>
       <c r="L545" s="4"/>
@@ -15241,7 +14702,6 @@
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
       <c r="H546" s="4"/>
-      <c r="I546" s="4"/>
       <c r="J546" s="4"/>
       <c r="K546" s="4"/>
       <c r="L546" s="4"/>
@@ -15267,7 +14727,6 @@
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
       <c r="H547" s="4"/>
-      <c r="I547" s="4"/>
       <c r="J547" s="4"/>
       <c r="K547" s="4"/>
       <c r="L547" s="4"/>
@@ -15293,7 +14752,6 @@
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
       <c r="H548" s="4"/>
-      <c r="I548" s="4"/>
       <c r="J548" s="4"/>
       <c r="K548" s="4"/>
       <c r="L548" s="4"/>
@@ -15319,7 +14777,6 @@
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
       <c r="H549" s="4"/>
-      <c r="I549" s="4"/>
       <c r="J549" s="4"/>
       <c r="K549" s="4"/>
       <c r="L549" s="4"/>
@@ -15345,7 +14802,6 @@
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
       <c r="H550" s="4"/>
-      <c r="I550" s="4"/>
       <c r="J550" s="4"/>
       <c r="K550" s="4"/>
       <c r="L550" s="4"/>
@@ -15371,7 +14827,6 @@
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
       <c r="H551" s="4"/>
-      <c r="I551" s="4"/>
       <c r="J551" s="4"/>
       <c r="K551" s="4"/>
       <c r="L551" s="4"/>
@@ -15397,7 +14852,6 @@
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
       <c r="H552" s="4"/>
-      <c r="I552" s="4"/>
       <c r="J552" s="4"/>
       <c r="K552" s="4"/>
       <c r="L552" s="4"/>
@@ -15423,7 +14877,6 @@
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
       <c r="H553" s="4"/>
-      <c r="I553" s="4"/>
       <c r="J553" s="4"/>
       <c r="K553" s="4"/>
       <c r="L553" s="4"/>
@@ -15449,7 +14902,6 @@
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
       <c r="H554" s="4"/>
-      <c r="I554" s="4"/>
       <c r="J554" s="4"/>
       <c r="K554" s="4"/>
       <c r="L554" s="4"/>
@@ -15475,7 +14927,6 @@
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
       <c r="H555" s="4"/>
-      <c r="I555" s="4"/>
       <c r="J555" s="4"/>
       <c r="K555" s="4"/>
       <c r="L555" s="4"/>
@@ -15501,7 +14952,6 @@
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
       <c r="H556" s="4"/>
-      <c r="I556" s="4"/>
       <c r="J556" s="4"/>
       <c r="K556" s="4"/>
       <c r="L556" s="4"/>
@@ -15527,7 +14977,6 @@
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
       <c r="H557" s="4"/>
-      <c r="I557" s="4"/>
       <c r="J557" s="4"/>
       <c r="K557" s="4"/>
       <c r="L557" s="4"/>
@@ -15553,7 +15002,6 @@
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
       <c r="H558" s="4"/>
-      <c r="I558" s="4"/>
       <c r="J558" s="4"/>
       <c r="K558" s="4"/>
       <c r="L558" s="4"/>
@@ -15579,7 +15027,6 @@
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
       <c r="H559" s="4"/>
-      <c r="I559" s="4"/>
       <c r="J559" s="4"/>
       <c r="K559" s="4"/>
       <c r="L559" s="4"/>
@@ -15605,7 +15052,6 @@
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
       <c r="H560" s="4"/>
-      <c r="I560" s="4"/>
       <c r="J560" s="4"/>
       <c r="K560" s="4"/>
       <c r="L560" s="4"/>
@@ -15631,7 +15077,6 @@
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
       <c r="H561" s="4"/>
-      <c r="I561" s="4"/>
       <c r="J561" s="4"/>
       <c r="K561" s="4"/>
       <c r="L561" s="4"/>
@@ -15657,7 +15102,6 @@
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
       <c r="H562" s="4"/>
-      <c r="I562" s="4"/>
       <c r="J562" s="4"/>
       <c r="K562" s="4"/>
       <c r="L562" s="4"/>
@@ -15683,7 +15127,6 @@
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
       <c r="H563" s="4"/>
-      <c r="I563" s="4"/>
       <c r="J563" s="4"/>
       <c r="K563" s="4"/>
       <c r="L563" s="4"/>
@@ -15709,7 +15152,6 @@
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
       <c r="H564" s="4"/>
-      <c r="I564" s="4"/>
       <c r="J564" s="4"/>
       <c r="K564" s="4"/>
       <c r="L564" s="4"/>
@@ -15735,7 +15177,6 @@
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
       <c r="H565" s="4"/>
-      <c r="I565" s="4"/>
       <c r="J565" s="4"/>
       <c r="K565" s="4"/>
       <c r="L565" s="4"/>
@@ -15761,7 +15202,6 @@
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
       <c r="H566" s="4"/>
-      <c r="I566" s="4"/>
       <c r="J566" s="4"/>
       <c r="K566" s="4"/>
       <c r="L566" s="4"/>
@@ -15787,7 +15227,6 @@
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
       <c r="H567" s="4"/>
-      <c r="I567" s="4"/>
       <c r="J567" s="4"/>
       <c r="K567" s="4"/>
       <c r="L567" s="4"/>
@@ -15813,7 +15252,6 @@
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
       <c r="H568" s="4"/>
-      <c r="I568" s="4"/>
       <c r="J568" s="4"/>
       <c r="K568" s="4"/>
       <c r="L568" s="4"/>
@@ -15839,7 +15277,6 @@
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
       <c r="H569" s="4"/>
-      <c r="I569" s="4"/>
       <c r="J569" s="4"/>
       <c r="K569" s="4"/>
       <c r="L569" s="4"/>
@@ -15865,7 +15302,6 @@
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
       <c r="H570" s="4"/>
-      <c r="I570" s="4"/>
       <c r="J570" s="4"/>
       <c r="K570" s="4"/>
       <c r="L570" s="4"/>
@@ -15891,7 +15327,6 @@
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
       <c r="H571" s="4"/>
-      <c r="I571" s="4"/>
       <c r="J571" s="4"/>
       <c r="K571" s="4"/>
       <c r="L571" s="4"/>
@@ -15917,7 +15352,6 @@
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
       <c r="H572" s="4"/>
-      <c r="I572" s="4"/>
       <c r="J572" s="4"/>
       <c r="K572" s="4"/>
       <c r="L572" s="4"/>
@@ -15943,7 +15377,6 @@
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
       <c r="H573" s="4"/>
-      <c r="I573" s="4"/>
       <c r="J573" s="4"/>
       <c r="K573" s="4"/>
       <c r="L573" s="4"/>
@@ -15969,7 +15402,6 @@
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
       <c r="H574" s="4"/>
-      <c r="I574" s="4"/>
       <c r="J574" s="4"/>
       <c r="K574" s="4"/>
       <c r="L574" s="4"/>
@@ -15995,7 +15427,6 @@
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
       <c r="H575" s="4"/>
-      <c r="I575" s="4"/>
       <c r="J575" s="4"/>
       <c r="K575" s="4"/>
       <c r="L575" s="4"/>
@@ -16021,7 +15452,6 @@
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
       <c r="H576" s="4"/>
-      <c r="I576" s="4"/>
       <c r="J576" s="4"/>
       <c r="K576" s="4"/>
       <c r="L576" s="4"/>
@@ -16047,7 +15477,6 @@
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
       <c r="H577" s="4"/>
-      <c r="I577" s="4"/>
       <c r="J577" s="4"/>
       <c r="K577" s="4"/>
       <c r="L577" s="4"/>
@@ -16073,7 +15502,6 @@
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
       <c r="H578" s="4"/>
-      <c r="I578" s="4"/>
       <c r="J578" s="4"/>
       <c r="K578" s="4"/>
       <c r="L578" s="4"/>
@@ -16099,7 +15527,6 @@
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
       <c r="H579" s="4"/>
-      <c r="I579" s="4"/>
       <c r="J579" s="4"/>
       <c r="K579" s="4"/>
       <c r="L579" s="4"/>
@@ -16125,7 +15552,6 @@
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
       <c r="H580" s="4"/>
-      <c r="I580" s="4"/>
       <c r="J580" s="4"/>
       <c r="K580" s="4"/>
       <c r="L580" s="4"/>
@@ -16151,7 +15577,6 @@
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
       <c r="H581" s="4"/>
-      <c r="I581" s="4"/>
       <c r="J581" s="4"/>
       <c r="K581" s="4"/>
       <c r="L581" s="4"/>
@@ -16177,7 +15602,6 @@
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
       <c r="H582" s="4"/>
-      <c r="I582" s="4"/>
       <c r="J582" s="4"/>
       <c r="K582" s="4"/>
       <c r="L582" s="4"/>
@@ -16203,7 +15627,6 @@
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
       <c r="H583" s="4"/>
-      <c r="I583" s="4"/>
       <c r="J583" s="4"/>
       <c r="K583" s="4"/>
       <c r="L583" s="4"/>
@@ -16229,7 +15652,6 @@
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
       <c r="H584" s="4"/>
-      <c r="I584" s="4"/>
       <c r="J584" s="4"/>
       <c r="K584" s="4"/>
       <c r="L584" s="4"/>
@@ -16255,7 +15677,6 @@
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
       <c r="H585" s="4"/>
-      <c r="I585" s="4"/>
       <c r="J585" s="4"/>
       <c r="K585" s="4"/>
       <c r="L585" s="4"/>
@@ -16281,7 +15702,6 @@
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
       <c r="H586" s="4"/>
-      <c r="I586" s="4"/>
       <c r="J586" s="4"/>
       <c r="K586" s="4"/>
       <c r="L586" s="4"/>
@@ -16307,7 +15727,6 @@
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
       <c r="H587" s="4"/>
-      <c r="I587" s="4"/>
       <c r="J587" s="4"/>
       <c r="K587" s="4"/>
       <c r="L587" s="4"/>
@@ -16333,7 +15752,6 @@
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
       <c r="H588" s="4"/>
-      <c r="I588" s="4"/>
       <c r="J588" s="4"/>
       <c r="K588" s="4"/>
       <c r="L588" s="4"/>
@@ -16359,7 +15777,6 @@
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
       <c r="H589" s="4"/>
-      <c r="I589" s="4"/>
       <c r="J589" s="4"/>
       <c r="K589" s="4"/>
       <c r="L589" s="4"/>
@@ -16385,7 +15802,6 @@
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
       <c r="H590" s="4"/>
-      <c r="I590" s="4"/>
       <c r="J590" s="4"/>
       <c r="K590" s="4"/>
       <c r="L590" s="4"/>
@@ -16411,7 +15827,6 @@
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
       <c r="H591" s="4"/>
-      <c r="I591" s="4"/>
       <c r="J591" s="4"/>
       <c r="K591" s="4"/>
       <c r="L591" s="4"/>
@@ -16437,7 +15852,6 @@
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
       <c r="H592" s="4"/>
-      <c r="I592" s="4"/>
       <c r="J592" s="4"/>
       <c r="K592" s="4"/>
       <c r="L592" s="4"/>
@@ -16463,7 +15877,6 @@
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
       <c r="H593" s="4"/>
-      <c r="I593" s="4"/>
       <c r="J593" s="4"/>
       <c r="K593" s="4"/>
       <c r="L593" s="4"/>
@@ -16489,7 +15902,6 @@
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
       <c r="H594" s="4"/>
-      <c r="I594" s="4"/>
       <c r="J594" s="4"/>
       <c r="K594" s="4"/>
       <c r="L594" s="4"/>
@@ -16515,7 +15927,6 @@
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
       <c r="H595" s="4"/>
-      <c r="I595" s="4"/>
       <c r="J595" s="4"/>
       <c r="K595" s="4"/>
       <c r="L595" s="4"/>
@@ -16541,7 +15952,6 @@
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
       <c r="H596" s="4"/>
-      <c r="I596" s="4"/>
       <c r="J596" s="4"/>
       <c r="K596" s="4"/>
       <c r="L596" s="4"/>
@@ -16567,7 +15977,6 @@
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
       <c r="H597" s="4"/>
-      <c r="I597" s="4"/>
       <c r="J597" s="4"/>
       <c r="K597" s="4"/>
       <c r="L597" s="4"/>
@@ -16593,7 +16002,6 @@
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
       <c r="H598" s="4"/>
-      <c r="I598" s="4"/>
       <c r="J598" s="4"/>
       <c r="K598" s="4"/>
       <c r="L598" s="4"/>
@@ -16619,7 +16027,6 @@
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
       <c r="H599" s="4"/>
-      <c r="I599" s="4"/>
       <c r="J599" s="4"/>
       <c r="K599" s="4"/>
       <c r="L599" s="4"/>
@@ -16645,7 +16052,6 @@
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
       <c r="H600" s="4"/>
-      <c r="I600" s="4"/>
       <c r="J600" s="4"/>
       <c r="K600" s="4"/>
       <c r="L600" s="4"/>
@@ -16671,7 +16077,6 @@
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
       <c r="H601" s="4"/>
-      <c r="I601" s="4"/>
       <c r="J601" s="4"/>
       <c r="K601" s="4"/>
       <c r="L601" s="4"/>
@@ -16697,7 +16102,6 @@
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
       <c r="H602" s="4"/>
-      <c r="I602" s="4"/>
       <c r="J602" s="4"/>
       <c r="K602" s="4"/>
       <c r="L602" s="4"/>
@@ -16723,7 +16127,6 @@
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
       <c r="H603" s="4"/>
-      <c r="I603" s="4"/>
       <c r="J603" s="4"/>
       <c r="K603" s="4"/>
       <c r="L603" s="4"/>
@@ -16749,7 +16152,6 @@
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
       <c r="H604" s="4"/>
-      <c r="I604" s="4"/>
       <c r="J604" s="4"/>
       <c r="K604" s="4"/>
       <c r="L604" s="4"/>
@@ -16775,7 +16177,6 @@
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
       <c r="H605" s="4"/>
-      <c r="I605" s="4"/>
       <c r="J605" s="4"/>
       <c r="K605" s="4"/>
       <c r="L605" s="4"/>
@@ -16801,7 +16202,6 @@
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
       <c r="H606" s="4"/>
-      <c r="I606" s="4"/>
       <c r="J606" s="4"/>
       <c r="K606" s="4"/>
       <c r="L606" s="4"/>
@@ -16827,7 +16227,6 @@
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
       <c r="H607" s="4"/>
-      <c r="I607" s="4"/>
       <c r="J607" s="4"/>
       <c r="K607" s="4"/>
       <c r="L607" s="4"/>
@@ -16853,7 +16252,6 @@
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
       <c r="H608" s="4"/>
-      <c r="I608" s="4"/>
       <c r="J608" s="4"/>
       <c r="K608" s="4"/>
       <c r="L608" s="4"/>
@@ -16879,7 +16277,6 @@
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
       <c r="H609" s="4"/>
-      <c r="I609" s="4"/>
       <c r="J609" s="4"/>
       <c r="K609" s="4"/>
       <c r="L609" s="4"/>
@@ -16905,7 +16302,6 @@
       <c r="F610" s="4"/>
       <c r="G610" s="4"/>
       <c r="H610" s="4"/>
-      <c r="I610" s="4"/>
       <c r="J610" s="4"/>
       <c r="K610" s="4"/>
       <c r="L610" s="4"/>
@@ -16931,7 +16327,6 @@
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
       <c r="H611" s="4"/>
-      <c r="I611" s="4"/>
       <c r="J611" s="4"/>
       <c r="K611" s="4"/>
       <c r="L611" s="4"/>
@@ -16957,7 +16352,6 @@
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
       <c r="H612" s="4"/>
-      <c r="I612" s="4"/>
       <c r="J612" s="4"/>
       <c r="K612" s="4"/>
       <c r="L612" s="4"/>
@@ -16983,7 +16377,6 @@
       <c r="F613" s="4"/>
       <c r="G613" s="4"/>
       <c r="H613" s="4"/>
-      <c r="I613" s="4"/>
       <c r="J613" s="4"/>
       <c r="K613" s="4"/>
       <c r="L613" s="4"/>
@@ -17009,7 +16402,6 @@
       <c r="F614" s="4"/>
       <c r="G614" s="4"/>
       <c r="H614" s="4"/>
-      <c r="I614" s="4"/>
       <c r="J614" s="4"/>
       <c r="K614" s="4"/>
       <c r="L614" s="4"/>
@@ -17035,7 +16427,6 @@
       <c r="F615" s="4"/>
       <c r="G615" s="4"/>
       <c r="H615" s="4"/>
-      <c r="I615" s="4"/>
       <c r="J615" s="4"/>
       <c r="K615" s="4"/>
       <c r="L615" s="4"/>
@@ -17061,7 +16452,6 @@
       <c r="F616" s="4"/>
       <c r="G616" s="4"/>
       <c r="H616" s="4"/>
-      <c r="I616" s="4"/>
       <c r="J616" s="4"/>
       <c r="K616" s="4"/>
       <c r="L616" s="4"/>
@@ -17087,7 +16477,6 @@
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
       <c r="H617" s="4"/>
-      <c r="I617" s="4"/>
       <c r="J617" s="4"/>
       <c r="K617" s="4"/>
       <c r="L617" s="4"/>
@@ -17113,7 +16502,6 @@
       <c r="F618" s="4"/>
       <c r="G618" s="4"/>
       <c r="H618" s="4"/>
-      <c r="I618" s="4"/>
       <c r="J618" s="4"/>
       <c r="K618" s="4"/>
       <c r="L618" s="4"/>
@@ -17139,7 +16527,6 @@
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
       <c r="H619" s="4"/>
-      <c r="I619" s="4"/>
       <c r="J619" s="4"/>
       <c r="K619" s="4"/>
       <c r="L619" s="4"/>
@@ -17165,7 +16552,6 @@
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
       <c r="H620" s="4"/>
-      <c r="I620" s="4"/>
       <c r="J620" s="4"/>
       <c r="K620" s="4"/>
       <c r="L620" s="4"/>
@@ -17191,7 +16577,6 @@
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
       <c r="H621" s="4"/>
-      <c r="I621" s="4"/>
       <c r="J621" s="4"/>
       <c r="K621" s="4"/>
       <c r="L621" s="4"/>
@@ -17217,7 +16602,6 @@
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
       <c r="H622" s="4"/>
-      <c r="I622" s="4"/>
       <c r="J622" s="4"/>
       <c r="K622" s="4"/>
       <c r="L622" s="4"/>
@@ -17243,7 +16627,6 @@
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
       <c r="H623" s="4"/>
-      <c r="I623" s="4"/>
       <c r="J623" s="4"/>
       <c r="K623" s="4"/>
       <c r="L623" s="4"/>
@@ -17269,7 +16652,6 @@
       <c r="F624" s="4"/>
       <c r="G624" s="4"/>
       <c r="H624" s="4"/>
-      <c r="I624" s="4"/>
       <c r="J624" s="4"/>
       <c r="K624" s="4"/>
       <c r="L624" s="4"/>
@@ -17295,7 +16677,6 @@
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
       <c r="H625" s="4"/>
-      <c r="I625" s="4"/>
       <c r="J625" s="4"/>
       <c r="K625" s="4"/>
       <c r="L625" s="4"/>
@@ -17321,7 +16702,6 @@
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
       <c r="H626" s="4"/>
-      <c r="I626" s="4"/>
       <c r="J626" s="4"/>
       <c r="K626" s="4"/>
       <c r="L626" s="4"/>
@@ -17347,7 +16727,6 @@
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
       <c r="H627" s="4"/>
-      <c r="I627" s="4"/>
       <c r="J627" s="4"/>
       <c r="K627" s="4"/>
       <c r="L627" s="4"/>
@@ -17373,7 +16752,6 @@
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
       <c r="H628" s="4"/>
-      <c r="I628" s="4"/>
       <c r="J628" s="4"/>
       <c r="K628" s="4"/>
       <c r="L628" s="4"/>
@@ -17399,7 +16777,6 @@
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
       <c r="H629" s="4"/>
-      <c r="I629" s="4"/>
       <c r="J629" s="4"/>
       <c r="K629" s="4"/>
       <c r="L629" s="4"/>
@@ -17425,7 +16802,6 @@
       <c r="F630" s="4"/>
       <c r="G630" s="4"/>
       <c r="H630" s="4"/>
-      <c r="I630" s="4"/>
       <c r="J630" s="4"/>
       <c r="K630" s="4"/>
       <c r="L630" s="4"/>
@@ -17451,7 +16827,6 @@
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
       <c r="H631" s="4"/>
-      <c r="I631" s="4"/>
       <c r="J631" s="4"/>
       <c r="K631" s="4"/>
       <c r="L631" s="4"/>
@@ -17477,7 +16852,6 @@
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
       <c r="H632" s="4"/>
-      <c r="I632" s="4"/>
       <c r="J632" s="4"/>
       <c r="K632" s="4"/>
       <c r="L632" s="4"/>
@@ -17503,7 +16877,6 @@
       <c r="F633" s="4"/>
       <c r="G633" s="4"/>
       <c r="H633" s="4"/>
-      <c r="I633" s="4"/>
       <c r="J633" s="4"/>
       <c r="K633" s="4"/>
       <c r="L633" s="4"/>
@@ -17529,7 +16902,6 @@
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
       <c r="H634" s="4"/>
-      <c r="I634" s="4"/>
       <c r="J634" s="4"/>
       <c r="K634" s="4"/>
       <c r="L634" s="4"/>
@@ -17555,7 +16927,6 @@
       <c r="F635" s="4"/>
       <c r="G635" s="4"/>
       <c r="H635" s="4"/>
-      <c r="I635" s="4"/>
       <c r="J635" s="4"/>
       <c r="K635" s="4"/>
       <c r="L635" s="4"/>
@@ -17581,7 +16952,6 @@
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
       <c r="H636" s="4"/>
-      <c r="I636" s="4"/>
       <c r="J636" s="4"/>
       <c r="K636" s="4"/>
       <c r="L636" s="4"/>
@@ -17607,7 +16977,6 @@
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
       <c r="H637" s="4"/>
-      <c r="I637" s="4"/>
       <c r="J637" s="4"/>
       <c r="K637" s="4"/>
       <c r="L637" s="4"/>
@@ -17633,7 +17002,6 @@
       <c r="F638" s="4"/>
       <c r="G638" s="4"/>
       <c r="H638" s="4"/>
-      <c r="I638" s="4"/>
       <c r="J638" s="4"/>
       <c r="K638" s="4"/>
       <c r="L638" s="4"/>
@@ -17659,7 +17027,6 @@
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
       <c r="H639" s="4"/>
-      <c r="I639" s="4"/>
       <c r="J639" s="4"/>
       <c r="K639" s="4"/>
       <c r="L639" s="4"/>
@@ -17685,7 +17052,6 @@
       <c r="F640" s="4"/>
       <c r="G640" s="4"/>
       <c r="H640" s="4"/>
-      <c r="I640" s="4"/>
       <c r="J640" s="4"/>
       <c r="K640" s="4"/>
       <c r="L640" s="4"/>
@@ -17711,7 +17077,6 @@
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
       <c r="H641" s="4"/>
-      <c r="I641" s="4"/>
       <c r="J641" s="4"/>
       <c r="K641" s="4"/>
       <c r="L641" s="4"/>
@@ -17737,7 +17102,6 @@
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
-      <c r="I642" s="4"/>
       <c r="J642" s="4"/>
       <c r="K642" s="4"/>
       <c r="L642" s="4"/>
@@ -17763,7 +17127,6 @@
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
       <c r="H643" s="4"/>
-      <c r="I643" s="4"/>
       <c r="J643" s="4"/>
       <c r="K643" s="4"/>
       <c r="L643" s="4"/>
@@ -17789,7 +17152,6 @@
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
       <c r="H644" s="4"/>
-      <c r="I644" s="4"/>
       <c r="J644" s="4"/>
       <c r="K644" s="4"/>
       <c r="L644" s="4"/>
@@ -17815,7 +17177,6 @@
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
       <c r="H645" s="4"/>
-      <c r="I645" s="4"/>
       <c r="J645" s="4"/>
       <c r="K645" s="4"/>
       <c r="L645" s="4"/>
@@ -17841,7 +17202,6 @@
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
       <c r="H646" s="4"/>
-      <c r="I646" s="4"/>
       <c r="J646" s="4"/>
       <c r="K646" s="4"/>
       <c r="L646" s="4"/>
@@ -17867,7 +17227,6 @@
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
       <c r="H647" s="4"/>
-      <c r="I647" s="4"/>
       <c r="J647" s="4"/>
       <c r="K647" s="4"/>
       <c r="L647" s="4"/>
@@ -17893,7 +17252,6 @@
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
       <c r="H648" s="4"/>
-      <c r="I648" s="4"/>
       <c r="J648" s="4"/>
       <c r="K648" s="4"/>
       <c r="L648" s="4"/>
@@ -17919,7 +17277,6 @@
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
-      <c r="I649" s="4"/>
       <c r="J649" s="4"/>
       <c r="K649" s="4"/>
       <c r="L649" s="4"/>
@@ -17945,7 +17302,6 @@
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
       <c r="H650" s="4"/>
-      <c r="I650" s="4"/>
       <c r="J650" s="4"/>
       <c r="K650" s="4"/>
       <c r="L650" s="4"/>
@@ -17971,7 +17327,6 @@
       <c r="F651" s="4"/>
       <c r="G651" s="4"/>
       <c r="H651" s="4"/>
-      <c r="I651" s="4"/>
       <c r="J651" s="4"/>
       <c r="K651" s="4"/>
       <c r="L651" s="4"/>
@@ -17997,7 +17352,6 @@
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
-      <c r="I652" s="4"/>
       <c r="J652" s="4"/>
       <c r="K652" s="4"/>
       <c r="L652" s="4"/>
@@ -18023,7 +17377,6 @@
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
       <c r="H653" s="4"/>
-      <c r="I653" s="4"/>
       <c r="J653" s="4"/>
       <c r="K653" s="4"/>
       <c r="L653" s="4"/>
@@ -18049,7 +17402,6 @@
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
-      <c r="I654" s="4"/>
       <c r="J654" s="4"/>
       <c r="K654" s="4"/>
       <c r="L654" s="4"/>
@@ -18075,7 +17427,6 @@
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
       <c r="H655" s="4"/>
-      <c r="I655" s="4"/>
       <c r="J655" s="4"/>
       <c r="K655" s="4"/>
       <c r="L655" s="4"/>
@@ -18101,7 +17452,6 @@
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
       <c r="H656" s="4"/>
-      <c r="I656" s="4"/>
       <c r="J656" s="4"/>
       <c r="K656" s="4"/>
       <c r="L656" s="4"/>
@@ -18127,7 +17477,6 @@
       <c r="F657" s="4"/>
       <c r="G657" s="4"/>
       <c r="H657" s="4"/>
-      <c r="I657" s="4"/>
       <c r="J657" s="4"/>
       <c r="K657" s="4"/>
       <c r="L657" s="4"/>
@@ -18153,7 +17502,6 @@
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
-      <c r="I658" s="4"/>
       <c r="J658" s="4"/>
       <c r="K658" s="4"/>
       <c r="L658" s="4"/>
@@ -18179,7 +17527,6 @@
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
       <c r="H659" s="4"/>
-      <c r="I659" s="4"/>
       <c r="J659" s="4"/>
       <c r="K659" s="4"/>
       <c r="L659" s="4"/>
@@ -18205,7 +17552,6 @@
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
-      <c r="I660" s="4"/>
       <c r="J660" s="4"/>
       <c r="K660" s="4"/>
       <c r="L660" s="4"/>
@@ -18231,7 +17577,6 @@
       <c r="F661" s="4"/>
       <c r="G661" s="4"/>
       <c r="H661" s="4"/>
-      <c r="I661" s="4"/>
       <c r="J661" s="4"/>
       <c r="K661" s="4"/>
       <c r="L661" s="4"/>
@@ -18257,7 +17602,6 @@
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
-      <c r="I662" s="4"/>
       <c r="J662" s="4"/>
       <c r="K662" s="4"/>
       <c r="L662" s="4"/>
@@ -18283,7 +17627,6 @@
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
       <c r="H663" s="4"/>
-      <c r="I663" s="4"/>
       <c r="J663" s="4"/>
       <c r="K663" s="4"/>
       <c r="L663" s="4"/>
@@ -18309,7 +17652,6 @@
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
       <c r="H664" s="4"/>
-      <c r="I664" s="4"/>
       <c r="J664" s="4"/>
       <c r="K664" s="4"/>
       <c r="L664" s="4"/>
@@ -18335,7 +17677,6 @@
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
       <c r="H665" s="4"/>
-      <c r="I665" s="4"/>
       <c r="J665" s="4"/>
       <c r="K665" s="4"/>
       <c r="L665" s="4"/>
@@ -18361,7 +17702,6 @@
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
       <c r="H666" s="4"/>
-      <c r="I666" s="4"/>
       <c r="J666" s="4"/>
       <c r="K666" s="4"/>
       <c r="L666" s="4"/>
@@ -18387,7 +17727,6 @@
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
-      <c r="I667" s="4"/>
       <c r="J667" s="4"/>
       <c r="K667" s="4"/>
       <c r="L667" s="4"/>
@@ -18413,7 +17752,6 @@
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
       <c r="H668" s="4"/>
-      <c r="I668" s="4"/>
       <c r="J668" s="4"/>
       <c r="K668" s="4"/>
       <c r="L668" s="4"/>
@@ -18439,7 +17777,6 @@
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
-      <c r="I669" s="4"/>
       <c r="J669" s="4"/>
       <c r="K669" s="4"/>
       <c r="L669" s="4"/>
@@ -18465,7 +17802,6 @@
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
       <c r="H670" s="4"/>
-      <c r="I670" s="4"/>
       <c r="J670" s="4"/>
       <c r="K670" s="4"/>
       <c r="L670" s="4"/>
@@ -18491,7 +17827,6 @@
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
       <c r="H671" s="4"/>
-      <c r="I671" s="4"/>
       <c r="J671" s="4"/>
       <c r="K671" s="4"/>
       <c r="L671" s="4"/>
@@ -18517,7 +17852,6 @@
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
       <c r="H672" s="4"/>
-      <c r="I672" s="4"/>
       <c r="J672" s="4"/>
       <c r="K672" s="4"/>
       <c r="L672" s="4"/>
@@ -18543,7 +17877,6 @@
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
-      <c r="I673" s="4"/>
       <c r="J673" s="4"/>
       <c r="K673" s="4"/>
       <c r="L673" s="4"/>
@@ -18569,7 +17902,6 @@
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
       <c r="H674" s="4"/>
-      <c r="I674" s="4"/>
       <c r="J674" s="4"/>
       <c r="K674" s="4"/>
       <c r="L674" s="4"/>
@@ -18595,7 +17927,6 @@
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
-      <c r="I675" s="4"/>
       <c r="J675" s="4"/>
       <c r="K675" s="4"/>
       <c r="L675" s="4"/>
@@ -18621,7 +17952,6 @@
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
       <c r="H676" s="4"/>
-      <c r="I676" s="4"/>
       <c r="J676" s="4"/>
       <c r="K676" s="4"/>
       <c r="L676" s="4"/>
@@ -18647,7 +17977,6 @@
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
       <c r="H677" s="4"/>
-      <c r="I677" s="4"/>
       <c r="J677" s="4"/>
       <c r="K677" s="4"/>
       <c r="L677" s="4"/>
@@ -18673,7 +18002,6 @@
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
-      <c r="I678" s="4"/>
       <c r="J678" s="4"/>
       <c r="K678" s="4"/>
       <c r="L678" s="4"/>
@@ -18699,7 +18027,6 @@
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
       <c r="H679" s="4"/>
-      <c r="I679" s="4"/>
       <c r="J679" s="4"/>
       <c r="K679" s="4"/>
       <c r="L679" s="4"/>
@@ -18725,7 +18052,6 @@
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
       <c r="H680" s="4"/>
-      <c r="I680" s="4"/>
       <c r="J680" s="4"/>
       <c r="K680" s="4"/>
       <c r="L680" s="4"/>
@@ -18751,7 +18077,6 @@
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
       <c r="H681" s="4"/>
-      <c r="I681" s="4"/>
       <c r="J681" s="4"/>
       <c r="K681" s="4"/>
       <c r="L681" s="4"/>
@@ -18777,7 +18102,6 @@
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
       <c r="H682" s="4"/>
-      <c r="I682" s="4"/>
       <c r="J682" s="4"/>
       <c r="K682" s="4"/>
       <c r="L682" s="4"/>
@@ -18803,7 +18127,6 @@
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
-      <c r="I683" s="4"/>
       <c r="J683" s="4"/>
       <c r="K683" s="4"/>
       <c r="L683" s="4"/>
@@ -18829,7 +18152,6 @@
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
       <c r="H684" s="4"/>
-      <c r="I684" s="4"/>
       <c r="J684" s="4"/>
       <c r="K684" s="4"/>
       <c r="L684" s="4"/>
@@ -18855,7 +18177,6 @@
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
-      <c r="I685" s="4"/>
       <c r="J685" s="4"/>
       <c r="K685" s="4"/>
       <c r="L685" s="4"/>
@@ -18881,7 +18202,6 @@
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
       <c r="H686" s="4"/>
-      <c r="I686" s="4"/>
       <c r="J686" s="4"/>
       <c r="K686" s="4"/>
       <c r="L686" s="4"/>
@@ -18907,7 +18227,6 @@
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
       <c r="H687" s="4"/>
-      <c r="I687" s="4"/>
       <c r="J687" s="4"/>
       <c r="K687" s="4"/>
       <c r="L687" s="4"/>
@@ -18933,7 +18252,6 @@
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
       <c r="H688" s="4"/>
-      <c r="I688" s="4"/>
       <c r="J688" s="4"/>
       <c r="K688" s="4"/>
       <c r="L688" s="4"/>
@@ -18959,7 +18277,6 @@
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
       <c r="H689" s="4"/>
-      <c r="I689" s="4"/>
       <c r="J689" s="4"/>
       <c r="K689" s="4"/>
       <c r="L689" s="4"/>
@@ -18985,7 +18302,6 @@
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
-      <c r="I690" s="4"/>
       <c r="J690" s="4"/>
       <c r="K690" s="4"/>
       <c r="L690" s="4"/>
@@ -19011,7 +18327,6 @@
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
       <c r="H691" s="4"/>
-      <c r="I691" s="4"/>
       <c r="J691" s="4"/>
       <c r="K691" s="4"/>
       <c r="L691" s="4"/>
@@ -19037,7 +18352,6 @@
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
       <c r="H692" s="4"/>
-      <c r="I692" s="4"/>
       <c r="J692" s="4"/>
       <c r="K692" s="4"/>
       <c r="L692" s="4"/>
@@ -19063,7 +18377,6 @@
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
       <c r="H693" s="4"/>
-      <c r="I693" s="4"/>
       <c r="J693" s="4"/>
       <c r="K693" s="4"/>
       <c r="L693" s="4"/>
@@ -19089,7 +18402,6 @@
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
       <c r="H694" s="4"/>
-      <c r="I694" s="4"/>
       <c r="J694" s="4"/>
       <c r="K694" s="4"/>
       <c r="L694" s="4"/>
@@ -19115,7 +18427,6 @@
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
       <c r="H695" s="4"/>
-      <c r="I695" s="4"/>
       <c r="J695" s="4"/>
       <c r="K695" s="4"/>
       <c r="L695" s="4"/>
@@ -19141,7 +18452,6 @@
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
       <c r="H696" s="4"/>
-      <c r="I696" s="4"/>
       <c r="J696" s="4"/>
       <c r="K696" s="4"/>
       <c r="L696" s="4"/>
@@ -19167,7 +18477,6 @@
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
       <c r="H697" s="4"/>
-      <c r="I697" s="4"/>
       <c r="J697" s="4"/>
       <c r="K697" s="4"/>
       <c r="L697" s="4"/>
@@ -19193,7 +18502,6 @@
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
       <c r="H698" s="4"/>
-      <c r="I698" s="4"/>
       <c r="J698" s="4"/>
       <c r="K698" s="4"/>
       <c r="L698" s="4"/>
@@ -19219,7 +18527,6 @@
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
       <c r="H699" s="4"/>
-      <c r="I699" s="4"/>
       <c r="J699" s="4"/>
       <c r="K699" s="4"/>
       <c r="L699" s="4"/>
@@ -19245,7 +18552,6 @@
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
       <c r="H700" s="4"/>
-      <c r="I700" s="4"/>
       <c r="J700" s="4"/>
       <c r="K700" s="4"/>
       <c r="L700" s="4"/>
@@ -19271,7 +18577,6 @@
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
       <c r="H701" s="4"/>
-      <c r="I701" s="4"/>
       <c r="J701" s="4"/>
       <c r="K701" s="4"/>
       <c r="L701" s="4"/>
@@ -19297,7 +18602,6 @@
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
       <c r="H702" s="4"/>
-      <c r="I702" s="4"/>
       <c r="J702" s="4"/>
       <c r="K702" s="4"/>
       <c r="L702" s="4"/>
@@ -19323,7 +18627,6 @@
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
       <c r="H703" s="4"/>
-      <c r="I703" s="4"/>
       <c r="J703" s="4"/>
       <c r="K703" s="4"/>
       <c r="L703" s="4"/>
@@ -19349,7 +18652,6 @@
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
       <c r="H704" s="4"/>
-      <c r="I704" s="4"/>
       <c r="J704" s="4"/>
       <c r="K704" s="4"/>
       <c r="L704" s="4"/>
@@ -19375,7 +18677,6 @@
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
       <c r="H705" s="4"/>
-      <c r="I705" s="4"/>
       <c r="J705" s="4"/>
       <c r="K705" s="4"/>
       <c r="L705" s="4"/>
@@ -19401,7 +18702,6 @@
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
       <c r="H706" s="4"/>
-      <c r="I706" s="4"/>
       <c r="J706" s="4"/>
       <c r="K706" s="4"/>
       <c r="L706" s="4"/>
@@ -19427,7 +18727,6 @@
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
       <c r="H707" s="4"/>
-      <c r="I707" s="4"/>
       <c r="J707" s="4"/>
       <c r="K707" s="4"/>
       <c r="L707" s="4"/>
@@ -19453,7 +18752,6 @@
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
       <c r="H708" s="4"/>
-      <c r="I708" s="4"/>
       <c r="J708" s="4"/>
       <c r="K708" s="4"/>
       <c r="L708" s="4"/>
@@ -19479,7 +18777,6 @@
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
       <c r="H709" s="4"/>
-      <c r="I709" s="4"/>
       <c r="J709" s="4"/>
       <c r="K709" s="4"/>
       <c r="L709" s="4"/>
@@ -19505,7 +18802,6 @@
       <c r="F710" s="4"/>
       <c r="G710" s="4"/>
       <c r="H710" s="4"/>
-      <c r="I710" s="4"/>
       <c r="J710" s="4"/>
       <c r="K710" s="4"/>
       <c r="L710" s="4"/>
@@ -19531,7 +18827,6 @@
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
       <c r="H711" s="4"/>
-      <c r="I711" s="4"/>
       <c r="J711" s="4"/>
       <c r="K711" s="4"/>
       <c r="L711" s="4"/>
@@ -19557,7 +18852,6 @@
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
       <c r="H712" s="4"/>
-      <c r="I712" s="4"/>
       <c r="J712" s="4"/>
       <c r="K712" s="4"/>
       <c r="L712" s="4"/>
@@ -19583,7 +18877,6 @@
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
       <c r="H713" s="4"/>
-      <c r="I713" s="4"/>
       <c r="J713" s="4"/>
       <c r="K713" s="4"/>
       <c r="L713" s="4"/>
@@ -19609,7 +18902,6 @@
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
       <c r="H714" s="4"/>
-      <c r="I714" s="4"/>
       <c r="J714" s="4"/>
       <c r="K714" s="4"/>
       <c r="L714" s="4"/>
@@ -19635,7 +18927,6 @@
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
       <c r="H715" s="4"/>
-      <c r="I715" s="4"/>
       <c r="J715" s="4"/>
       <c r="K715" s="4"/>
       <c r="L715" s="4"/>
@@ -19661,7 +18952,6 @@
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
       <c r="H716" s="4"/>
-      <c r="I716" s="4"/>
       <c r="J716" s="4"/>
       <c r="K716" s="4"/>
       <c r="L716" s="4"/>
@@ -19687,7 +18977,6 @@
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
       <c r="H717" s="4"/>
-      <c r="I717" s="4"/>
       <c r="J717" s="4"/>
       <c r="K717" s="4"/>
       <c r="L717" s="4"/>
@@ -19713,7 +19002,6 @@
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
       <c r="H718" s="4"/>
-      <c r="I718" s="4"/>
       <c r="J718" s="4"/>
       <c r="K718" s="4"/>
       <c r="L718" s="4"/>
@@ -19739,7 +19027,6 @@
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
       <c r="H719" s="4"/>
-      <c r="I719" s="4"/>
       <c r="J719" s="4"/>
       <c r="K719" s="4"/>
       <c r="L719" s="4"/>
@@ -19765,7 +19052,6 @@
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
       <c r="H720" s="4"/>
-      <c r="I720" s="4"/>
       <c r="J720" s="4"/>
       <c r="K720" s="4"/>
       <c r="L720" s="4"/>
@@ -19791,7 +19077,6 @@
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
       <c r="H721" s="4"/>
-      <c r="I721" s="4"/>
       <c r="J721" s="4"/>
       <c r="K721" s="4"/>
       <c r="L721" s="4"/>
@@ -19817,7 +19102,6 @@
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
       <c r="H722" s="4"/>
-      <c r="I722" s="4"/>
       <c r="J722" s="4"/>
       <c r="K722" s="4"/>
       <c r="L722" s="4"/>
@@ -19843,7 +19127,6 @@
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
       <c r="H723" s="4"/>
-      <c r="I723" s="4"/>
       <c r="J723" s="4"/>
       <c r="K723" s="4"/>
       <c r="L723" s="4"/>
@@ -19869,7 +19152,6 @@
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
       <c r="H724" s="4"/>
-      <c r="I724" s="4"/>
       <c r="J724" s="4"/>
       <c r="K724" s="4"/>
       <c r="L724" s="4"/>
@@ -19895,7 +19177,6 @@
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
       <c r="H725" s="4"/>
-      <c r="I725" s="4"/>
       <c r="J725" s="4"/>
       <c r="K725" s="4"/>
       <c r="L725" s="4"/>
@@ -19921,7 +19202,6 @@
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
       <c r="H726" s="4"/>
-      <c r="I726" s="4"/>
       <c r="J726" s="4"/>
       <c r="K726" s="4"/>
       <c r="L726" s="4"/>
@@ -19947,7 +19227,6 @@
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
       <c r="H727" s="4"/>
-      <c r="I727" s="4"/>
       <c r="J727" s="4"/>
       <c r="K727" s="4"/>
       <c r="L727" s="4"/>
@@ -19973,7 +19252,6 @@
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
       <c r="H728" s="4"/>
-      <c r="I728" s="4"/>
       <c r="J728" s="4"/>
       <c r="K728" s="4"/>
       <c r="L728" s="4"/>
@@ -19999,7 +19277,6 @@
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
       <c r="H729" s="4"/>
-      <c r="I729" s="4"/>
       <c r="J729" s="4"/>
       <c r="K729" s="4"/>
       <c r="L729" s="4"/>
@@ -20025,7 +19302,6 @@
       <c r="F730" s="4"/>
       <c r="G730" s="4"/>
       <c r="H730" s="4"/>
-      <c r="I730" s="4"/>
       <c r="J730" s="4"/>
       <c r="K730" s="4"/>
       <c r="L730" s="4"/>
@@ -20051,7 +19327,6 @@
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
       <c r="H731" s="4"/>
-      <c r="I731" s="4"/>
       <c r="J731" s="4"/>
       <c r="K731" s="4"/>
       <c r="L731" s="4"/>
@@ -20077,7 +19352,6 @@
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
       <c r="H732" s="4"/>
-      <c r="I732" s="4"/>
       <c r="J732" s="4"/>
       <c r="K732" s="4"/>
       <c r="L732" s="4"/>
@@ -20103,7 +19377,6 @@
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
       <c r="H733" s="4"/>
-      <c r="I733" s="4"/>
       <c r="J733" s="4"/>
       <c r="K733" s="4"/>
       <c r="L733" s="4"/>
@@ -20129,7 +19402,6 @@
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
       <c r="H734" s="4"/>
-      <c r="I734" s="4"/>
       <c r="J734" s="4"/>
       <c r="K734" s="4"/>
       <c r="L734" s="4"/>
@@ -20155,7 +19427,6 @@
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
       <c r="H735" s="4"/>
-      <c r="I735" s="4"/>
       <c r="J735" s="4"/>
       <c r="K735" s="4"/>
       <c r="L735" s="4"/>
@@ -20181,7 +19452,6 @@
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
       <c r="H736" s="4"/>
-      <c r="I736" s="4"/>
       <c r="J736" s="4"/>
       <c r="K736" s="4"/>
       <c r="L736" s="4"/>
@@ -20207,7 +19477,6 @@
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
       <c r="H737" s="4"/>
-      <c r="I737" s="4"/>
       <c r="J737" s="4"/>
       <c r="K737" s="4"/>
       <c r="L737" s="4"/>
@@ -20233,7 +19502,6 @@
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
       <c r="H738" s="4"/>
-      <c r="I738" s="4"/>
       <c r="J738" s="4"/>
       <c r="K738" s="4"/>
       <c r="L738" s="4"/>
@@ -20259,7 +19527,6 @@
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
       <c r="H739" s="4"/>
-      <c r="I739" s="4"/>
       <c r="J739" s="4"/>
       <c r="K739" s="4"/>
       <c r="L739" s="4"/>
@@ -20285,7 +19552,6 @@
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
       <c r="H740" s="4"/>
-      <c r="I740" s="4"/>
       <c r="J740" s="4"/>
       <c r="K740" s="4"/>
       <c r="L740" s="4"/>
@@ -20311,7 +19577,6 @@
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
       <c r="H741" s="4"/>
-      <c r="I741" s="4"/>
       <c r="J741" s="4"/>
       <c r="K741" s="4"/>
       <c r="L741" s="4"/>
@@ -20337,7 +19602,6 @@
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
       <c r="H742" s="4"/>
-      <c r="I742" s="4"/>
       <c r="J742" s="4"/>
       <c r="K742" s="4"/>
       <c r="L742" s="4"/>
@@ -20363,7 +19627,6 @@
       <c r="F743" s="4"/>
       <c r="G743" s="4"/>
       <c r="H743" s="4"/>
-      <c r="I743" s="4"/>
       <c r="J743" s="4"/>
       <c r="K743" s="4"/>
       <c r="L743" s="4"/>
@@ -20389,7 +19652,6 @@
       <c r="F744" s="4"/>
       <c r="G744" s="4"/>
       <c r="H744" s="4"/>
-      <c r="I744" s="4"/>
       <c r="J744" s="4"/>
       <c r="K744" s="4"/>
       <c r="L744" s="4"/>
@@ -20415,7 +19677,6 @@
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
       <c r="H745" s="4"/>
-      <c r="I745" s="4"/>
       <c r="J745" s="4"/>
       <c r="K745" s="4"/>
       <c r="L745" s="4"/>
@@ -20441,7 +19702,6 @@
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
       <c r="H746" s="4"/>
-      <c r="I746" s="4"/>
       <c r="J746" s="4"/>
       <c r="K746" s="4"/>
       <c r="L746" s="4"/>
@@ -20467,7 +19727,6 @@
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
       <c r="H747" s="4"/>
-      <c r="I747" s="4"/>
       <c r="J747" s="4"/>
       <c r="K747" s="4"/>
       <c r="L747" s="4"/>
@@ -20493,7 +19752,6 @@
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
       <c r="H748" s="4"/>
-      <c r="I748" s="4"/>
       <c r="J748" s="4"/>
       <c r="K748" s="4"/>
       <c r="L748" s="4"/>
@@ -20519,7 +19777,6 @@
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
       <c r="H749" s="4"/>
-      <c r="I749" s="4"/>
       <c r="J749" s="4"/>
       <c r="K749" s="4"/>
       <c r="L749" s="4"/>
@@ -20545,7 +19802,6 @@
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
       <c r="H750" s="4"/>
-      <c r="I750" s="4"/>
       <c r="J750" s="4"/>
       <c r="K750" s="4"/>
       <c r="L750" s="4"/>
@@ -20571,7 +19827,6 @@
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
       <c r="H751" s="4"/>
-      <c r="I751" s="4"/>
       <c r="J751" s="4"/>
       <c r="K751" s="4"/>
       <c r="L751" s="4"/>
@@ -20597,7 +19852,6 @@
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
       <c r="H752" s="4"/>
-      <c r="I752" s="4"/>
       <c r="J752" s="4"/>
       <c r="K752" s="4"/>
       <c r="L752" s="4"/>
@@ -20623,7 +19877,6 @@
       <c r="F753" s="4"/>
       <c r="G753" s="4"/>
       <c r="H753" s="4"/>
-      <c r="I753" s="4"/>
       <c r="J753" s="4"/>
       <c r="K753" s="4"/>
       <c r="L753" s="4"/>
@@ -20649,7 +19902,6 @@
       <c r="F754" s="4"/>
       <c r="G754" s="4"/>
       <c r="H754" s="4"/>
-      <c r="I754" s="4"/>
       <c r="J754" s="4"/>
       <c r="K754" s="4"/>
       <c r="L754" s="4"/>
@@ -20675,7 +19927,6 @@
       <c r="F755" s="4"/>
       <c r="G755" s="4"/>
       <c r="H755" s="4"/>
-      <c r="I755" s="4"/>
       <c r="J755" s="4"/>
       <c r="K755" s="4"/>
       <c r="L755" s="4"/>
@@ -20701,7 +19952,6 @@
       <c r="F756" s="4"/>
       <c r="G756" s="4"/>
       <c r="H756" s="4"/>
-      <c r="I756" s="4"/>
       <c r="J756" s="4"/>
       <c r="K756" s="4"/>
       <c r="L756" s="4"/>
@@ -20727,7 +19977,6 @@
       <c r="F757" s="4"/>
       <c r="G757" s="4"/>
       <c r="H757" s="4"/>
-      <c r="I757" s="4"/>
       <c r="J757" s="4"/>
       <c r="K757" s="4"/>
       <c r="L757" s="4"/>
@@ -20753,7 +20002,6 @@
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
       <c r="H758" s="4"/>
-      <c r="I758" s="4"/>
       <c r="J758" s="4"/>
       <c r="K758" s="4"/>
       <c r="L758" s="4"/>
@@ -20779,7 +20027,6 @@
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
       <c r="H759" s="4"/>
-      <c r="I759" s="4"/>
       <c r="J759" s="4"/>
       <c r="K759" s="4"/>
       <c r="L759" s="4"/>
@@ -20805,7 +20052,6 @@
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
       <c r="H760" s="4"/>
-      <c r="I760" s="4"/>
       <c r="J760" s="4"/>
       <c r="K760" s="4"/>
       <c r="L760" s="4"/>
@@ -20831,7 +20077,6 @@
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
       <c r="H761" s="4"/>
-      <c r="I761" s="4"/>
       <c r="J761" s="4"/>
       <c r="K761" s="4"/>
       <c r="L761" s="4"/>
@@ -20857,7 +20102,6 @@
       <c r="F762" s="4"/>
       <c r="G762" s="4"/>
       <c r="H762" s="4"/>
-      <c r="I762" s="4"/>
       <c r="J762" s="4"/>
       <c r="K762" s="4"/>
       <c r="L762" s="4"/>
@@ -20883,7 +20127,6 @@
       <c r="F763" s="4"/>
       <c r="G763" s="4"/>
       <c r="H763" s="4"/>
-      <c r="I763" s="4"/>
       <c r="J763" s="4"/>
       <c r="K763" s="4"/>
       <c r="L763" s="4"/>
@@ -20909,7 +20152,6 @@
       <c r="F764" s="4"/>
       <c r="G764" s="4"/>
       <c r="H764" s="4"/>
-      <c r="I764" s="4"/>
       <c r="J764" s="4"/>
       <c r="K764" s="4"/>
       <c r="L764" s="4"/>
@@ -20935,7 +20177,6 @@
       <c r="F765" s="4"/>
       <c r="G765" s="4"/>
       <c r="H765" s="4"/>
-      <c r="I765" s="4"/>
       <c r="J765" s="4"/>
       <c r="K765" s="4"/>
       <c r="L765" s="4"/>
@@ -20961,7 +20202,6 @@
       <c r="F766" s="4"/>
       <c r="G766" s="4"/>
       <c r="H766" s="4"/>
-      <c r="I766" s="4"/>
       <c r="J766" s="4"/>
       <c r="K766" s="4"/>
       <c r="L766" s="4"/>
@@ -20987,7 +20227,6 @@
       <c r="F767" s="4"/>
       <c r="G767" s="4"/>
       <c r="H767" s="4"/>
-      <c r="I767" s="4"/>
       <c r="J767" s="4"/>
       <c r="K767" s="4"/>
       <c r="L767" s="4"/>
@@ -21013,7 +20252,6 @@
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
       <c r="H768" s="4"/>
-      <c r="I768" s="4"/>
       <c r="J768" s="4"/>
       <c r="K768" s="4"/>
       <c r="L768" s="4"/>
@@ -21039,7 +20277,6 @@
       <c r="F769" s="4"/>
       <c r="G769" s="4"/>
       <c r="H769" s="4"/>
-      <c r="I769" s="4"/>
       <c r="J769" s="4"/>
       <c r="K769" s="4"/>
       <c r="L769" s="4"/>
@@ -21065,7 +20302,6 @@
       <c r="F770" s="4"/>
       <c r="G770" s="4"/>
       <c r="H770" s="4"/>
-      <c r="I770" s="4"/>
       <c r="J770" s="4"/>
       <c r="K770" s="4"/>
       <c r="L770" s="4"/>
@@ -21091,7 +20327,6 @@
       <c r="F771" s="4"/>
       <c r="G771" s="4"/>
       <c r="H771" s="4"/>
-      <c r="I771" s="4"/>
       <c r="J771" s="4"/>
       <c r="K771" s="4"/>
       <c r="L771" s="4"/>
@@ -21117,7 +20352,6 @@
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
       <c r="H772" s="4"/>
-      <c r="I772" s="4"/>
       <c r="J772" s="4"/>
       <c r="K772" s="4"/>
       <c r="L772" s="4"/>
@@ -21143,7 +20377,6 @@
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
       <c r="H773" s="4"/>
-      <c r="I773" s="4"/>
       <c r="J773" s="4"/>
       <c r="K773" s="4"/>
       <c r="L773" s="4"/>
@@ -21169,7 +20402,6 @@
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
       <c r="H774" s="4"/>
-      <c r="I774" s="4"/>
       <c r="J774" s="4"/>
       <c r="K774" s="4"/>
       <c r="L774" s="4"/>
@@ -21195,7 +20427,6 @@
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
       <c r="H775" s="4"/>
-      <c r="I775" s="4"/>
       <c r="J775" s="4"/>
       <c r="K775" s="4"/>
       <c r="L775" s="4"/>
@@ -21221,7 +20452,6 @@
       <c r="F776" s="4"/>
       <c r="G776" s="4"/>
       <c r="H776" s="4"/>
-      <c r="I776" s="4"/>
       <c r="J776" s="4"/>
       <c r="K776" s="4"/>
       <c r="L776" s="4"/>
@@ -21247,7 +20477,6 @@
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
       <c r="H777" s="4"/>
-      <c r="I777" s="4"/>
       <c r="J777" s="4"/>
       <c r="K777" s="4"/>
       <c r="L777" s="4"/>
@@ -21273,7 +20502,6 @@
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
       <c r="H778" s="4"/>
-      <c r="I778" s="4"/>
       <c r="J778" s="4"/>
       <c r="K778" s="4"/>
       <c r="L778" s="4"/>
@@ -21299,7 +20527,6 @@
       <c r="F779" s="4"/>
       <c r="G779" s="4"/>
       <c r="H779" s="4"/>
-      <c r="I779" s="4"/>
       <c r="J779" s="4"/>
       <c r="K779" s="4"/>
       <c r="L779" s="4"/>
@@ -21325,7 +20552,6 @@
       <c r="F780" s="4"/>
       <c r="G780" s="4"/>
       <c r="H780" s="4"/>
-      <c r="I780" s="4"/>
       <c r="J780" s="4"/>
       <c r="K780" s="4"/>
       <c r="L780" s="4"/>
@@ -21351,7 +20577,6 @@
       <c r="F781" s="4"/>
       <c r="G781" s="4"/>
       <c r="H781" s="4"/>
-      <c r="I781" s="4"/>
       <c r="J781" s="4"/>
       <c r="K781" s="4"/>
       <c r="L781" s="4"/>
@@ -21377,7 +20602,6 @@
       <c r="F782" s="4"/>
       <c r="G782" s="4"/>
       <c r="H782" s="4"/>
-      <c r="I782" s="4"/>
       <c r="J782" s="4"/>
       <c r="K782" s="4"/>
       <c r="L782" s="4"/>
@@ -21403,7 +20627,6 @@
       <c r="F783" s="4"/>
       <c r="G783" s="4"/>
       <c r="H783" s="4"/>
-      <c r="I783" s="4"/>
       <c r="J783" s="4"/>
       <c r="K783" s="4"/>
       <c r="L783" s="4"/>
@@ -21429,7 +20652,6 @@
       <c r="F784" s="4"/>
       <c r="G784" s="4"/>
       <c r="H784" s="4"/>
-      <c r="I784" s="4"/>
       <c r="J784" s="4"/>
       <c r="K784" s="4"/>
       <c r="L784" s="4"/>
@@ -21455,7 +20677,6 @@
       <c r="F785" s="4"/>
       <c r="G785" s="4"/>
       <c r="H785" s="4"/>
-      <c r="I785" s="4"/>
       <c r="J785" s="4"/>
       <c r="K785" s="4"/>
       <c r="L785" s="4"/>
@@ -21481,7 +20702,6 @@
       <c r="F786" s="4"/>
       <c r="G786" s="4"/>
       <c r="H786" s="4"/>
-      <c r="I786" s="4"/>
       <c r="J786" s="4"/>
       <c r="K786" s="4"/>
       <c r="L786" s="4"/>
@@ -21507,7 +20727,6 @@
       <c r="F787" s="4"/>
       <c r="G787" s="4"/>
       <c r="H787" s="4"/>
-      <c r="I787" s="4"/>
       <c r="J787" s="4"/>
       <c r="K787" s="4"/>
       <c r="L787" s="4"/>
@@ -21533,7 +20752,6 @@
       <c r="F788" s="4"/>
       <c r="G788" s="4"/>
       <c r="H788" s="4"/>
-      <c r="I788" s="4"/>
       <c r="J788" s="4"/>
       <c r="K788" s="4"/>
       <c r="L788" s="4"/>
@@ -21559,7 +20777,6 @@
       <c r="F789" s="4"/>
       <c r="G789" s="4"/>
       <c r="H789" s="4"/>
-      <c r="I789" s="4"/>
       <c r="J789" s="4"/>
       <c r="K789" s="4"/>
       <c r="L789" s="4"/>
@@ -21585,7 +20802,6 @@
       <c r="F790" s="4"/>
       <c r="G790" s="4"/>
       <c r="H790" s="4"/>
-      <c r="I790" s="4"/>
       <c r="J790" s="4"/>
       <c r="K790" s="4"/>
       <c r="L790" s="4"/>
@@ -21611,7 +20827,6 @@
       <c r="F791" s="4"/>
       <c r="G791" s="4"/>
       <c r="H791" s="4"/>
-      <c r="I791" s="4"/>
       <c r="J791" s="4"/>
       <c r="K791" s="4"/>
       <c r="L791" s="4"/>
@@ -21637,7 +20852,6 @@
       <c r="F792" s="4"/>
       <c r="G792" s="4"/>
       <c r="H792" s="4"/>
-      <c r="I792" s="4"/>
       <c r="J792" s="4"/>
       <c r="K792" s="4"/>
       <c r="L792" s="4"/>
@@ -21663,7 +20877,6 @@
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
       <c r="H793" s="4"/>
-      <c r="I793" s="4"/>
       <c r="J793" s="4"/>
       <c r="K793" s="4"/>
       <c r="L793" s="4"/>
@@ -21689,7 +20902,6 @@
       <c r="F794" s="4"/>
       <c r="G794" s="4"/>
       <c r="H794" s="4"/>
-      <c r="I794" s="4"/>
       <c r="J794" s="4"/>
       <c r="K794" s="4"/>
       <c r="L794" s="4"/>
@@ -21715,7 +20927,6 @@
       <c r="F795" s="4"/>
       <c r="G795" s="4"/>
       <c r="H795" s="4"/>
-      <c r="I795" s="4"/>
       <c r="J795" s="4"/>
       <c r="K795" s="4"/>
       <c r="L795" s="4"/>
@@ -21741,7 +20952,6 @@
       <c r="F796" s="4"/>
       <c r="G796" s="4"/>
       <c r="H796" s="4"/>
-      <c r="I796" s="4"/>
       <c r="J796" s="4"/>
       <c r="K796" s="4"/>
       <c r="L796" s="4"/>
@@ -21767,7 +20977,6 @@
       <c r="F797" s="4"/>
       <c r="G797" s="4"/>
       <c r="H797" s="4"/>
-      <c r="I797" s="4"/>
       <c r="J797" s="4"/>
       <c r="K797" s="4"/>
       <c r="L797" s="4"/>
@@ -21793,7 +21002,6 @@
       <c r="F798" s="4"/>
       <c r="G798" s="4"/>
       <c r="H798" s="4"/>
-      <c r="I798" s="4"/>
       <c r="J798" s="4"/>
       <c r="K798" s="4"/>
       <c r="L798" s="4"/>
@@ -21819,7 +21027,6 @@
       <c r="F799" s="4"/>
       <c r="G799" s="4"/>
       <c r="H799" s="4"/>
-      <c r="I799" s="4"/>
       <c r="J799" s="4"/>
       <c r="K799" s="4"/>
       <c r="L799" s="4"/>
@@ -21845,7 +21052,6 @@
       <c r="F800" s="4"/>
       <c r="G800" s="4"/>
       <c r="H800" s="4"/>
-      <c r="I800" s="4"/>
       <c r="J800" s="4"/>
       <c r="K800" s="4"/>
       <c r="L800" s="4"/>
@@ -21871,7 +21077,6 @@
       <c r="F801" s="4"/>
       <c r="G801" s="4"/>
       <c r="H801" s="4"/>
-      <c r="I801" s="4"/>
       <c r="J801" s="4"/>
       <c r="K801" s="4"/>
       <c r="L801" s="4"/>
@@ -21897,7 +21102,6 @@
       <c r="F802" s="4"/>
       <c r="G802" s="4"/>
       <c r="H802" s="4"/>
-      <c r="I802" s="4"/>
       <c r="J802" s="4"/>
       <c r="K802" s="4"/>
       <c r="L802" s="4"/>
@@ -21923,7 +21127,6 @@
       <c r="F803" s="4"/>
       <c r="G803" s="4"/>
       <c r="H803" s="4"/>
-      <c r="I803" s="4"/>
       <c r="J803" s="4"/>
       <c r="K803" s="4"/>
       <c r="L803" s="4"/>
@@ -21949,7 +21152,6 @@
       <c r="F804" s="4"/>
       <c r="G804" s="4"/>
       <c r="H804" s="4"/>
-      <c r="I804" s="4"/>
       <c r="J804" s="4"/>
       <c r="K804" s="4"/>
       <c r="L804" s="4"/>
@@ -21975,7 +21177,6 @@
       <c r="F805" s="4"/>
       <c r="G805" s="4"/>
       <c r="H805" s="4"/>
-      <c r="I805" s="4"/>
       <c r="J805" s="4"/>
       <c r="K805" s="4"/>
       <c r="L805" s="4"/>
@@ -22001,7 +21202,6 @@
       <c r="F806" s="4"/>
       <c r="G806" s="4"/>
       <c r="H806" s="4"/>
-      <c r="I806" s="4"/>
       <c r="J806" s="4"/>
       <c r="K806" s="4"/>
       <c r="L806" s="4"/>
@@ -22027,7 +21227,6 @@
       <c r="F807" s="4"/>
       <c r="G807" s="4"/>
       <c r="H807" s="4"/>
-      <c r="I807" s="4"/>
       <c r="J807" s="4"/>
       <c r="K807" s="4"/>
       <c r="L807" s="4"/>
@@ -22053,7 +21252,6 @@
       <c r="F808" s="4"/>
       <c r="G808" s="4"/>
       <c r="H808" s="4"/>
-      <c r="I808" s="4"/>
       <c r="J808" s="4"/>
       <c r="K808" s="4"/>
       <c r="L808" s="4"/>
@@ -22079,7 +21277,6 @@
       <c r="F809" s="4"/>
       <c r="G809" s="4"/>
       <c r="H809" s="4"/>
-      <c r="I809" s="4"/>
       <c r="J809" s="4"/>
       <c r="K809" s="4"/>
       <c r="L809" s="4"/>
@@ -22105,7 +21302,6 @@
       <c r="F810" s="4"/>
       <c r="G810" s="4"/>
       <c r="H810" s="4"/>
-      <c r="I810" s="4"/>
       <c r="J810" s="4"/>
       <c r="K810" s="4"/>
       <c r="L810" s="4"/>
@@ -22131,7 +21327,6 @@
       <c r="F811" s="4"/>
       <c r="G811" s="4"/>
       <c r="H811" s="4"/>
-      <c r="I811" s="4"/>
       <c r="J811" s="4"/>
       <c r="K811" s="4"/>
       <c r="L811" s="4"/>
@@ -22157,7 +21352,6 @@
       <c r="F812" s="4"/>
       <c r="G812" s="4"/>
       <c r="H812" s="4"/>
-      <c r="I812" s="4"/>
       <c r="J812" s="4"/>
       <c r="K812" s="4"/>
       <c r="L812" s="4"/>
@@ -22183,7 +21377,6 @@
       <c r="F813" s="4"/>
       <c r="G813" s="4"/>
       <c r="H813" s="4"/>
-      <c r="I813" s="4"/>
       <c r="J813" s="4"/>
       <c r="K813" s="4"/>
       <c r="L813" s="4"/>
@@ -22209,7 +21402,6 @@
       <c r="F814" s="4"/>
       <c r="G814" s="4"/>
       <c r="H814" s="4"/>
-      <c r="I814" s="4"/>
       <c r="J814" s="4"/>
       <c r="K814" s="4"/>
       <c r="L814" s="4"/>
@@ -22235,7 +21427,6 @@
       <c r="F815" s="4"/>
       <c r="G815" s="4"/>
       <c r="H815" s="4"/>
-      <c r="I815" s="4"/>
       <c r="J815" s="4"/>
       <c r="K815" s="4"/>
       <c r="L815" s="4"/>
@@ -22261,7 +21452,6 @@
       <c r="F816" s="4"/>
       <c r="G816" s="4"/>
       <c r="H816" s="4"/>
-      <c r="I816" s="4"/>
       <c r="J816" s="4"/>
       <c r="K816" s="4"/>
       <c r="L816" s="4"/>
@@ -22287,7 +21477,6 @@
       <c r="F817" s="4"/>
       <c r="G817" s="4"/>
       <c r="H817" s="4"/>
-      <c r="I817" s="4"/>
       <c r="J817" s="4"/>
       <c r="K817" s="4"/>
       <c r="L817" s="4"/>
@@ -22313,7 +21502,6 @@
       <c r="F818" s="4"/>
       <c r="G818" s="4"/>
       <c r="H818" s="4"/>
-      <c r="I818" s="4"/>
       <c r="J818" s="4"/>
       <c r="K818" s="4"/>
       <c r="L818" s="4"/>
@@ -22339,7 +21527,6 @@
       <c r="F819" s="4"/>
       <c r="G819" s="4"/>
       <c r="H819" s="4"/>
-      <c r="I819" s="4"/>
       <c r="J819" s="4"/>
       <c r="K819" s="4"/>
       <c r="L819" s="4"/>
@@ -22365,7 +21552,6 @@
       <c r="F820" s="4"/>
       <c r="G820" s="4"/>
       <c r="H820" s="4"/>
-      <c r="I820" s="4"/>
       <c r="J820" s="4"/>
       <c r="K820" s="4"/>
       <c r="L820" s="4"/>
@@ -22391,7 +21577,6 @@
       <c r="F821" s="4"/>
       <c r="G821" s="4"/>
       <c r="H821" s="4"/>
-      <c r="I821" s="4"/>
       <c r="J821" s="4"/>
       <c r="K821" s="4"/>
       <c r="L821" s="4"/>
@@ -22417,7 +21602,6 @@
       <c r="F822" s="4"/>
       <c r="G822" s="4"/>
       <c r="H822" s="4"/>
-      <c r="I822" s="4"/>
       <c r="J822" s="4"/>
       <c r="K822" s="4"/>
       <c r="L822" s="4"/>
@@ -22443,7 +21627,6 @@
       <c r="F823" s="4"/>
       <c r="G823" s="4"/>
       <c r="H823" s="4"/>
-      <c r="I823" s="4"/>
       <c r="J823" s="4"/>
       <c r="K823" s="4"/>
       <c r="L823" s="4"/>
@@ -22469,7 +21652,6 @@
       <c r="F824" s="4"/>
       <c r="G824" s="4"/>
       <c r="H824" s="4"/>
-      <c r="I824" s="4"/>
       <c r="J824" s="4"/>
       <c r="K824" s="4"/>
       <c r="L824" s="4"/>
@@ -22495,7 +21677,6 @@
       <c r="F825" s="4"/>
       <c r="G825" s="4"/>
       <c r="H825" s="4"/>
-      <c r="I825" s="4"/>
       <c r="J825" s="4"/>
       <c r="K825" s="4"/>
       <c r="L825" s="4"/>
@@ -22521,7 +21702,6 @@
       <c r="F826" s="4"/>
       <c r="G826" s="4"/>
       <c r="H826" s="4"/>
-      <c r="I826" s="4"/>
       <c r="J826" s="4"/>
       <c r="K826" s="4"/>
       <c r="L826" s="4"/>
@@ -22547,7 +21727,6 @@
       <c r="F827" s="4"/>
       <c r="G827" s="4"/>
       <c r="H827" s="4"/>
-      <c r="I827" s="4"/>
       <c r="J827" s="4"/>
       <c r="K827" s="4"/>
       <c r="L827" s="4"/>
@@ -22573,7 +21752,6 @@
       <c r="F828" s="4"/>
       <c r="G828" s="4"/>
       <c r="H828" s="4"/>
-      <c r="I828" s="4"/>
       <c r="J828" s="4"/>
       <c r="K828" s="4"/>
       <c r="L828" s="4"/>
@@ -22599,7 +21777,6 @@
       <c r="F829" s="4"/>
       <c r="G829" s="4"/>
       <c r="H829" s="4"/>
-      <c r="I829" s="4"/>
       <c r="J829" s="4"/>
       <c r="K829" s="4"/>
       <c r="L829" s="4"/>
@@ -22625,7 +21802,6 @@
       <c r="F830" s="4"/>
       <c r="G830" s="4"/>
       <c r="H830" s="4"/>
-      <c r="I830" s="4"/>
       <c r="J830" s="4"/>
       <c r="K830" s="4"/>
       <c r="L830" s="4"/>
@@ -22651,7 +21827,6 @@
       <c r="F831" s="4"/>
       <c r="G831" s="4"/>
       <c r="H831" s="4"/>
-      <c r="I831" s="4"/>
       <c r="J831" s="4"/>
       <c r="K831" s="4"/>
       <c r="L831" s="4"/>
@@ -22677,7 +21852,6 @@
       <c r="F832" s="4"/>
       <c r="G832" s="4"/>
       <c r="H832" s="4"/>
-      <c r="I832" s="4"/>
       <c r="J832" s="4"/>
       <c r="K832" s="4"/>
       <c r="L832" s="4"/>
@@ -22703,7 +21877,6 @@
       <c r="F833" s="4"/>
       <c r="G833" s="4"/>
       <c r="H833" s="4"/>
-      <c r="I833" s="4"/>
       <c r="J833" s="4"/>
       <c r="K833" s="4"/>
       <c r="L833" s="4"/>
@@ -22729,7 +21902,6 @@
       <c r="F834" s="4"/>
       <c r="G834" s="4"/>
       <c r="H834" s="4"/>
-      <c r="I834" s="4"/>
       <c r="J834" s="4"/>
       <c r="K834" s="4"/>
       <c r="L834" s="4"/>
@@ -22755,7 +21927,6 @@
       <c r="F835" s="4"/>
       <c r="G835" s="4"/>
       <c r="H835" s="4"/>
-      <c r="I835" s="4"/>
       <c r="J835" s="4"/>
       <c r="K835" s="4"/>
       <c r="L835" s="4"/>
@@ -22781,7 +21952,6 @@
       <c r="F836" s="4"/>
       <c r="G836" s="4"/>
       <c r="H836" s="4"/>
-      <c r="I836" s="4"/>
       <c r="J836" s="4"/>
       <c r="K836" s="4"/>
       <c r="L836" s="4"/>
@@ -22807,7 +21977,6 @@
       <c r="F837" s="4"/>
       <c r="G837" s="4"/>
       <c r="H837" s="4"/>
-      <c r="I837" s="4"/>
       <c r="J837" s="4"/>
       <c r="K837" s="4"/>
       <c r="L837" s="4"/>
@@ -22833,7 +22002,6 @@
       <c r="F838" s="4"/>
       <c r="G838" s="4"/>
       <c r="H838" s="4"/>
-      <c r="I838" s="4"/>
       <c r="J838" s="4"/>
       <c r="K838" s="4"/>
       <c r="L838" s="4"/>
@@ -22859,7 +22027,6 @@
       <c r="F839" s="4"/>
       <c r="G839" s="4"/>
       <c r="H839" s="4"/>
-      <c r="I839" s="4"/>
       <c r="J839" s="4"/>
       <c r="K839" s="4"/>
       <c r="L839" s="4"/>
@@ -22885,7 +22052,6 @@
       <c r="F840" s="4"/>
       <c r="G840" s="4"/>
       <c r="H840" s="4"/>
-      <c r="I840" s="4"/>
       <c r="J840" s="4"/>
       <c r="K840" s="4"/>
       <c r="L840" s="4"/>
@@ -22911,7 +22077,6 @@
       <c r="F841" s="4"/>
       <c r="G841" s="4"/>
       <c r="H841" s="4"/>
-      <c r="I841" s="4"/>
       <c r="J841" s="4"/>
       <c r="K841" s="4"/>
       <c r="L841" s="4"/>
@@ -22937,7 +22102,6 @@
       <c r="F842" s="4"/>
       <c r="G842" s="4"/>
       <c r="H842" s="4"/>
-      <c r="I842" s="4"/>
       <c r="J842" s="4"/>
       <c r="K842" s="4"/>
       <c r="L842" s="4"/>
@@ -22963,7 +22127,6 @@
       <c r="F843" s="4"/>
       <c r="G843" s="4"/>
       <c r="H843" s="4"/>
-      <c r="I843" s="4"/>
       <c r="J843" s="4"/>
       <c r="K843" s="4"/>
       <c r="L843" s="4"/>
@@ -22989,7 +22152,6 @@
       <c r="F844" s="4"/>
       <c r="G844" s="4"/>
       <c r="H844" s="4"/>
-      <c r="I844" s="4"/>
       <c r="J844" s="4"/>
       <c r="K844" s="4"/>
       <c r="L844" s="4"/>
@@ -23015,7 +22177,6 @@
       <c r="F845" s="4"/>
       <c r="G845" s="4"/>
       <c r="H845" s="4"/>
-      <c r="I845" s="4"/>
       <c r="J845" s="4"/>
       <c r="K845" s="4"/>
       <c r="L845" s="4"/>
@@ -23041,7 +22202,6 @@
       <c r="F846" s="4"/>
       <c r="G846" s="4"/>
       <c r="H846" s="4"/>
-      <c r="I846" s="4"/>
       <c r="J846" s="4"/>
       <c r="K846" s="4"/>
       <c r="L846" s="4"/>
@@ -23067,7 +22227,6 @@
       <c r="F847" s="4"/>
       <c r="G847" s="4"/>
       <c r="H847" s="4"/>
-      <c r="I847" s="4"/>
       <c r="J847" s="4"/>
       <c r="K847" s="4"/>
       <c r="L847" s="4"/>
@@ -23093,7 +22252,6 @@
       <c r="F848" s="4"/>
       <c r="G848" s="4"/>
       <c r="H848" s="4"/>
-      <c r="I848" s="4"/>
       <c r="J848" s="4"/>
       <c r="K848" s="4"/>
       <c r="L848" s="4"/>
@@ -23119,7 +22277,6 @@
       <c r="F849" s="4"/>
       <c r="G849" s="4"/>
       <c r="H849" s="4"/>
-      <c r="I849" s="4"/>
       <c r="J849" s="4"/>
       <c r="K849" s="4"/>
       <c r="L849" s="4"/>
@@ -23145,7 +22302,6 @@
       <c r="F850" s="4"/>
       <c r="G850" s="4"/>
       <c r="H850" s="4"/>
-      <c r="I850" s="4"/>
       <c r="J850" s="4"/>
       <c r="K850" s="4"/>
       <c r="L850" s="4"/>
@@ -23171,7 +22327,6 @@
       <c r="F851" s="4"/>
       <c r="G851" s="4"/>
       <c r="H851" s="4"/>
-      <c r="I851" s="4"/>
       <c r="J851" s="4"/>
       <c r="K851" s="4"/>
       <c r="L851" s="4"/>
@@ -23197,7 +22352,6 @@
       <c r="F852" s="4"/>
       <c r="G852" s="4"/>
       <c r="H852" s="4"/>
-      <c r="I852" s="4"/>
       <c r="J852" s="4"/>
       <c r="K852" s="4"/>
       <c r="L852" s="4"/>
@@ -23223,7 +22377,6 @@
       <c r="F853" s="4"/>
       <c r="G853" s="4"/>
       <c r="H853" s="4"/>
-      <c r="I853" s="4"/>
       <c r="J853" s="4"/>
       <c r="K853" s="4"/>
       <c r="L853" s="4"/>
@@ -23249,7 +22402,6 @@
       <c r="F854" s="4"/>
       <c r="G854" s="4"/>
       <c r="H854" s="4"/>
-      <c r="I854" s="4"/>
       <c r="J854" s="4"/>
       <c r="K854" s="4"/>
       <c r="L854" s="4"/>
@@ -23275,7 +22427,6 @@
       <c r="F855" s="4"/>
       <c r="G855" s="4"/>
       <c r="H855" s="4"/>
-      <c r="I855" s="4"/>
       <c r="J855" s="4"/>
       <c r="K855" s="4"/>
       <c r="L855" s="4"/>
@@ -23301,7 +22452,6 @@
       <c r="F856" s="4"/>
       <c r="G856" s="4"/>
       <c r="H856" s="4"/>
-      <c r="I856" s="4"/>
       <c r="J856" s="4"/>
       <c r="K856" s="4"/>
       <c r="L856" s="4"/>
@@ -23327,7 +22477,6 @@
       <c r="F857" s="4"/>
       <c r="G857" s="4"/>
       <c r="H857" s="4"/>
-      <c r="I857" s="4"/>
       <c r="J857" s="4"/>
       <c r="K857" s="4"/>
       <c r="L857" s="4"/>
@@ -23353,7 +22502,6 @@
       <c r="F858" s="4"/>
       <c r="G858" s="4"/>
       <c r="H858" s="4"/>
-      <c r="I858" s="4"/>
       <c r="J858" s="4"/>
       <c r="K858" s="4"/>
       <c r="L858" s="4"/>
@@ -23379,7 +22527,6 @@
       <c r="F859" s="4"/>
       <c r="G859" s="4"/>
       <c r="H859" s="4"/>
-      <c r="I859" s="4"/>
       <c r="J859" s="4"/>
       <c r="K859" s="4"/>
       <c r="L859" s="4"/>
@@ -23405,7 +22552,6 @@
       <c r="F860" s="4"/>
       <c r="G860" s="4"/>
       <c r="H860" s="4"/>
-      <c r="I860" s="4"/>
       <c r="J860" s="4"/>
       <c r="K860" s="4"/>
       <c r="L860" s="4"/>
@@ -23431,7 +22577,6 @@
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
       <c r="H861" s="4"/>
-      <c r="I861" s="4"/>
       <c r="J861" s="4"/>
       <c r="K861" s="4"/>
       <c r="L861" s="4"/>
@@ -23457,7 +22602,6 @@
       <c r="F862" s="4"/>
       <c r="G862" s="4"/>
       <c r="H862" s="4"/>
-      <c r="I862" s="4"/>
       <c r="J862" s="4"/>
       <c r="K862" s="4"/>
       <c r="L862" s="4"/>
@@ -23483,7 +22627,6 @@
       <c r="F863" s="4"/>
       <c r="G863" s="4"/>
       <c r="H863" s="4"/>
-      <c r="I863" s="4"/>
       <c r="J863" s="4"/>
       <c r="K863" s="4"/>
       <c r="L863" s="4"/>
@@ -23509,7 +22652,6 @@
       <c r="F864" s="4"/>
       <c r="G864" s="4"/>
       <c r="H864" s="4"/>
-      <c r="I864" s="4"/>
       <c r="J864" s="4"/>
       <c r="K864" s="4"/>
       <c r="L864" s="4"/>
@@ -23535,7 +22677,6 @@
       <c r="F865" s="4"/>
       <c r="G865" s="4"/>
       <c r="H865" s="4"/>
-      <c r="I865" s="4"/>
       <c r="J865" s="4"/>
       <c r="K865" s="4"/>
       <c r="L865" s="4"/>
@@ -23561,7 +22702,6 @@
       <c r="F866" s="4"/>
       <c r="G866" s="4"/>
       <c r="H866" s="4"/>
-      <c r="I866" s="4"/>
       <c r="J866" s="4"/>
       <c r="K866" s="4"/>
       <c r="L866" s="4"/>
@@ -23587,7 +22727,6 @@
       <c r="F867" s="4"/>
       <c r="G867" s="4"/>
       <c r="H867" s="4"/>
-      <c r="I867" s="4"/>
       <c r="J867" s="4"/>
       <c r="K867" s="4"/>
       <c r="L867" s="4"/>
@@ -23613,7 +22752,6 @@
       <c r="F868" s="4"/>
       <c r="G868" s="4"/>
       <c r="H868" s="4"/>
-      <c r="I868" s="4"/>
       <c r="J868" s="4"/>
       <c r="K868" s="4"/>
       <c r="L868" s="4"/>
@@ -23639,7 +22777,6 @@
       <c r="F869" s="4"/>
       <c r="G869" s="4"/>
       <c r="H869" s="4"/>
-      <c r="I869" s="4"/>
       <c r="J869" s="4"/>
       <c r="K869" s="4"/>
       <c r="L869" s="4"/>
@@ -23665,7 +22802,6 @@
       <c r="F870" s="4"/>
       <c r="G870" s="4"/>
       <c r="H870" s="4"/>
-      <c r="I870" s="4"/>
       <c r="J870" s="4"/>
       <c r="K870" s="4"/>
       <c r="L870" s="4"/>
@@ -23691,7 +22827,6 @@
       <c r="F871" s="4"/>
       <c r="G871" s="4"/>
       <c r="H871" s="4"/>
-      <c r="I871" s="4"/>
       <c r="J871" s="4"/>
       <c r="K871" s="4"/>
       <c r="L871" s="4"/>
@@ -23717,7 +22852,6 @@
       <c r="F872" s="4"/>
       <c r="G872" s="4"/>
       <c r="H872" s="4"/>
-      <c r="I872" s="4"/>
       <c r="J872" s="4"/>
       <c r="K872" s="4"/>
       <c r="L872" s="4"/>
@@ -23743,7 +22877,6 @@
       <c r="F873" s="4"/>
       <c r="G873" s="4"/>
       <c r="H873" s="4"/>
-      <c r="I873" s="4"/>
       <c r="J873" s="4"/>
       <c r="K873" s="4"/>
       <c r="L873" s="4"/>
@@ -23769,7 +22902,6 @@
       <c r="F874" s="4"/>
       <c r="G874" s="4"/>
       <c r="H874" s="4"/>
-      <c r="I874" s="4"/>
       <c r="J874" s="4"/>
       <c r="K874" s="4"/>
       <c r="L874" s="4"/>
@@ -23795,7 +22927,6 @@
       <c r="F875" s="4"/>
       <c r="G875" s="4"/>
       <c r="H875" s="4"/>
-      <c r="I875" s="4"/>
       <c r="J875" s="4"/>
       <c r="K875" s="4"/>
       <c r="L875" s="4"/>
@@ -23821,7 +22952,6 @@
       <c r="F876" s="4"/>
       <c r="G876" s="4"/>
       <c r="H876" s="4"/>
-      <c r="I876" s="4"/>
       <c r="J876" s="4"/>
       <c r="K876" s="4"/>
       <c r="L876" s="4"/>
@@ -23847,7 +22977,6 @@
       <c r="F877" s="4"/>
       <c r="G877" s="4"/>
       <c r="H877" s="4"/>
-      <c r="I877" s="4"/>
       <c r="J877" s="4"/>
       <c r="K877" s="4"/>
       <c r="L877" s="4"/>
@@ -23873,7 +23002,6 @@
       <c r="F878" s="4"/>
       <c r="G878" s="4"/>
       <c r="H878" s="4"/>
-      <c r="I878" s="4"/>
       <c r="J878" s="4"/>
       <c r="K878" s="4"/>
       <c r="L878" s="4"/>
@@ -23899,7 +23027,6 @@
       <c r="F879" s="4"/>
       <c r="G879" s="4"/>
       <c r="H879" s="4"/>
-      <c r="I879" s="4"/>
       <c r="J879" s="4"/>
       <c r="K879" s="4"/>
       <c r="L879" s="4"/>
@@ -23925,7 +23052,6 @@
       <c r="F880" s="4"/>
       <c r="G880" s="4"/>
       <c r="H880" s="4"/>
-      <c r="I880" s="4"/>
       <c r="J880" s="4"/>
       <c r="K880" s="4"/>
       <c r="L880" s="4"/>
@@ -23951,7 +23077,6 @@
       <c r="F881" s="4"/>
       <c r="G881" s="4"/>
       <c r="H881" s="4"/>
-      <c r="I881" s="4"/>
       <c r="J881" s="4"/>
       <c r="K881" s="4"/>
       <c r="L881" s="4"/>
@@ -23977,7 +23102,6 @@
       <c r="F882" s="4"/>
       <c r="G882" s="4"/>
       <c r="H882" s="4"/>
-      <c r="I882" s="4"/>
       <c r="J882" s="4"/>
       <c r="K882" s="4"/>
       <c r="L882" s="4"/>
@@ -24003,7 +23127,6 @@
       <c r="F883" s="4"/>
       <c r="G883" s="4"/>
       <c r="H883" s="4"/>
-      <c r="I883" s="4"/>
       <c r="J883" s="4"/>
       <c r="K883" s="4"/>
       <c r="L883" s="4"/>
@@ -24029,7 +23152,6 @@
       <c r="F884" s="4"/>
       <c r="G884" s="4"/>
       <c r="H884" s="4"/>
-      <c r="I884" s="4"/>
       <c r="J884" s="4"/>
       <c r="K884" s="4"/>
       <c r="L884" s="4"/>
@@ -24055,7 +23177,6 @@
       <c r="F885" s="4"/>
       <c r="G885" s="4"/>
       <c r="H885" s="4"/>
-      <c r="I885" s="4"/>
       <c r="J885" s="4"/>
       <c r="K885" s="4"/>
       <c r="L885" s="4"/>
@@ -24081,7 +23202,6 @@
       <c r="F886" s="4"/>
       <c r="G886" s="4"/>
       <c r="H886" s="4"/>
-      <c r="I886" s="4"/>
       <c r="J886" s="4"/>
       <c r="K886" s="4"/>
       <c r="L886" s="4"/>
@@ -24107,7 +23227,6 @@
       <c r="F887" s="4"/>
       <c r="G887" s="4"/>
       <c r="H887" s="4"/>
-      <c r="I887" s="4"/>
       <c r="J887" s="4"/>
       <c r="K887" s="4"/>
       <c r="L887" s="4"/>
@@ -24133,7 +23252,6 @@
       <c r="F888" s="4"/>
       <c r="G888" s="4"/>
       <c r="H888" s="4"/>
-      <c r="I888" s="4"/>
       <c r="J888" s="4"/>
       <c r="K888" s="4"/>
       <c r="L888" s="4"/>
@@ -24159,7 +23277,6 @@
       <c r="F889" s="4"/>
       <c r="G889" s="4"/>
       <c r="H889" s="4"/>
-      <c r="I889" s="4"/>
       <c r="J889" s="4"/>
       <c r="K889" s="4"/>
       <c r="L889" s="4"/>
@@ -24185,7 +23302,6 @@
       <c r="F890" s="4"/>
       <c r="G890" s="4"/>
       <c r="H890" s="4"/>
-      <c r="I890" s="4"/>
       <c r="J890" s="4"/>
       <c r="K890" s="4"/>
       <c r="L890" s="4"/>
@@ -24211,7 +23327,6 @@
       <c r="F891" s="4"/>
       <c r="G891" s="4"/>
       <c r="H891" s="4"/>
-      <c r="I891" s="4"/>
       <c r="J891" s="4"/>
       <c r="K891" s="4"/>
       <c r="L891" s="4"/>
@@ -24237,7 +23352,6 @@
       <c r="F892" s="4"/>
       <c r="G892" s="4"/>
       <c r="H892" s="4"/>
-      <c r="I892" s="4"/>
       <c r="J892" s="4"/>
       <c r="K892" s="4"/>
       <c r="L892" s="4"/>
@@ -24263,7 +23377,6 @@
       <c r="F893" s="4"/>
       <c r="G893" s="4"/>
       <c r="H893" s="4"/>
-      <c r="I893" s="4"/>
       <c r="J893" s="4"/>
       <c r="K893" s="4"/>
       <c r="L893" s="4"/>
@@ -24289,7 +23402,6 @@
       <c r="F894" s="4"/>
       <c r="G894" s="4"/>
       <c r="H894" s="4"/>
-      <c r="I894" s="4"/>
       <c r="J894" s="4"/>
       <c r="K894" s="4"/>
       <c r="L894" s="4"/>
@@ -24315,7 +23427,6 @@
       <c r="F895" s="4"/>
       <c r="G895" s="4"/>
       <c r="H895" s="4"/>
-      <c r="I895" s="4"/>
       <c r="J895" s="4"/>
       <c r="K895" s="4"/>
       <c r="L895" s="4"/>
@@ -24341,7 +23452,6 @@
       <c r="F896" s="4"/>
       <c r="G896" s="4"/>
       <c r="H896" s="4"/>
-      <c r="I896" s="4"/>
       <c r="J896" s="4"/>
       <c r="K896" s="4"/>
       <c r="L896" s="4"/>
@@ -24367,7 +23477,6 @@
       <c r="F897" s="4"/>
       <c r="G897" s="4"/>
       <c r="H897" s="4"/>
-      <c r="I897" s="4"/>
       <c r="J897" s="4"/>
       <c r="K897" s="4"/>
       <c r="L897" s="4"/>
@@ -24393,7 +23502,6 @@
       <c r="F898" s="4"/>
       <c r="G898" s="4"/>
       <c r="H898" s="4"/>
-      <c r="I898" s="4"/>
       <c r="J898" s="4"/>
       <c r="K898" s="4"/>
       <c r="L898" s="4"/>
@@ -24419,7 +23527,6 @@
       <c r="F899" s="4"/>
       <c r="G899" s="4"/>
       <c r="H899" s="4"/>
-      <c r="I899" s="4"/>
       <c r="J899" s="4"/>
       <c r="K899" s="4"/>
       <c r="L899" s="4"/>
@@ -24445,7 +23552,6 @@
       <c r="F900" s="4"/>
       <c r="G900" s="4"/>
       <c r="H900" s="4"/>
-      <c r="I900" s="4"/>
       <c r="J900" s="4"/>
       <c r="K900" s="4"/>
       <c r="L900" s="4"/>
@@ -24471,7 +23577,6 @@
       <c r="F901" s="4"/>
       <c r="G901" s="4"/>
       <c r="H901" s="4"/>
-      <c r="I901" s="4"/>
       <c r="J901" s="4"/>
       <c r="K901" s="4"/>
       <c r="L901" s="4"/>
@@ -24497,7 +23602,6 @@
       <c r="F902" s="4"/>
       <c r="G902" s="4"/>
       <c r="H902" s="4"/>
-      <c r="I902" s="4"/>
       <c r="J902" s="4"/>
       <c r="K902" s="4"/>
       <c r="L902" s="4"/>
@@ -24523,7 +23627,6 @@
       <c r="F903" s="4"/>
       <c r="G903" s="4"/>
       <c r="H903" s="4"/>
-      <c r="I903" s="4"/>
       <c r="J903" s="4"/>
       <c r="K903" s="4"/>
       <c r="L903" s="4"/>
@@ -24549,7 +23652,6 @@
       <c r="F904" s="4"/>
       <c r="G904" s="4"/>
       <c r="H904" s="4"/>
-      <c r="I904" s="4"/>
       <c r="J904" s="4"/>
       <c r="K904" s="4"/>
       <c r="L904" s="4"/>
@@ -24575,7 +23677,6 @@
       <c r="F905" s="4"/>
       <c r="G905" s="4"/>
       <c r="H905" s="4"/>
-      <c r="I905" s="4"/>
       <c r="J905" s="4"/>
       <c r="K905" s="4"/>
       <c r="L905" s="4"/>
@@ -24601,7 +23702,6 @@
       <c r="F906" s="4"/>
       <c r="G906" s="4"/>
       <c r="H906" s="4"/>
-      <c r="I906" s="4"/>
       <c r="J906" s="4"/>
       <c r="K906" s="4"/>
       <c r="L906" s="4"/>
@@ -24627,7 +23727,6 @@
       <c r="F907" s="4"/>
       <c r="G907" s="4"/>
       <c r="H907" s="4"/>
-      <c r="I907" s="4"/>
       <c r="J907" s="4"/>
       <c r="K907" s="4"/>
       <c r="L907" s="4"/>
@@ -24653,7 +23752,6 @@
       <c r="F908" s="4"/>
       <c r="G908" s="4"/>
       <c r="H908" s="4"/>
-      <c r="I908" s="4"/>
       <c r="J908" s="4"/>
       <c r="K908" s="4"/>
       <c r="L908" s="4"/>
@@ -24679,7 +23777,6 @@
       <c r="F909" s="4"/>
       <c r="G909" s="4"/>
       <c r="H909" s="4"/>
-      <c r="I909" s="4"/>
       <c r="J909" s="4"/>
       <c r="K909" s="4"/>
       <c r="L909" s="4"/>
@@ -24705,7 +23802,6 @@
       <c r="F910" s="4"/>
       <c r="G910" s="4"/>
       <c r="H910" s="4"/>
-      <c r="I910" s="4"/>
       <c r="J910" s="4"/>
       <c r="K910" s="4"/>
       <c r="L910" s="4"/>
@@ -24731,7 +23827,6 @@
       <c r="F911" s="4"/>
       <c r="G911" s="4"/>
       <c r="H911" s="4"/>
-      <c r="I911" s="4"/>
       <c r="J911" s="4"/>
       <c r="K911" s="4"/>
       <c r="L911" s="4"/>
@@ -24757,7 +23852,6 @@
       <c r="F912" s="4"/>
       <c r="G912" s="4"/>
       <c r="H912" s="4"/>
-      <c r="I912" s="4"/>
       <c r="J912" s="4"/>
       <c r="K912" s="4"/>
       <c r="L912" s="4"/>
@@ -24783,7 +23877,6 @@
       <c r="F913" s="4"/>
       <c r="G913" s="4"/>
       <c r="H913" s="4"/>
-      <c r="I913" s="4"/>
       <c r="J913" s="4"/>
       <c r="K913" s="4"/>
       <c r="L913" s="4"/>
@@ -24809,7 +23902,6 @@
       <c r="F914" s="4"/>
       <c r="G914" s="4"/>
       <c r="H914" s="4"/>
-      <c r="I914" s="4"/>
       <c r="J914" s="4"/>
       <c r="K914" s="4"/>
       <c r="L914" s="4"/>
@@ -24835,7 +23927,6 @@
       <c r="F915" s="4"/>
       <c r="G915" s="4"/>
       <c r="H915" s="4"/>
-      <c r="I915" s="4"/>
       <c r="J915" s="4"/>
       <c r="K915" s="4"/>
       <c r="L915" s="4"/>
@@ -24861,7 +23952,6 @@
       <c r="F916" s="4"/>
       <c r="G916" s="4"/>
       <c r="H916" s="4"/>
-      <c r="I916" s="4"/>
       <c r="J916" s="4"/>
       <c r="K916" s="4"/>
       <c r="L916" s="4"/>
@@ -24887,7 +23977,6 @@
       <c r="F917" s="4"/>
       <c r="G917" s="4"/>
       <c r="H917" s="4"/>
-      <c r="I917" s="4"/>
       <c r="J917" s="4"/>
       <c r="K917" s="4"/>
       <c r="L917" s="4"/>
@@ -24913,7 +24002,6 @@
       <c r="F918" s="4"/>
       <c r="G918" s="4"/>
       <c r="H918" s="4"/>
-      <c r="I918" s="4"/>
       <c r="J918" s="4"/>
       <c r="K918" s="4"/>
       <c r="L918" s="4"/>
@@ -24939,7 +24027,6 @@
       <c r="F919" s="4"/>
       <c r="G919" s="4"/>
       <c r="H919" s="4"/>
-      <c r="I919" s="4"/>
       <c r="J919" s="4"/>
       <c r="K919" s="4"/>
       <c r="L919" s="4"/>
@@ -24965,7 +24052,6 @@
       <c r="F920" s="4"/>
       <c r="G920" s="4"/>
       <c r="H920" s="4"/>
-      <c r="I920" s="4"/>
       <c r="J920" s="4"/>
       <c r="K920" s="4"/>
       <c r="L920" s="4"/>
@@ -24991,7 +24077,6 @@
       <c r="F921" s="4"/>
       <c r="G921" s="4"/>
       <c r="H921" s="4"/>
-      <c r="I921" s="4"/>
       <c r="J921" s="4"/>
       <c r="K921" s="4"/>
       <c r="L921" s="4"/>
@@ -25017,7 +24102,6 @@
       <c r="F922" s="4"/>
       <c r="G922" s="4"/>
       <c r="H922" s="4"/>
-      <c r="I922" s="4"/>
       <c r="J922" s="4"/>
       <c r="K922" s="4"/>
       <c r="L922" s="4"/>
@@ -25043,7 +24127,6 @@
       <c r="F923" s="4"/>
       <c r="G923" s="4"/>
       <c r="H923" s="4"/>
-      <c r="I923" s="4"/>
       <c r="J923" s="4"/>
       <c r="K923" s="4"/>
       <c r="L923" s="4"/>
@@ -25069,7 +24152,6 @@
       <c r="F924" s="4"/>
       <c r="G924" s="4"/>
       <c r="H924" s="4"/>
-      <c r="I924" s="4"/>
       <c r="J924" s="4"/>
       <c r="K924" s="4"/>
       <c r="L924" s="4"/>
@@ -25095,7 +24177,6 @@
       <c r="F925" s="4"/>
       <c r="G925" s="4"/>
       <c r="H925" s="4"/>
-      <c r="I925" s="4"/>
       <c r="J925" s="4"/>
       <c r="K925" s="4"/>
       <c r="L925" s="4"/>
@@ -25121,7 +24202,6 @@
       <c r="F926" s="4"/>
       <c r="G926" s="4"/>
       <c r="H926" s="4"/>
-      <c r="I926" s="4"/>
       <c r="J926" s="4"/>
       <c r="K926" s="4"/>
       <c r="L926" s="4"/>
@@ -25147,7 +24227,6 @@
       <c r="F927" s="4"/>
       <c r="G927" s="4"/>
       <c r="H927" s="4"/>
-      <c r="I927" s="4"/>
       <c r="J927" s="4"/>
       <c r="K927" s="4"/>
       <c r="L927" s="4"/>
@@ -25173,7 +24252,6 @@
       <c r="F928" s="4"/>
       <c r="G928" s="4"/>
       <c r="H928" s="4"/>
-      <c r="I928" s="4"/>
       <c r="J928" s="4"/>
       <c r="K928" s="4"/>
       <c r="L928" s="4"/>
@@ -25199,7 +24277,6 @@
       <c r="F929" s="4"/>
       <c r="G929" s="4"/>
       <c r="H929" s="4"/>
-      <c r="I929" s="4"/>
       <c r="J929" s="4"/>
       <c r="K929" s="4"/>
       <c r="L929" s="4"/>
@@ -25225,7 +24302,6 @@
       <c r="F930" s="4"/>
       <c r="G930" s="4"/>
       <c r="H930" s="4"/>
-      <c r="I930" s="4"/>
       <c r="J930" s="4"/>
       <c r="K930" s="4"/>
       <c r="L930" s="4"/>
@@ -25251,7 +24327,6 @@
       <c r="F931" s="4"/>
       <c r="G931" s="4"/>
       <c r="H931" s="4"/>
-      <c r="I931" s="4"/>
       <c r="J931" s="4"/>
       <c r="K931" s="4"/>
       <c r="L931" s="4"/>
@@ -25277,7 +24352,6 @@
       <c r="F932" s="4"/>
       <c r="G932" s="4"/>
       <c r="H932" s="4"/>
-      <c r="I932" s="4"/>
       <c r="J932" s="4"/>
       <c r="K932" s="4"/>
       <c r="L932" s="4"/>
@@ -25303,7 +24377,6 @@
       <c r="F933" s="4"/>
       <c r="G933" s="4"/>
       <c r="H933" s="4"/>
-      <c r="I933" s="4"/>
       <c r="J933" s="4"/>
       <c r="K933" s="4"/>
       <c r="L933" s="4"/>
@@ -25329,7 +24402,6 @@
       <c r="F934" s="4"/>
       <c r="G934" s="4"/>
       <c r="H934" s="4"/>
-      <c r="I934" s="4"/>
       <c r="J934" s="4"/>
       <c r="K934" s="4"/>
       <c r="L934" s="4"/>
@@ -25355,7 +24427,6 @@
       <c r="F935" s="4"/>
       <c r="G935" s="4"/>
       <c r="H935" s="4"/>
-      <c r="I935" s="4"/>
       <c r="J935" s="4"/>
       <c r="K935" s="4"/>
       <c r="L935" s="4"/>
@@ -25381,7 +24452,6 @@
       <c r="F936" s="4"/>
       <c r="G936" s="4"/>
       <c r="H936" s="4"/>
-      <c r="I936" s="4"/>
       <c r="J936" s="4"/>
       <c r="K936" s="4"/>
       <c r="L936" s="4"/>
@@ -25407,7 +24477,6 @@
       <c r="F937" s="4"/>
       <c r="G937" s="4"/>
       <c r="H937" s="4"/>
-      <c r="I937" s="4"/>
       <c r="J937" s="4"/>
       <c r="K937" s="4"/>
       <c r="L937" s="4"/>
@@ -25433,7 +24502,6 @@
       <c r="F938" s="4"/>
       <c r="G938" s="4"/>
       <c r="H938" s="4"/>
-      <c r="I938" s="4"/>
       <c r="J938" s="4"/>
       <c r="K938" s="4"/>
       <c r="L938" s="4"/>
@@ -25459,7 +24527,6 @@
       <c r="F939" s="4"/>
       <c r="G939" s="4"/>
       <c r="H939" s="4"/>
-      <c r="I939" s="4"/>
       <c r="J939" s="4"/>
       <c r="K939" s="4"/>
       <c r="L939" s="4"/>
@@ -25485,7 +24552,6 @@
       <c r="F940" s="4"/>
       <c r="G940" s="4"/>
       <c r="H940" s="4"/>
-      <c r="I940" s="4"/>
       <c r="J940" s="4"/>
       <c r="K940" s="4"/>
       <c r="L940" s="4"/>
@@ -25511,7 +24577,6 @@
       <c r="F941" s="4"/>
       <c r="G941" s="4"/>
       <c r="H941" s="4"/>
-      <c r="I941" s="4"/>
       <c r="J941" s="4"/>
       <c r="K941" s="4"/>
       <c r="L941" s="4"/>
@@ -25537,7 +24602,6 @@
       <c r="F942" s="4"/>
       <c r="G942" s="4"/>
       <c r="H942" s="4"/>
-      <c r="I942" s="4"/>
       <c r="J942" s="4"/>
       <c r="K942" s="4"/>
       <c r="L942" s="4"/>
@@ -25563,7 +24627,6 @@
       <c r="F943" s="4"/>
       <c r="G943" s="4"/>
       <c r="H943" s="4"/>
-      <c r="I943" s="4"/>
       <c r="J943" s="4"/>
       <c r="K943" s="4"/>
       <c r="L943" s="4"/>
@@ -25589,7 +24652,6 @@
       <c r="F944" s="4"/>
       <c r="G944" s="4"/>
       <c r="H944" s="4"/>
-      <c r="I944" s="4"/>
       <c r="J944" s="4"/>
       <c r="K944" s="4"/>
       <c r="L944" s="4"/>
@@ -25615,7 +24677,6 @@
       <c r="F945" s="4"/>
       <c r="G945" s="4"/>
       <c r="H945" s="4"/>
-      <c r="I945" s="4"/>
       <c r="J945" s="4"/>
       <c r="K945" s="4"/>
       <c r="L945" s="4"/>
@@ -25641,7 +24702,6 @@
       <c r="F946" s="4"/>
       <c r="G946" s="4"/>
       <c r="H946" s="4"/>
-      <c r="I946" s="4"/>
       <c r="J946" s="4"/>
       <c r="K946" s="4"/>
       <c r="L946" s="4"/>
@@ -25667,7 +24727,6 @@
       <c r="F947" s="4"/>
       <c r="G947" s="4"/>
       <c r="H947" s="4"/>
-      <c r="I947" s="4"/>
       <c r="J947" s="4"/>
       <c r="K947" s="4"/>
       <c r="L947" s="4"/>
@@ -25693,7 +24752,6 @@
       <c r="F948" s="4"/>
       <c r="G948" s="4"/>
       <c r="H948" s="4"/>
-      <c r="I948" s="4"/>
       <c r="J948" s="4"/>
       <c r="K948" s="4"/>
       <c r="L948" s="4"/>
@@ -25719,7 +24777,6 @@
       <c r="F949" s="4"/>
       <c r="G949" s="4"/>
       <c r="H949" s="4"/>
-      <c r="I949" s="4"/>
       <c r="J949" s="4"/>
       <c r="K949" s="4"/>
       <c r="L949" s="4"/>
@@ -25745,7 +24802,6 @@
       <c r="F950" s="4"/>
       <c r="G950" s="4"/>
       <c r="H950" s="4"/>
-      <c r="I950" s="4"/>
       <c r="J950" s="4"/>
       <c r="K950" s="4"/>
       <c r="L950" s="4"/>
@@ -25771,7 +24827,6 @@
       <c r="F951" s="4"/>
       <c r="G951" s="4"/>
       <c r="H951" s="4"/>
-      <c r="I951" s="4"/>
       <c r="J951" s="4"/>
       <c r="K951" s="4"/>
       <c r="L951" s="4"/>
@@ -25797,7 +24852,6 @@
       <c r="F952" s="4"/>
       <c r="G952" s="4"/>
       <c r="H952" s="4"/>
-      <c r="I952" s="4"/>
       <c r="J952" s="4"/>
       <c r="K952" s="4"/>
       <c r="L952" s="4"/>
@@ -25823,7 +24877,6 @@
       <c r="F953" s="4"/>
       <c r="G953" s="4"/>
       <c r="H953" s="4"/>
-      <c r="I953" s="4"/>
       <c r="J953" s="4"/>
       <c r="K953" s="4"/>
       <c r="L953" s="4"/>
@@ -25849,7 +24902,6 @@
       <c r="F954" s="4"/>
       <c r="G954" s="4"/>
       <c r="H954" s="4"/>
-      <c r="I954" s="4"/>
       <c r="J954" s="4"/>
       <c r="K954" s="4"/>
       <c r="L954" s="4"/>
@@ -25875,7 +24927,6 @@
       <c r="F955" s="4"/>
       <c r="G955" s="4"/>
       <c r="H955" s="4"/>
-      <c r="I955" s="4"/>
       <c r="J955" s="4"/>
       <c r="K955" s="4"/>
       <c r="L955" s="4"/>
@@ -25901,7 +24952,6 @@
       <c r="F956" s="4"/>
       <c r="G956" s="4"/>
       <c r="H956" s="4"/>
-      <c r="I956" s="4"/>
       <c r="J956" s="4"/>
       <c r="K956" s="4"/>
       <c r="L956" s="4"/>
@@ -25927,7 +24977,6 @@
       <c r="F957" s="4"/>
       <c r="G957" s="4"/>
       <c r="H957" s="4"/>
-      <c r="I957" s="4"/>
       <c r="J957" s="4"/>
       <c r="K957" s="4"/>
       <c r="L957" s="4"/>
@@ -25953,7 +25002,6 @@
       <c r="F958" s="4"/>
       <c r="G958" s="4"/>
       <c r="H958" s="4"/>
-      <c r="I958" s="4"/>
       <c r="J958" s="4"/>
       <c r="K958" s="4"/>
       <c r="L958" s="4"/>
@@ -25979,7 +25027,6 @@
       <c r="F959" s="4"/>
       <c r="G959" s="4"/>
       <c r="H959" s="4"/>
-      <c r="I959" s="4"/>
       <c r="J959" s="4"/>
       <c r="K959" s="4"/>
       <c r="L959" s="4"/>
@@ -26005,7 +25052,6 @@
       <c r="F960" s="4"/>
       <c r="G960" s="4"/>
       <c r="H960" s="4"/>
-      <c r="I960" s="4"/>
       <c r="J960" s="4"/>
       <c r="K960" s="4"/>
       <c r="L960" s="4"/>
@@ -26031,7 +25077,6 @@
       <c r="F961" s="4"/>
       <c r="G961" s="4"/>
       <c r="H961" s="4"/>
-      <c r="I961" s="4"/>
       <c r="J961" s="4"/>
       <c r="K961" s="4"/>
       <c r="L961" s="4"/>
@@ -26057,7 +25102,6 @@
       <c r="F962" s="4"/>
       <c r="G962" s="4"/>
       <c r="H962" s="4"/>
-      <c r="I962" s="4"/>
       <c r="J962" s="4"/>
       <c r="K962" s="4"/>
       <c r="L962" s="4"/>
@@ -26083,7 +25127,6 @@
       <c r="F963" s="4"/>
       <c r="G963" s="4"/>
       <c r="H963" s="4"/>
-      <c r="I963" s="4"/>
       <c r="J963" s="4"/>
       <c r="K963" s="4"/>
       <c r="L963" s="4"/>
@@ -26109,7 +25152,6 @@
       <c r="F964" s="4"/>
       <c r="G964" s="4"/>
       <c r="H964" s="4"/>
-      <c r="I964" s="4"/>
       <c r="J964" s="4"/>
       <c r="K964" s="4"/>
       <c r="L964" s="4"/>
@@ -26135,7 +25177,6 @@
       <c r="F965" s="4"/>
       <c r="G965" s="4"/>
       <c r="H965" s="4"/>
-      <c r="I965" s="4"/>
       <c r="J965" s="4"/>
       <c r="K965" s="4"/>
       <c r="L965" s="4"/>
@@ -26161,7 +25202,6 @@
       <c r="F966" s="4"/>
       <c r="G966" s="4"/>
       <c r="H966" s="4"/>
-      <c r="I966" s="4"/>
       <c r="J966" s="4"/>
       <c r="K966" s="4"/>
       <c r="L966" s="4"/>
@@ -26187,7 +25227,6 @@
       <c r="F967" s="4"/>
       <c r="G967" s="4"/>
       <c r="H967" s="4"/>
-      <c r="I967" s="4"/>
       <c r="J967" s="4"/>
       <c r="K967" s="4"/>
       <c r="L967" s="4"/>
@@ -26213,7 +25252,6 @@
       <c r="F968" s="4"/>
       <c r="G968" s="4"/>
       <c r="H968" s="4"/>
-      <c r="I968" s="4"/>
       <c r="J968" s="4"/>
       <c r="K968" s="4"/>
       <c r="L968" s="4"/>
@@ -26239,7 +25277,6 @@
       <c r="F969" s="4"/>
       <c r="G969" s="4"/>
       <c r="H969" s="4"/>
-      <c r="I969" s="4"/>
       <c r="J969" s="4"/>
       <c r="K969" s="4"/>
       <c r="L969" s="4"/>
@@ -26265,7 +25302,6 @@
       <c r="F970" s="4"/>
       <c r="G970" s="4"/>
       <c r="H970" s="4"/>
-      <c r="I970" s="4"/>
       <c r="J970" s="4"/>
       <c r="K970" s="4"/>
       <c r="L970" s="4"/>
@@ -26291,7 +25327,6 @@
       <c r="F971" s="4"/>
       <c r="G971" s="4"/>
       <c r="H971" s="4"/>
-      <c r="I971" s="4"/>
       <c r="J971" s="4"/>
       <c r="K971" s="4"/>
       <c r="L971" s="4"/>
@@ -26317,7 +25352,6 @@
       <c r="F972" s="4"/>
       <c r="G972" s="4"/>
       <c r="H972" s="4"/>
-      <c r="I972" s="4"/>
       <c r="J972" s="4"/>
       <c r="K972" s="4"/>
       <c r="L972" s="4"/>
@@ -26343,7 +25377,6 @@
       <c r="F973" s="4"/>
       <c r="G973" s="4"/>
       <c r="H973" s="4"/>
-      <c r="I973" s="4"/>
       <c r="J973" s="4"/>
       <c r="K973" s="4"/>
       <c r="L973" s="4"/>
@@ -26369,7 +25402,6 @@
       <c r="F974" s="4"/>
       <c r="G974" s="4"/>
       <c r="H974" s="4"/>
-      <c r="I974" s="4"/>
       <c r="J974" s="4"/>
       <c r="K974" s="4"/>
       <c r="L974" s="4"/>
@@ -26395,7 +25427,6 @@
       <c r="F975" s="4"/>
       <c r="G975" s="4"/>
       <c r="H975" s="4"/>
-      <c r="I975" s="4"/>
       <c r="J975" s="4"/>
       <c r="K975" s="4"/>
       <c r="L975" s="4"/>
@@ -26421,7 +25452,6 @@
       <c r="F976" s="4"/>
       <c r="G976" s="4"/>
       <c r="H976" s="4"/>
-      <c r="I976" s="4"/>
       <c r="J976" s="4"/>
       <c r="K976" s="4"/>
       <c r="L976" s="4"/>
@@ -26447,7 +25477,6 @@
       <c r="F977" s="4"/>
       <c r="G977" s="4"/>
       <c r="H977" s="4"/>
-      <c r="I977" s="4"/>
       <c r="J977" s="4"/>
       <c r="K977" s="4"/>
       <c r="L977" s="4"/>
@@ -26473,7 +25502,6 @@
       <c r="F978" s="4"/>
       <c r="G978" s="4"/>
       <c r="H978" s="4"/>
-      <c r="I978" s="4"/>
       <c r="J978" s="4"/>
       <c r="K978" s="4"/>
       <c r="L978" s="4"/>
@@ -26499,7 +25527,6 @@
       <c r="F979" s="4"/>
       <c r="G979" s="4"/>
       <c r="H979" s="4"/>
-      <c r="I979" s="4"/>
       <c r="J979" s="4"/>
       <c r="K979" s="4"/>
       <c r="L979" s="4"/>
@@ -26525,7 +25552,6 @@
       <c r="F980" s="4"/>
       <c r="G980" s="4"/>
       <c r="H980" s="4"/>
-      <c r="I980" s="4"/>
       <c r="J980" s="4"/>
       <c r="K980" s="4"/>
       <c r="L980" s="4"/>
@@ -26551,7 +25577,6 @@
       <c r="F981" s="4"/>
       <c r="G981" s="4"/>
       <c r="H981" s="4"/>
-      <c r="I981" s="4"/>
       <c r="J981" s="4"/>
       <c r="K981" s="4"/>
       <c r="L981" s="4"/>
@@ -26577,7 +25602,6 @@
       <c r="F982" s="4"/>
       <c r="G982" s="4"/>
       <c r="H982" s="4"/>
-      <c r="I982" s="4"/>
       <c r="J982" s="4"/>
       <c r="K982" s="4"/>
       <c r="L982" s="4"/>
@@ -26603,7 +25627,6 @@
       <c r="F983" s="4"/>
       <c r="G983" s="4"/>
       <c r="H983" s="4"/>
-      <c r="I983" s="4"/>
       <c r="J983" s="4"/>
       <c r="K983" s="4"/>
       <c r="L983" s="4"/>
@@ -26629,7 +25652,6 @@
       <c r="F984" s="4"/>
       <c r="G984" s="4"/>
       <c r="H984" s="4"/>
-      <c r="I984" s="4"/>
       <c r="J984" s="4"/>
       <c r="K984" s="4"/>
       <c r="L984" s="4"/>
@@ -26655,7 +25677,6 @@
       <c r="F985" s="4"/>
       <c r="G985" s="4"/>
       <c r="H985" s="4"/>
-      <c r="I985" s="4"/>
       <c r="J985" s="4"/>
       <c r="K985" s="4"/>
       <c r="L985" s="4"/>
@@ -26681,7 +25702,6 @@
       <c r="F986" s="4"/>
       <c r="G986" s="4"/>
       <c r="H986" s="4"/>
-      <c r="I986" s="4"/>
       <c r="J986" s="4"/>
       <c r="K986" s="4"/>
       <c r="L986" s="4"/>
@@ -26707,7 +25727,6 @@
       <c r="F987" s="4"/>
       <c r="G987" s="4"/>
       <c r="H987" s="4"/>
-      <c r="I987" s="4"/>
       <c r="J987" s="4"/>
       <c r="K987" s="4"/>
       <c r="L987" s="4"/>
@@ -26733,7 +25752,6 @@
       <c r="F988" s="4"/>
       <c r="G988" s="4"/>
       <c r="H988" s="4"/>
-      <c r="I988" s="4"/>
       <c r="J988" s="4"/>
       <c r="K988" s="4"/>
       <c r="L988" s="4"/>
@@ -26759,7 +25777,6 @@
       <c r="F989" s="4"/>
       <c r="G989" s="4"/>
       <c r="H989" s="4"/>
-      <c r="I989" s="4"/>
       <c r="J989" s="4"/>
       <c r="K989" s="4"/>
       <c r="L989" s="4"/>
@@ -26785,7 +25802,6 @@
       <c r="F990" s="4"/>
       <c r="G990" s="4"/>
       <c r="H990" s="4"/>
-      <c r="I990" s="4"/>
       <c r="J990" s="4"/>
       <c r="K990" s="4"/>
       <c r="L990" s="4"/>
@@ -26811,7 +25827,6 @@
       <c r="F991" s="4"/>
       <c r="G991" s="4"/>
       <c r="H991" s="4"/>
-      <c r="I991" s="4"/>
       <c r="J991" s="4"/>
       <c r="K991" s="4"/>
       <c r="L991" s="4"/>
@@ -26837,7 +25852,6 @@
       <c r="F992" s="4"/>
       <c r="G992" s="4"/>
       <c r="H992" s="4"/>
-      <c r="I992" s="4"/>
       <c r="J992" s="4"/>
       <c r="K992" s="4"/>
       <c r="L992" s="4"/>
@@ -26863,7 +25877,6 @@
       <c r="F993" s="4"/>
       <c r="G993" s="4"/>
       <c r="H993" s="4"/>
-      <c r="I993" s="4"/>
       <c r="J993" s="4"/>
       <c r="K993" s="4"/>
       <c r="L993" s="4"/>
@@ -26889,7 +25902,6 @@
       <c r="F994" s="4"/>
       <c r="G994" s="4"/>
       <c r="H994" s="4"/>
-      <c r="I994" s="4"/>
       <c r="J994" s="4"/>
       <c r="K994" s="4"/>
       <c r="L994" s="4"/>
@@ -26915,7 +25927,6 @@
       <c r="F995" s="4"/>
       <c r="G995" s="4"/>
       <c r="H995" s="4"/>
-      <c r="I995" s="4"/>
       <c r="J995" s="4"/>
       <c r="K995" s="4"/>
       <c r="L995" s="4"/>
@@ -26941,7 +25952,6 @@
       <c r="F996" s="4"/>
       <c r="G996" s="4"/>
       <c r="H996" s="4"/>
-      <c r="I996" s="4"/>
       <c r="J996" s="4"/>
       <c r="K996" s="4"/>
       <c r="L996" s="4"/>
@@ -26967,7 +25977,6 @@
       <c r="F997" s="4"/>
       <c r="G997" s="4"/>
       <c r="H997" s="4"/>
-      <c r="I997" s="4"/>
       <c r="J997" s="4"/>
       <c r="K997" s="4"/>
       <c r="L997" s="4"/>
@@ -26993,7 +26002,6 @@
       <c r="F998" s="4"/>
       <c r="G998" s="4"/>
       <c r="H998" s="4"/>
-      <c r="I998" s="4"/>
       <c r="J998" s="4"/>
       <c r="K998" s="4"/>
       <c r="L998" s="4"/>
@@ -27019,7 +26027,6 @@
       <c r="F999" s="4"/>
       <c r="G999" s="4"/>
       <c r="H999" s="4"/>
-      <c r="I999" s="4"/>
       <c r="J999" s="4"/>
       <c r="K999" s="4"/>
       <c r="L999" s="4"/>
@@ -27045,7 +26052,6 @@
       <c r="F1000" s="4"/>
       <c r="G1000" s="4"/>
       <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
       <c r="J1000" s="4"/>
       <c r="K1000" s="4"/>
       <c r="L1000" s="4"/>
@@ -27071,7 +26077,6 @@
       <c r="F1001" s="4"/>
       <c r="G1001" s="4"/>
       <c r="H1001" s="4"/>
-      <c r="I1001" s="4"/>
       <c r="J1001" s="4"/>
       <c r="K1001" s="4"/>
       <c r="L1001" s="4"/>
@@ -27097,7 +26102,6 @@
       <c r="F1002" s="4"/>
       <c r="G1002" s="4"/>
       <c r="H1002" s="4"/>
-      <c r="I1002" s="4"/>
       <c r="J1002" s="4"/>
       <c r="K1002" s="4"/>
       <c r="L1002" s="4"/>
@@ -27123,7 +26127,6 @@
       <c r="F1003" s="4"/>
       <c r="G1003" s="4"/>
       <c r="H1003" s="4"/>
-      <c r="I1003" s="4"/>
       <c r="J1003" s="4"/>
       <c r="K1003" s="4"/>
       <c r="L1003" s="4"/>
@@ -27149,7 +26152,6 @@
       <c r="F1004" s="4"/>
       <c r="G1004" s="4"/>
       <c r="H1004" s="4"/>
-      <c r="I1004" s="4"/>
       <c r="J1004" s="4"/>
       <c r="K1004" s="4"/>
       <c r="L1004" s="4"/>
@@ -27175,7 +26177,6 @@
       <c r="F1005" s="4"/>
       <c r="G1005" s="4"/>
       <c r="H1005" s="4"/>
-      <c r="I1005" s="4"/>
       <c r="J1005" s="4"/>
       <c r="K1005" s="4"/>
       <c r="L1005" s="4"/>
@@ -27201,7 +26202,6 @@
       <c r="F1006" s="4"/>
       <c r="G1006" s="4"/>
       <c r="H1006" s="4"/>
-      <c r="I1006" s="4"/>
       <c r="J1006" s="4"/>
       <c r="K1006" s="4"/>
       <c r="L1006" s="4"/>
@@ -27227,7 +26227,6 @@
       <c r="F1007" s="4"/>
       <c r="G1007" s="4"/>
       <c r="H1007" s="4"/>
-      <c r="I1007" s="4"/>
       <c r="J1007" s="4"/>
       <c r="K1007" s="4"/>
       <c r="L1007" s="4"/>
@@ -27253,7 +26252,6 @@
       <c r="F1008" s="4"/>
       <c r="G1008" s="4"/>
       <c r="H1008" s="4"/>
-      <c r="I1008" s="4"/>
       <c r="J1008" s="4"/>
       <c r="K1008" s="4"/>
       <c r="L1008" s="4"/>
@@ -27279,7 +26277,6 @@
       <c r="F1009" s="4"/>
       <c r="G1009" s="4"/>
       <c r="H1009" s="4"/>
-      <c r="I1009" s="4"/>
       <c r="J1009" s="4"/>
       <c r="K1009" s="4"/>
       <c r="L1009" s="4"/>
@@ -27305,7 +26302,6 @@
       <c r="F1010" s="4"/>
       <c r="G1010" s="4"/>
       <c r="H1010" s="4"/>
-      <c r="I1010" s="4"/>
       <c r="J1010" s="4"/>
       <c r="K1010" s="4"/>
       <c r="L1010" s="4"/>
@@ -27331,7 +26327,6 @@
       <c r="F1011" s="4"/>
       <c r="G1011" s="4"/>
       <c r="H1011" s="4"/>
-      <c r="I1011" s="4"/>
       <c r="J1011" s="4"/>
       <c r="K1011" s="4"/>
       <c r="L1011" s="4"/>
@@ -27357,7 +26352,6 @@
       <c r="F1012" s="4"/>
       <c r="G1012" s="4"/>
       <c r="H1012" s="4"/>
-      <c r="I1012" s="4"/>
       <c r="J1012" s="4"/>
       <c r="K1012" s="4"/>
       <c r="L1012" s="4"/>
@@ -27383,7 +26377,6 @@
       <c r="F1013" s="4"/>
       <c r="G1013" s="4"/>
       <c r="H1013" s="4"/>
-      <c r="I1013" s="4"/>
       <c r="J1013" s="4"/>
       <c r="K1013" s="4"/>
       <c r="L1013" s="4"/>
@@ -27409,7 +26402,6 @@
       <c r="F1014" s="4"/>
       <c r="G1014" s="4"/>
       <c r="H1014" s="4"/>
-      <c r="I1014" s="4"/>
       <c r="J1014" s="4"/>
       <c r="K1014" s="4"/>
       <c r="L1014" s="4"/>
@@ -27435,7 +26427,6 @@
       <c r="F1015" s="4"/>
       <c r="G1015" s="4"/>
       <c r="H1015" s="4"/>
-      <c r="I1015" s="4"/>
       <c r="J1015" s="4"/>
       <c r="K1015" s="4"/>
       <c r="L1015" s="4"/>
@@ -27461,7 +26452,6 @@
       <c r="F1016" s="4"/>
       <c r="G1016" s="4"/>
       <c r="H1016" s="4"/>
-      <c r="I1016" s="4"/>
       <c r="J1016" s="4"/>
       <c r="K1016" s="4"/>
       <c r="L1016" s="4"/>
@@ -27487,7 +26477,6 @@
       <c r="F1017" s="4"/>
       <c r="G1017" s="4"/>
       <c r="H1017" s="4"/>
-      <c r="I1017" s="4"/>
       <c r="J1017" s="4"/>
       <c r="K1017" s="4"/>
       <c r="L1017" s="4"/>
@@ -27513,7 +26502,6 @@
       <c r="F1018" s="4"/>
       <c r="G1018" s="4"/>
       <c r="H1018" s="4"/>
-      <c r="I1018" s="4"/>
       <c r="J1018" s="4"/>
       <c r="K1018" s="4"/>
       <c r="L1018" s="4"/>
@@ -27539,7 +26527,6 @@
       <c r="F1019" s="4"/>
       <c r="G1019" s="4"/>
       <c r="H1019" s="4"/>
-      <c r="I1019" s="4"/>
       <c r="J1019" s="4"/>
       <c r="K1019" s="4"/>
       <c r="L1019" s="4"/>
@@ -27565,7 +26552,6 @@
       <c r="F1020" s="4"/>
       <c r="G1020" s="4"/>
       <c r="H1020" s="4"/>
-      <c r="I1020" s="4"/>
       <c r="J1020" s="4"/>
       <c r="K1020" s="4"/>
       <c r="L1020" s="4"/>
@@ -27591,7 +26577,6 @@
       <c r="F1021" s="4"/>
       <c r="G1021" s="4"/>
       <c r="H1021" s="4"/>
-      <c r="I1021" s="4"/>
       <c r="J1021" s="4"/>
       <c r="K1021" s="4"/>
       <c r="L1021" s="4"/>
@@ -27617,7 +26602,6 @@
       <c r="F1022" s="4"/>
       <c r="G1022" s="4"/>
       <c r="H1022" s="4"/>
-      <c r="I1022" s="4"/>
       <c r="J1022" s="4"/>
       <c r="K1022" s="4"/>
       <c r="L1022" s="4"/>
@@ -27643,7 +26627,6 @@
       <c r="F1023" s="4"/>
       <c r="G1023" s="4"/>
       <c r="H1023" s="4"/>
-      <c r="I1023" s="4"/>
       <c r="J1023" s="4"/>
       <c r="K1023" s="4"/>
       <c r="L1023" s="4"/>
@@ -27669,7 +26652,6 @@
       <c r="F1024" s="4"/>
       <c r="G1024" s="4"/>
       <c r="H1024" s="4"/>
-      <c r="I1024" s="4"/>
       <c r="J1024" s="4"/>
       <c r="K1024" s="4"/>
       <c r="L1024" s="4"/>
@@ -27695,7 +26677,6 @@
       <c r="F1025" s="4"/>
       <c r="G1025" s="4"/>
       <c r="H1025" s="4"/>
-      <c r="I1025" s="4"/>
       <c r="J1025" s="4"/>
       <c r="K1025" s="4"/>
       <c r="L1025" s="4"/>
@@ -27721,7 +26702,6 @@
       <c r="F1026" s="4"/>
       <c r="G1026" s="4"/>
       <c r="H1026" s="4"/>
-      <c r="I1026" s="4"/>
       <c r="J1026" s="4"/>
       <c r="K1026" s="4"/>
       <c r="L1026" s="4"/>
@@ -27747,7 +26727,6 @@
       <c r="F1027" s="4"/>
       <c r="G1027" s="4"/>
       <c r="H1027" s="4"/>
-      <c r="I1027" s="4"/>
       <c r="J1027" s="4"/>
       <c r="K1027" s="4"/>
       <c r="L1027" s="4"/>
@@ -27773,7 +26752,6 @@
       <c r="F1028" s="4"/>
       <c r="G1028" s="4"/>
       <c r="H1028" s="4"/>
-      <c r="I1028" s="4"/>
       <c r="J1028" s="4"/>
       <c r="K1028" s="4"/>
       <c r="L1028" s="4"/>
@@ -27799,7 +26777,6 @@
       <c r="F1029" s="4"/>
       <c r="G1029" s="4"/>
       <c r="H1029" s="4"/>
-      <c r="I1029" s="4"/>
       <c r="J1029" s="4"/>
       <c r="K1029" s="4"/>
       <c r="L1029" s="4"/>
@@ -27825,7 +26802,6 @@
       <c r="F1030" s="4"/>
       <c r="G1030" s="4"/>
       <c r="H1030" s="4"/>
-      <c r="I1030" s="4"/>
       <c r="J1030" s="4"/>
       <c r="K1030" s="4"/>
       <c r="L1030" s="4"/>
@@ -27851,7 +26827,6 @@
       <c r="F1031" s="4"/>
       <c r="G1031" s="4"/>
       <c r="H1031" s="4"/>
-      <c r="I1031" s="4"/>
       <c r="J1031" s="4"/>
       <c r="K1031" s="4"/>
       <c r="L1031" s="4"/>
@@ -27877,7 +26852,6 @@
       <c r="F1032" s="4"/>
       <c r="G1032" s="4"/>
       <c r="H1032" s="4"/>
-      <c r="I1032" s="4"/>
       <c r="J1032" s="4"/>
       <c r="K1032" s="4"/>
       <c r="L1032" s="4"/>
@@ -27903,7 +26877,6 @@
       <c r="F1033" s="4"/>
       <c r="G1033" s="4"/>
       <c r="H1033" s="4"/>
-      <c r="I1033" s="4"/>
       <c r="J1033" s="4"/>
       <c r="K1033" s="4"/>
       <c r="L1033" s="4"/>
@@ -27929,7 +26902,6 @@
       <c r="F1034" s="4"/>
       <c r="G1034" s="4"/>
       <c r="H1034" s="4"/>
-      <c r="I1034" s="4"/>
       <c r="J1034" s="4"/>
       <c r="K1034" s="4"/>
       <c r="L1034" s="4"/>
@@ -27955,7 +26927,6 @@
       <c r="F1035" s="4"/>
       <c r="G1035" s="4"/>
       <c r="H1035" s="4"/>
-      <c r="I1035" s="4"/>
       <c r="J1035" s="4"/>
       <c r="K1035" s="4"/>
       <c r="L1035" s="4"/>
@@ -27981,7 +26952,6 @@
       <c r="F1036" s="4"/>
       <c r="G1036" s="4"/>
       <c r="H1036" s="4"/>
-      <c r="I1036" s="4"/>
       <c r="J1036" s="4"/>
       <c r="K1036" s="4"/>
       <c r="L1036" s="4"/>
@@ -28007,7 +26977,6 @@
       <c r="F1037" s="4"/>
       <c r="G1037" s="4"/>
       <c r="H1037" s="4"/>
-      <c r="I1037" s="4"/>
       <c r="J1037" s="4"/>
       <c r="K1037" s="4"/>
       <c r="L1037" s="4"/>
@@ -28033,7 +27002,6 @@
       <c r="F1038" s="4"/>
       <c r="G1038" s="4"/>
       <c r="H1038" s="4"/>
-      <c r="I1038" s="4"/>
       <c r="J1038" s="4"/>
       <c r="K1038" s="4"/>
       <c r="L1038" s="4"/>
@@ -28059,7 +27027,6 @@
       <c r="F1039" s="4"/>
       <c r="G1039" s="4"/>
       <c r="H1039" s="4"/>
-      <c r="I1039" s="4"/>
       <c r="J1039" s="4"/>
       <c r="K1039" s="4"/>
       <c r="L1039" s="4"/>
@@ -28085,7 +27052,6 @@
       <c r="F1040" s="4"/>
       <c r="G1040" s="4"/>
       <c r="H1040" s="4"/>
-      <c r="I1040" s="4"/>
       <c r="J1040" s="4"/>
       <c r="K1040" s="4"/>
       <c r="L1040" s="4"/>
@@ -28111,7 +27077,6 @@
       <c r="F1041" s="4"/>
       <c r="G1041" s="4"/>
       <c r="H1041" s="4"/>
-      <c r="I1041" s="4"/>
       <c r="J1041" s="4"/>
       <c r="K1041" s="4"/>
       <c r="L1041" s="4"/>
@@ -28137,7 +27102,6 @@
       <c r="F1042" s="4"/>
       <c r="G1042" s="4"/>
       <c r="H1042" s="4"/>
-      <c r="I1042" s="4"/>
       <c r="J1042" s="4"/>
       <c r="K1042" s="4"/>
       <c r="L1042" s="4"/>
@@ -28163,7 +27127,6 @@
       <c r="F1043" s="4"/>
       <c r="G1043" s="4"/>
       <c r="H1043" s="4"/>
-      <c r="I1043" s="4"/>
       <c r="J1043" s="4"/>
       <c r="K1043" s="4"/>
       <c r="L1043" s="4"/>
@@ -28189,7 +27152,6 @@
       <c r="F1044" s="4"/>
       <c r="G1044" s="4"/>
       <c r="H1044" s="4"/>
-      <c r="I1044" s="4"/>
       <c r="J1044" s="4"/>
       <c r="K1044" s="4"/>
       <c r="L1044" s="4"/>
@@ -28215,7 +27177,6 @@
       <c r="F1045" s="4"/>
       <c r="G1045" s="4"/>
       <c r="H1045" s="4"/>
-      <c r="I1045" s="4"/>
       <c r="J1045" s="4"/>
       <c r="K1045" s="4"/>
       <c r="L1045" s="4"/>
@@ -28241,7 +27202,6 @@
       <c r="F1046" s="4"/>
       <c r="G1046" s="4"/>
       <c r="H1046" s="4"/>
-      <c r="I1046" s="4"/>
       <c r="J1046" s="4"/>
       <c r="K1046" s="4"/>
       <c r="L1046" s="4"/>
@@ -28267,7 +27227,6 @@
       <c r="F1047" s="4"/>
       <c r="G1047" s="4"/>
       <c r="H1047" s="4"/>
-      <c r="I1047" s="4"/>
       <c r="J1047" s="4"/>
       <c r="K1047" s="4"/>
       <c r="L1047" s="4"/>
@@ -28293,7 +27252,6 @@
       <c r="F1048" s="4"/>
       <c r="G1048" s="4"/>
       <c r="H1048" s="4"/>
-      <c r="I1048" s="4"/>
       <c r="J1048" s="4"/>
       <c r="K1048" s="4"/>
       <c r="L1048" s="4"/>
@@ -28319,7 +27277,6 @@
       <c r="F1049" s="4"/>
       <c r="G1049" s="4"/>
       <c r="H1049" s="4"/>
-      <c r="I1049" s="4"/>
       <c r="J1049" s="4"/>
       <c r="K1049" s="4"/>
       <c r="L1049" s="4"/>
@@ -28345,7 +27302,6 @@
       <c r="F1050" s="4"/>
       <c r="G1050" s="4"/>
       <c r="H1050" s="4"/>
-      <c r="I1050" s="4"/>
       <c r="J1050" s="4"/>
       <c r="K1050" s="4"/>
       <c r="L1050" s="4"/>
@@ -28371,7 +27327,6 @@
       <c r="F1051" s="4"/>
       <c r="G1051" s="4"/>
       <c r="H1051" s="4"/>
-      <c r="I1051" s="4"/>
       <c r="J1051" s="4"/>
       <c r="K1051" s="4"/>
       <c r="L1051" s="4"/>
@@ -28397,7 +27352,6 @@
       <c r="F1052" s="4"/>
       <c r="G1052" s="4"/>
       <c r="H1052" s="4"/>
-      <c r="I1052" s="4"/>
       <c r="J1052" s="4"/>
       <c r="K1052" s="4"/>
       <c r="L1052" s="4"/>
@@ -28423,7 +27377,6 @@
       <c r="F1053" s="4"/>
       <c r="G1053" s="4"/>
       <c r="H1053" s="4"/>
-      <c r="I1053" s="4"/>
       <c r="J1053" s="4"/>
       <c r="K1053" s="4"/>
       <c r="L1053" s="4"/>
@@ -28449,7 +27402,6 @@
       <c r="F1054" s="4"/>
       <c r="G1054" s="4"/>
       <c r="H1054" s="4"/>
-      <c r="I1054" s="4"/>
       <c r="J1054" s="4"/>
       <c r="K1054" s="4"/>
       <c r="L1054" s="4"/>
@@ -28475,7 +27427,6 @@
       <c r="F1055" s="4"/>
       <c r="G1055" s="4"/>
       <c r="H1055" s="4"/>
-      <c r="I1055" s="4"/>
       <c r="J1055" s="4"/>
       <c r="K1055" s="4"/>
       <c r="L1055" s="4"/>
@@ -28501,7 +27452,6 @@
       <c r="F1056" s="4"/>
       <c r="G1056" s="4"/>
       <c r="H1056" s="4"/>
-      <c r="I1056" s="4"/>
       <c r="J1056" s="4"/>
       <c r="K1056" s="4"/>
       <c r="L1056" s="4"/>
@@ -28527,7 +27477,6 @@
       <c r="F1057" s="4"/>
       <c r="G1057" s="4"/>
       <c r="H1057" s="4"/>
-      <c r="I1057" s="4"/>
       <c r="J1057" s="4"/>
       <c r="K1057" s="4"/>
       <c r="L1057" s="4"/>
@@ -28553,7 +27502,6 @@
       <c r="F1058" s="4"/>
       <c r="G1058" s="4"/>
       <c r="H1058" s="4"/>
-      <c r="I1058" s="4"/>
       <c r="J1058" s="4"/>
       <c r="K1058" s="4"/>
       <c r="L1058" s="4"/>
@@ -28579,7 +27527,6 @@
       <c r="F1059" s="4"/>
       <c r="G1059" s="4"/>
       <c r="H1059" s="4"/>
-      <c r="I1059" s="4"/>
       <c r="J1059" s="4"/>
       <c r="K1059" s="4"/>
       <c r="L1059" s="4"/>
@@ -28605,7 +27552,6 @@
       <c r="F1060" s="4"/>
       <c r="G1060" s="4"/>
       <c r="H1060" s="4"/>
-      <c r="I1060" s="4"/>
       <c r="J1060" s="4"/>
       <c r="K1060" s="4"/>
       <c r="L1060" s="4"/>
@@ -28631,7 +27577,6 @@
       <c r="F1061" s="4"/>
       <c r="G1061" s="4"/>
       <c r="H1061" s="4"/>
-      <c r="I1061" s="4"/>
       <c r="J1061" s="4"/>
       <c r="K1061" s="4"/>
       <c r="L1061" s="4"/>
@@ -28657,7 +27602,6 @@
       <c r="F1062" s="4"/>
       <c r="G1062" s="4"/>
       <c r="H1062" s="4"/>
-      <c r="I1062" s="4"/>
       <c r="J1062" s="4"/>
       <c r="K1062" s="4"/>
       <c r="L1062" s="4"/>
@@ -28683,7 +27627,6 @@
       <c r="F1063" s="4"/>
       <c r="G1063" s="4"/>
       <c r="H1063" s="4"/>
-      <c r="I1063" s="4"/>
       <c r="J1063" s="4"/>
       <c r="K1063" s="4"/>
       <c r="L1063" s="4"/>
@@ -28709,7 +27652,6 @@
       <c r="F1064" s="4"/>
       <c r="G1064" s="4"/>
       <c r="H1064" s="4"/>
-      <c r="I1064" s="4"/>
       <c r="J1064" s="4"/>
       <c r="K1064" s="4"/>
       <c r="L1064" s="4"/>
@@ -28735,7 +27677,6 @@
       <c r="F1065" s="4"/>
       <c r="G1065" s="4"/>
       <c r="H1065" s="4"/>
-      <c r="I1065" s="4"/>
       <c r="J1065" s="4"/>
       <c r="K1065" s="4"/>
       <c r="L1065" s="4"/>
@@ -28761,7 +27702,6 @@
       <c r="F1066" s="4"/>
       <c r="G1066" s="4"/>
       <c r="H1066" s="4"/>
-      <c r="I1066" s="4"/>
       <c r="J1066" s="4"/>
       <c r="K1066" s="4"/>
       <c r="L1066" s="4"/>
@@ -28787,7 +27727,6 @@
       <c r="F1067" s="4"/>
       <c r="G1067" s="4"/>
       <c r="H1067" s="4"/>
-      <c r="I1067" s="4"/>
       <c r="J1067" s="4"/>
       <c r="K1067" s="4"/>
       <c r="L1067" s="4"/>
@@ -28813,7 +27752,6 @@
       <c r="F1068" s="4"/>
       <c r="G1068" s="4"/>
       <c r="H1068" s="4"/>
-      <c r="I1068" s="4"/>
       <c r="J1068" s="4"/>
       <c r="K1068" s="4"/>
       <c r="L1068" s="4"/>
@@ -28839,7 +27777,6 @@
       <c r="F1069" s="4"/>
       <c r="G1069" s="4"/>
       <c r="H1069" s="4"/>
-      <c r="I1069" s="4"/>
       <c r="J1069" s="4"/>
       <c r="K1069" s="4"/>
       <c r="L1069" s="4"/>
@@ -28865,7 +27802,6 @@
       <c r="F1070" s="4"/>
       <c r="G1070" s="4"/>
       <c r="H1070" s="4"/>
-      <c r="I1070" s="4"/>
       <c r="J1070" s="4"/>
       <c r="K1070" s="4"/>
       <c r="L1070" s="4"/>
@@ -28891,7 +27827,6 @@
       <c r="F1071" s="4"/>
       <c r="G1071" s="4"/>
       <c r="H1071" s="4"/>
-      <c r="I1071" s="4"/>
       <c r="J1071" s="4"/>
       <c r="K1071" s="4"/>
       <c r="L1071" s="4"/>
@@ -28917,7 +27852,6 @@
       <c r="F1072" s="4"/>
       <c r="G1072" s="4"/>
       <c r="H1072" s="4"/>
-      <c r="I1072" s="4"/>
       <c r="J1072" s="4"/>
       <c r="K1072" s="4"/>
       <c r="L1072" s="4"/>
@@ -28943,7 +27877,6 @@
       <c r="F1073" s="4"/>
       <c r="G1073" s="4"/>
       <c r="H1073" s="4"/>
-      <c r="I1073" s="4"/>
       <c r="J1073" s="4"/>
       <c r="K1073" s="4"/>
       <c r="L1073" s="4"/>
@@ -28969,7 +27902,6 @@
       <c r="F1074" s="4"/>
       <c r="G1074" s="4"/>
       <c r="H1074" s="4"/>
-      <c r="I1074" s="4"/>
       <c r="J1074" s="4"/>
       <c r="K1074" s="4"/>
       <c r="L1074" s="4"/>
@@ -28995,7 +27927,6 @@
       <c r="F1075" s="4"/>
       <c r="G1075" s="4"/>
       <c r="H1075" s="4"/>
-      <c r="I1075" s="4"/>
       <c r="J1075" s="4"/>
       <c r="K1075" s="4"/>
       <c r="L1075" s="4"/>
@@ -29021,7 +27952,6 @@
       <c r="F1076" s="4"/>
       <c r="G1076" s="4"/>
       <c r="H1076" s="4"/>
-      <c r="I1076" s="4"/>
       <c r="J1076" s="4"/>
       <c r="K1076" s="4"/>
       <c r="L1076" s="4"/>
@@ -29047,7 +27977,6 @@
       <c r="F1077" s="4"/>
       <c r="G1077" s="4"/>
       <c r="H1077" s="4"/>
-      <c r="I1077" s="4"/>
       <c r="J1077" s="4"/>
       <c r="K1077" s="4"/>
       <c r="L1077" s="4"/>
@@ -29073,7 +28002,6 @@
       <c r="F1078" s="4"/>
       <c r="G1078" s="4"/>
       <c r="H1078" s="4"/>
-      <c r="I1078" s="4"/>
       <c r="J1078" s="4"/>
       <c r="K1078" s="4"/>
       <c r="L1078" s="4"/>
@@ -29099,7 +28027,6 @@
       <c r="F1079" s="4"/>
       <c r="G1079" s="4"/>
       <c r="H1079" s="4"/>
-      <c r="I1079" s="4"/>
       <c r="J1079" s="4"/>
       <c r="K1079" s="4"/>
       <c r="L1079" s="4"/>
@@ -29125,7 +28052,6 @@
       <c r="F1080" s="4"/>
       <c r="G1080" s="4"/>
       <c r="H1080" s="4"/>
-      <c r="I1080" s="4"/>
       <c r="J1080" s="4"/>
       <c r="K1080" s="4"/>
       <c r="L1080" s="4"/>
@@ -29151,7 +28077,6 @@
       <c r="F1081" s="4"/>
       <c r="G1081" s="4"/>
       <c r="H1081" s="4"/>
-      <c r="I1081" s="4"/>
       <c r="J1081" s="4"/>
       <c r="K1081" s="4"/>
       <c r="L1081" s="4"/>
@@ -29177,7 +28102,6 @@
       <c r="F1082" s="4"/>
       <c r="G1082" s="4"/>
       <c r="H1082" s="4"/>
-      <c r="I1082" s="4"/>
       <c r="J1082" s="4"/>
       <c r="K1082" s="4"/>
       <c r="L1082" s="4"/>
@@ -29203,7 +28127,6 @@
       <c r="F1083" s="4"/>
       <c r="G1083" s="4"/>
       <c r="H1083" s="4"/>
-      <c r="I1083" s="4"/>
       <c r="J1083" s="4"/>
       <c r="K1083" s="4"/>
       <c r="L1083" s="4"/>
@@ -29229,7 +28152,6 @@
       <c r="F1084" s="4"/>
       <c r="G1084" s="4"/>
       <c r="H1084" s="4"/>
-      <c r="I1084" s="4"/>
       <c r="J1084" s="4"/>
       <c r="K1084" s="4"/>
       <c r="L1084" s="4"/>
@@ -29255,7 +28177,6 @@
       <c r="F1085" s="4"/>
       <c r="G1085" s="4"/>
       <c r="H1085" s="4"/>
-      <c r="I1085" s="4"/>
       <c r="J1085" s="4"/>
       <c r="K1085" s="4"/>
       <c r="L1085" s="4"/>
@@ -29281,7 +28202,6 @@
       <c r="F1086" s="4"/>
       <c r="G1086" s="4"/>
       <c r="H1086" s="4"/>
-      <c r="I1086" s="4"/>
       <c r="J1086" s="4"/>
       <c r="K1086" s="4"/>
       <c r="L1086" s="4"/>
@@ -29307,7 +28227,6 @@
       <c r="F1087" s="4"/>
       <c r="G1087" s="4"/>
       <c r="H1087" s="4"/>
-      <c r="I1087" s="4"/>
       <c r="J1087" s="4"/>
       <c r="K1087" s="4"/>
       <c r="L1087" s="4"/>
@@ -29333,7 +28252,6 @@
       <c r="F1088" s="4"/>
       <c r="G1088" s="4"/>
       <c r="H1088" s="4"/>
-      <c r="I1088" s="4"/>
       <c r="J1088" s="4"/>
       <c r="K1088" s="4"/>
       <c r="L1088" s="4"/>
@@ -29359,7 +28277,6 @@
       <c r="F1089" s="4"/>
       <c r="G1089" s="4"/>
       <c r="H1089" s="4"/>
-      <c r="I1089" s="4"/>
       <c r="J1089" s="4"/>
       <c r="K1089" s="4"/>
       <c r="L1089" s="4"/>
@@ -29385,7 +28302,6 @@
       <c r="F1090" s="4"/>
       <c r="G1090" s="4"/>
       <c r="H1090" s="4"/>
-      <c r="I1090" s="4"/>
       <c r="J1090" s="4"/>
       <c r="K1090" s="4"/>
       <c r="L1090" s="4"/>
@@ -29411,7 +28327,6 @@
       <c r="F1091" s="4"/>
       <c r="G1091" s="4"/>
       <c r="H1091" s="4"/>
-      <c r="I1091" s="4"/>
       <c r="J1091" s="4"/>
       <c r="K1091" s="4"/>
       <c r="L1091" s="4"/>
@@ -29437,7 +28352,6 @@
       <c r="F1092" s="4"/>
       <c r="G1092" s="4"/>
       <c r="H1092" s="4"/>
-      <c r="I1092" s="4"/>
       <c r="J1092" s="4"/>
       <c r="K1092" s="4"/>
       <c r="L1092" s="4"/>
@@ -29463,7 +28377,6 @@
       <c r="F1093" s="4"/>
       <c r="G1093" s="4"/>
       <c r="H1093" s="4"/>
-      <c r="I1093" s="4"/>
       <c r="J1093" s="4"/>
       <c r="K1093" s="4"/>
       <c r="L1093" s="4"/>
@@ -29489,7 +28402,6 @@
       <c r="F1094" s="4"/>
       <c r="G1094" s="4"/>
       <c r="H1094" s="4"/>
-      <c r="I1094" s="4"/>
       <c r="J1094" s="4"/>
       <c r="K1094" s="4"/>
       <c r="L1094" s="4"/>
@@ -29515,7 +28427,6 @@
       <c r="F1095" s="4"/>
       <c r="G1095" s="4"/>
       <c r="H1095" s="4"/>
-      <c r="I1095" s="4"/>
       <c r="J1095" s="4"/>
       <c r="K1095" s="4"/>
       <c r="L1095" s="4"/>
@@ -29541,7 +28452,6 @@
       <c r="F1096" s="4"/>
       <c r="G1096" s="4"/>
       <c r="H1096" s="4"/>
-      <c r="I1096" s="4"/>
       <c r="J1096" s="4"/>
       <c r="K1096" s="4"/>
       <c r="L1096" s="4"/>
@@ -29567,7 +28477,6 @@
       <c r="F1097" s="4"/>
       <c r="G1097" s="4"/>
       <c r="H1097" s="4"/>
-      <c r="I1097" s="4"/>
       <c r="J1097" s="4"/>
       <c r="K1097" s="4"/>
       <c r="L1097" s="4"/>
@@ -29593,7 +28502,6 @@
       <c r="F1098" s="4"/>
       <c r="G1098" s="4"/>
       <c r="H1098" s="4"/>
-      <c r="I1098" s="4"/>
       <c r="J1098" s="4"/>
       <c r="K1098" s="4"/>
       <c r="L1098" s="4"/>
@@ -29619,7 +28527,6 @@
       <c r="F1099" s="4"/>
       <c r="G1099" s="4"/>
       <c r="H1099" s="4"/>
-      <c r="I1099" s="4"/>
       <c r="J1099" s="4"/>
       <c r="K1099" s="4"/>
       <c r="L1099" s="4"/>
@@ -29645,7 +28552,6 @@
       <c r="F1100" s="4"/>
       <c r="G1100" s="4"/>
       <c r="H1100" s="4"/>
-      <c r="I1100" s="4"/>
       <c r="J1100" s="4"/>
       <c r="K1100" s="4"/>
       <c r="L1100" s="4"/>
@@ -29671,7 +28577,6 @@
       <c r="F1101" s="4"/>
       <c r="G1101" s="4"/>
       <c r="H1101" s="4"/>
-      <c r="I1101" s="4"/>
       <c r="J1101" s="4"/>
       <c r="K1101" s="4"/>
       <c r="L1101" s="4"/>
@@ -29697,7 +28602,6 @@
       <c r="F1102" s="4"/>
       <c r="G1102" s="4"/>
       <c r="H1102" s="4"/>
-      <c r="I1102" s="4"/>
       <c r="J1102" s="4"/>
       <c r="K1102" s="4"/>
       <c r="L1102" s="4"/>
@@ -29723,7 +28627,6 @@
       <c r="F1103" s="4"/>
       <c r="G1103" s="4"/>
       <c r="H1103" s="4"/>
-      <c r="I1103" s="4"/>
       <c r="J1103" s="4"/>
       <c r="K1103" s="4"/>
       <c r="L1103" s="4"/>
@@ -29749,7 +28652,6 @@
       <c r="F1104" s="4"/>
       <c r="G1104" s="4"/>
       <c r="H1104" s="4"/>
-      <c r="I1104" s="4"/>
       <c r="J1104" s="4"/>
       <c r="K1104" s="4"/>
       <c r="L1104" s="4"/>
@@ -29775,7 +28677,6 @@
       <c r="F1105" s="4"/>
       <c r="G1105" s="4"/>
       <c r="H1105" s="4"/>
-      <c r="I1105" s="4"/>
       <c r="J1105" s="4"/>
       <c r="K1105" s="4"/>
       <c r="L1105" s="4"/>
@@ -29801,7 +28702,6 @@
       <c r="F1106" s="4"/>
       <c r="G1106" s="4"/>
       <c r="H1106" s="4"/>
-      <c r="I1106" s="4"/>
       <c r="J1106" s="4"/>
       <c r="K1106" s="4"/>
       <c r="L1106" s="4"/>
@@ -29827,7 +28727,6 @@
       <c r="F1107" s="4"/>
       <c r="G1107" s="4"/>
       <c r="H1107" s="4"/>
-      <c r="I1107" s="4"/>
       <c r="J1107" s="4"/>
       <c r="K1107" s="4"/>
       <c r="L1107" s="4"/>
@@ -29853,7 +28752,6 @@
       <c r="F1108" s="4"/>
       <c r="G1108" s="4"/>
       <c r="H1108" s="4"/>
-      <c r="I1108" s="4"/>
       <c r="J1108" s="4"/>
       <c r="K1108" s="4"/>
       <c r="L1108" s="4"/>
@@ -29879,7 +28777,6 @@
       <c r="F1109" s="4"/>
       <c r="G1109" s="4"/>
       <c r="H1109" s="4"/>
-      <c r="I1109" s="4"/>
       <c r="J1109" s="4"/>
       <c r="K1109" s="4"/>
       <c r="L1109" s="4"/>
@@ -29905,7 +28802,6 @@
       <c r="F1110" s="4"/>
       <c r="G1110" s="4"/>
       <c r="H1110" s="4"/>
-      <c r="I1110" s="4"/>
       <c r="J1110" s="4"/>
       <c r="K1110" s="4"/>
       <c r="L1110" s="4"/>
@@ -29931,7 +28827,6 @@
       <c r="F1111" s="4"/>
       <c r="G1111" s="4"/>
       <c r="H1111" s="4"/>
-      <c r="I1111" s="4"/>
       <c r="J1111" s="4"/>
       <c r="K1111" s="4"/>
       <c r="L1111" s="4"/>
@@ -29957,7 +28852,6 @@
       <c r="F1112" s="4"/>
       <c r="G1112" s="4"/>
       <c r="H1112" s="4"/>
-      <c r="I1112" s="4"/>
       <c r="J1112" s="4"/>
       <c r="K1112" s="4"/>
       <c r="L1112" s="4"/>
@@ -29983,7 +28877,6 @@
       <c r="F1113" s="4"/>
       <c r="G1113" s="4"/>
       <c r="H1113" s="4"/>
-      <c r="I1113" s="4"/>
       <c r="J1113" s="4"/>
       <c r="K1113" s="4"/>
       <c r="L1113" s="4"/>
@@ -30009,7 +28902,6 @@
       <c r="F1114" s="4"/>
       <c r="G1114" s="4"/>
       <c r="H1114" s="4"/>
-      <c r="I1114" s="4"/>
       <c r="J1114" s="4"/>
       <c r="K1114" s="4"/>
       <c r="L1114" s="4"/>
@@ -30035,7 +28927,6 @@
       <c r="F1115" s="4"/>
       <c r="G1115" s="4"/>
       <c r="H1115" s="4"/>
-      <c r="I1115" s="4"/>
       <c r="J1115" s="4"/>
       <c r="K1115" s="4"/>
       <c r="L1115" s="4"/>
@@ -30061,7 +28952,6 @@
       <c r="F1116" s="4"/>
       <c r="G1116" s="4"/>
       <c r="H1116" s="4"/>
-      <c r="I1116" s="4"/>
       <c r="J1116" s="4"/>
       <c r="K1116" s="4"/>
       <c r="L1116" s="4"/>
@@ -30087,7 +28977,6 @@
       <c r="F1117" s="4"/>
       <c r="G1117" s="4"/>
       <c r="H1117" s="4"/>
-      <c r="I1117" s="4"/>
       <c r="J1117" s="4"/>
       <c r="K1117" s="4"/>
       <c r="L1117" s="4"/>
@@ -30113,7 +29002,6 @@
       <c r="F1118" s="4"/>
       <c r="G1118" s="4"/>
       <c r="H1118" s="4"/>
-      <c r="I1118" s="4"/>
       <c r="J1118" s="4"/>
       <c r="K1118" s="4"/>
       <c r="L1118" s="4"/>
@@ -30139,7 +29027,6 @@
       <c r="F1119" s="4"/>
       <c r="G1119" s="4"/>
       <c r="H1119" s="4"/>
-      <c r="I1119" s="4"/>
       <c r="J1119" s="4"/>
       <c r="K1119" s="4"/>
       <c r="L1119" s="4"/>
@@ -30165,7 +29052,6 @@
       <c r="F1120" s="4"/>
       <c r="G1120" s="4"/>
       <c r="H1120" s="4"/>
-      <c r="I1120" s="4"/>
       <c r="J1120" s="4"/>
       <c r="K1120" s="4"/>
       <c r="L1120" s="4"/>
@@ -30191,7 +29077,6 @@
       <c r="F1121" s="4"/>
       <c r="G1121" s="4"/>
       <c r="H1121" s="4"/>
-      <c r="I1121" s="4"/>
       <c r="J1121" s="4"/>
       <c r="K1121" s="4"/>
       <c r="L1121" s="4"/>
@@ -30217,7 +29102,6 @@
       <c r="F1122" s="4"/>
       <c r="G1122" s="4"/>
       <c r="H1122" s="4"/>
-      <c r="I1122" s="4"/>
       <c r="J1122" s="4"/>
       <c r="K1122" s="4"/>
       <c r="L1122" s="4"/>
@@ -30243,7 +29127,6 @@
       <c r="F1123" s="4"/>
       <c r="G1123" s="4"/>
       <c r="H1123" s="4"/>
-      <c r="I1123" s="4"/>
       <c r="J1123" s="4"/>
       <c r="K1123" s="4"/>
       <c r="L1123" s="4"/>
@@ -30269,7 +29152,6 @@
       <c r="F1124" s="4"/>
       <c r="G1124" s="4"/>
       <c r="H1124" s="4"/>
-      <c r="I1124" s="4"/>
       <c r="J1124" s="4"/>
       <c r="K1124" s="4"/>
       <c r="L1124" s="4"/>
@@ -30295,7 +29177,6 @@
       <c r="F1125" s="4"/>
       <c r="G1125" s="4"/>
       <c r="H1125" s="4"/>
-      <c r="I1125" s="4"/>
       <c r="J1125" s="4"/>
       <c r="K1125" s="4"/>
       <c r="L1125" s="4"/>
@@ -30321,7 +29202,6 @@
       <c r="F1126" s="4"/>
       <c r="G1126" s="4"/>
       <c r="H1126" s="4"/>
-      <c r="I1126" s="4"/>
       <c r="J1126" s="4"/>
       <c r="K1126" s="4"/>
       <c r="L1126" s="4"/>
@@ -30347,7 +29227,6 @@
       <c r="F1127" s="4"/>
       <c r="G1127" s="4"/>
       <c r="H1127" s="4"/>
-      <c r="I1127" s="4"/>
       <c r="J1127" s="4"/>
       <c r="K1127" s="4"/>
       <c r="L1127" s="4"/>
@@ -30373,7 +29252,6 @@
       <c r="F1128" s="4"/>
       <c r="G1128" s="4"/>
       <c r="H1128" s="4"/>
-      <c r="I1128" s="4"/>
       <c r="J1128" s="4"/>
       <c r="K1128" s="4"/>
       <c r="L1128" s="4"/>
@@ -30399,7 +29277,6 @@
       <c r="F1129" s="4"/>
       <c r="G1129" s="4"/>
       <c r="H1129" s="4"/>
-      <c r="I1129" s="4"/>
       <c r="J1129" s="4"/>
       <c r="K1129" s="4"/>
       <c r="L1129" s="4"/>
@@ -30425,7 +29302,6 @@
       <c r="F1130" s="4"/>
       <c r="G1130" s="4"/>
       <c r="H1130" s="4"/>
-      <c r="I1130" s="4"/>
       <c r="J1130" s="4"/>
       <c r="K1130" s="4"/>
       <c r="L1130" s="4"/>
@@ -30451,7 +29327,6 @@
       <c r="F1131" s="4"/>
       <c r="G1131" s="4"/>
       <c r="H1131" s="4"/>
-      <c r="I1131" s="4"/>
       <c r="J1131" s="4"/>
       <c r="K1131" s="4"/>
       <c r="L1131" s="4"/>
@@ -30477,7 +29352,6 @@
       <c r="F1132" s="4"/>
       <c r="G1132" s="4"/>
       <c r="H1132" s="4"/>
-      <c r="I1132" s="4"/>
       <c r="J1132" s="4"/>
       <c r="K1132" s="4"/>
       <c r="L1132" s="4"/>
@@ -30503,7 +29377,6 @@
       <c r="F1133" s="4"/>
       <c r="G1133" s="4"/>
       <c r="H1133" s="4"/>
-      <c r="I1133" s="4"/>
       <c r="J1133" s="4"/>
       <c r="K1133" s="4"/>
       <c r="L1133" s="4"/>
@@ -30536,7 +29409,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
